--- a/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
+++ b/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700" tabRatio="826" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700" tabRatio="826"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,6 @@
     <sheet name="Account_setting" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="302">
   <si>
     <t>TCID</t>
   </si>
@@ -820,22 +819,386 @@
     <t>video_add</t>
   </si>
   <si>
-    <t>genvideotest1075@gmail.com</t>
-  </si>
-  <si>
-    <t>genvideotest1076@gmail.com</t>
-  </si>
-  <si>
     <t>genvideotest1077@gmail.com</t>
   </si>
   <si>
     <t>genvideotest1078@gmail.com</t>
+  </si>
+  <si>
+    <t>genvideotest1175@gmail.com</t>
+  </si>
+  <si>
+    <t>genvideotest1176@gmail.com</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":".btn.btn-default.field-25.female"}
+Command duration or timeout: 20.10 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
+*** Element info: {Using=css selector, value=.btn.btn-default.field-25.female}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#exampleInput"}
+Command duration or timeout: 20.06 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
+*** Element info: {Using=css selector, value=#exampleInput}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button"}
+Command duration or timeout: 20.03 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a"}
+Command duration or timeout: 20.03 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button"}
+Command duration or timeout: 20.02 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a"}
+Command duration or timeout: 20.05 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address"}
+Command duration or timeout: 20.07 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
+*** Element info: {Using=css selector, value=#address}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address2"}
+Command duration or timeout: 20.06 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
+*** Element info: {Using=css selector, value=#address2}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#city"}
+Command duration or timeout: 20.07 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
+*** Element info: {Using=css selector, value=#city}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"US\"]"}
+Command duration or timeout: 20.09 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
+*** Element info: {Using=css selector, value=option[value="US"]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"NY\"]"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
+*** Element info: {Using=css selector, value=option[value="NY"]}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#zip"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
+*** Element info: {Using=css selector, value=#zip}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
+Command duration or timeout: 20.04 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#youtube_rate"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
+*** Element info: {Using=css selector, value=#youtube_rate}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#video_only_rate"}
+Command duration or timeout: 20.29 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
+*** Element info: {Using=css selector, value=#video_only_rate}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input"}
+Command duration or timeout: 20.10 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]"}
+Command duration or timeout: 20.09 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]"}
+Command duration or timeout: 20.09 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]"}
+Command duration or timeout: 20.04 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]"}
+Command duration or timeout: 20.07 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]"}
+Command duration or timeout: 20.02 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]"}
+Command duration or timeout: 20.10 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]"}
+Command duration or timeout: 20.04 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]"}
+Command duration or timeout: 20.05 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]"}
+Command duration or timeout: 20.09 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]"}
+Command duration or timeout: 20.10 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
+Command duration or timeout: 20.09 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
+Command duration or timeout: 20.10 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[5]/div/div/a"}
+Command duration or timeout: 20.05 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[5]/div/div/a}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/header/nav/div[2]/ul[1]/li[3]/a"}
+Command duration or timeout: 20.02 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
+*** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1445,16 +1808,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.85546875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="23.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="37.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1483,7 +1846,7 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1506,16 +1869,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.85546875" style="2" collapsed="1"/>
-    <col min="3" max="3" width="47.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="36.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="16" width="7.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="16384" width="8.85546875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
+    <col min="2" max="2" style="2" width="8.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="47.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="20.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="36.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="24.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="255.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="8.62890625" collapsed="true"/>
+    <col min="18" max="16384" style="2" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -2952,7 +3323,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" t="s">
-        <v>30</v>
+        <v>269</v>
       </c>
       <c r="I30" t="s">
         <v>27</v>
@@ -3046,7 +3417,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" t="s">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="I32" t="s">
         <v>27</v>
@@ -3097,7 +3468,7 @@
       </c>
       <c r="G33" s="3"/>
       <c r="H33" t="s">
-        <v>30</v>
+        <v>271</v>
       </c>
       <c r="I33" t="s">
         <v>27</v>
@@ -3146,7 +3517,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" t="s">
-        <v>30</v>
+        <v>272</v>
       </c>
       <c r="I34" t="s">
         <v>27</v>
@@ -3195,7 +3566,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" t="s">
-        <v>30</v>
+        <v>273</v>
       </c>
       <c r="I35" t="s">
         <v>27</v>
@@ -3244,7 +3615,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" t="s">
-        <v>30</v>
+        <v>274</v>
       </c>
       <c r="I36" t="s">
         <v>27</v>
@@ -3293,7 +3664,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" t="s">
-        <v>30</v>
+        <v>275</v>
       </c>
       <c r="I37" t="s">
         <v>27</v>
@@ -3344,7 +3715,7 @@
       </c>
       <c r="G38" s="3"/>
       <c r="H38" t="s">
-        <v>30</v>
+        <v>276</v>
       </c>
       <c r="I38" t="s">
         <v>27</v>
@@ -3395,7 +3766,7 @@
       </c>
       <c r="G39" s="3"/>
       <c r="H39" t="s">
-        <v>30</v>
+        <v>277</v>
       </c>
       <c r="I39" t="s">
         <v>27</v>
@@ -3446,7 +3817,7 @@
       </c>
       <c r="G40" s="3"/>
       <c r="H40" t="s">
-        <v>30</v>
+        <v>278</v>
       </c>
       <c r="I40" t="s">
         <v>27</v>
@@ -3495,7 +3866,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" t="s">
-        <v>30</v>
+        <v>279</v>
       </c>
       <c r="I41" t="s">
         <v>27</v>
@@ -3544,7 +3915,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" t="s">
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="I42" t="s">
         <v>27</v>
@@ -3595,7 +3966,7 @@
       </c>
       <c r="G43" s="3"/>
       <c r="H43" t="s">
-        <v>30</v>
+        <v>281</v>
       </c>
       <c r="I43" t="s">
         <v>27</v>
@@ -3689,7 +4060,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" t="s">
-        <v>30</v>
+        <v>282</v>
       </c>
       <c r="I45" t="s">
         <v>27</v>
@@ -3740,7 +4111,7 @@
       </c>
       <c r="G46" s="3"/>
       <c r="H46" t="s">
-        <v>30</v>
+        <v>283</v>
       </c>
       <c r="I46" t="s">
         <v>27</v>
@@ -3791,7 +4162,7 @@
       </c>
       <c r="G47" s="3"/>
       <c r="H47" t="s">
-        <v>30</v>
+        <v>284</v>
       </c>
       <c r="I47" t="s">
         <v>27</v>
@@ -3842,7 +4213,7 @@
       </c>
       <c r="G48" s="3"/>
       <c r="H48" t="s">
-        <v>30</v>
+        <v>285</v>
       </c>
       <c r="I48" t="s">
         <v>27</v>
@@ -3936,7 +4307,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" t="s">
-        <v>30</v>
+        <v>286</v>
       </c>
       <c r="I50" t="s">
         <v>27</v>
@@ -3985,7 +4356,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" t="s">
-        <v>30</v>
+        <v>287</v>
       </c>
       <c r="I51" t="s">
         <v>27</v>
@@ -4034,7 +4405,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" t="s">
-        <v>30</v>
+        <v>288</v>
       </c>
       <c r="I52" t="s">
         <v>27</v>
@@ -4083,7 +4454,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" t="s">
-        <v>30</v>
+        <v>289</v>
       </c>
       <c r="I53" t="s">
         <v>27</v>
@@ -4132,7 +4503,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" t="s">
-        <v>30</v>
+        <v>290</v>
       </c>
       <c r="I54" t="s">
         <v>27</v>
@@ -4181,7 +4552,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" t="s">
-        <v>30</v>
+        <v>291</v>
       </c>
       <c r="I55" t="s">
         <v>27</v>
@@ -4230,7 +4601,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" t="s">
-        <v>30</v>
+        <v>292</v>
       </c>
       <c r="I56" t="s">
         <v>27</v>
@@ -4279,7 +4650,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" t="s">
-        <v>30</v>
+        <v>293</v>
       </c>
       <c r="I57" t="s">
         <v>27</v>
@@ -4328,7 +4699,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" t="s">
-        <v>30</v>
+        <v>294</v>
       </c>
       <c r="I58" t="s">
         <v>27</v>
@@ -4377,7 +4748,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="I59" t="s">
         <v>27</v>
@@ -4426,7 +4797,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="I60" t="s">
         <v>27</v>
@@ -4475,7 +4846,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" t="s">
-        <v>30</v>
+        <v>297</v>
       </c>
       <c r="I61" t="s">
         <v>27</v>
@@ -4524,7 +4895,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" t="s">
-        <v>30</v>
+        <v>298</v>
       </c>
       <c r="I62" t="s">
         <v>27</v>
@@ -4573,7 +4944,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" t="s">
-        <v>30</v>
+        <v>299</v>
       </c>
       <c r="I63" t="s">
         <v>27</v>
@@ -4622,7 +4993,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" t="s">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="I64" t="s">
         <v>27</v>
@@ -4671,7 +5042,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" t="s">
-        <v>30</v>
+        <v>301</v>
       </c>
       <c r="I65" t="s">
         <v>27</v>
@@ -6669,21 +7040,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="7" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.28515625" style="7" customWidth="1" collapsed="1"/>
-    <col min="4" max="14" width="25.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="17" style="7" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="9.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="255" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="16384" width="8.85546875" style="7" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="7" width="28.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="25.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="7" width="33.28515625" collapsed="true"/>
+    <col min="4" max="14" customWidth="true" style="7" width="25.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="7" width="15.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="7" width="17.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="7" width="9.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="7" width="255.0" collapsed="true"/>
+    <col min="19" max="16384" style="7" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -6744,13 +7115,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>58</v>
@@ -6791,7 +7162,7 @@
         <v>12</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>30</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -7282,10 +7653,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -7346,13 +7717,13 @@
     </row>
     <row r="2" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>58</v>

--- a/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
+++ b/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700" tabRatio="826"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700" tabRatio="826" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="334">
   <si>
     <t>TCID</t>
   </si>
@@ -823,12 +823,6 @@
   </si>
   <si>
     <t>genvideotest1078@gmail.com</t>
-  </si>
-  <si>
-    <t>genvideotest1175@gmail.com</t>
-  </si>
-  <si>
-    <t>genvideotest1176@gmail.com</t>
   </si>
   <si>
     <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
@@ -1191,6 +1185,364 @@
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
 Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
+*** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
+  </si>
+  <si>
+    <t>genvideotest1177@gmail.com</t>
+  </si>
+  <si>
+    <t>genvideotest1178@gmail.com</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
+Command duration or timeout: 20.10 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":".btn.btn-default.field-25.female"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+*** Element info: {Using=css selector, value=.btn.btn-default.field-25.female}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#exampleInput"}
+Command duration or timeout: 20.07 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+*** Element info: {Using=css selector, value=#exampleInput}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a"}
+Command duration or timeout: 20.02 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button"}
+Command duration or timeout: 20.03 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a"}
+Command duration or timeout: 20.04 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+*** Element info: {Using=css selector, value=#address}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address2"}
+Command duration or timeout: 20.07 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+*** Element info: {Using=css selector, value=#address2}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#city"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+*** Element info: {Using=css selector, value=#city}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"US\"]"}
+Command duration or timeout: 20.09 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+*** Element info: {Using=css selector, value=option[value="US"]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"NY\"]"}
+Command duration or timeout: 20.09 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+*** Element info: {Using=css selector, value=option[value="NY"]}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#zip"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+*** Element info: {Using=css selector, value=#zip}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
+Command duration or timeout: 20.04 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#youtube_rate"}
+Command duration or timeout: 20.07 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+*** Element info: {Using=css selector, value=#youtube_rate}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#video_only_rate"}
+Command duration or timeout: 20.07 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+*** Element info: {Using=css selector, value=#video_only_rate}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input"}
+Command duration or timeout: 20.02 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]"}
+Command duration or timeout: 20.03 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]"}
+Command duration or timeout: 20.03 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]"}
+Command duration or timeout: 20.02 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]"}
+Command duration or timeout: 20.03 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]"}
+Command duration or timeout: 20.05 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]"}
+Command duration or timeout: 20.02 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]"}
+Command duration or timeout: 20.06 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]"}
+Command duration or timeout: 20.03 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]"}
+Command duration or timeout: 20.03 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]"}
+Command duration or timeout: 20.03 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
+Command duration or timeout: 20.02 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
+Command duration or timeout: 20.04 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[5]/div/div/a"}
+Command duration or timeout: 20.04 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[5]/div/div/a}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/header/nav/div[2]/ul[1]/li[3]/a"}
+Command duration or timeout: 20.04 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
 *** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
   </si>
 </sst>
@@ -1808,7 +2160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -3323,7 +3675,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="I30" t="s">
         <v>27</v>
@@ -3417,7 +3769,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="I32" t="s">
         <v>27</v>
@@ -3468,7 +3820,7 @@
       </c>
       <c r="G33" s="3"/>
       <c r="H33" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="I33" t="s">
         <v>27</v>
@@ -3517,7 +3869,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="I34" t="s">
         <v>27</v>
@@ -3566,7 +3918,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="I35" t="s">
         <v>27</v>
@@ -3615,7 +3967,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="I36" t="s">
         <v>27</v>
@@ -3664,7 +4016,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="I37" t="s">
         <v>27</v>
@@ -3715,7 +4067,7 @@
       </c>
       <c r="G38" s="3"/>
       <c r="H38" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="I38" t="s">
         <v>27</v>
@@ -3766,7 +4118,7 @@
       </c>
       <c r="G39" s="3"/>
       <c r="H39" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="I39" t="s">
         <v>27</v>
@@ -3817,7 +4169,7 @@
       </c>
       <c r="G40" s="3"/>
       <c r="H40" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="I40" t="s">
         <v>27</v>
@@ -3866,7 +4218,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="I41" t="s">
         <v>27</v>
@@ -3915,7 +4267,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="I42" t="s">
         <v>27</v>
@@ -3966,7 +4318,7 @@
       </c>
       <c r="G43" s="3"/>
       <c r="H43" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="I43" t="s">
         <v>27</v>
@@ -4060,7 +4412,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="I45" t="s">
         <v>27</v>
@@ -4111,7 +4463,7 @@
       </c>
       <c r="G46" s="3"/>
       <c r="H46" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="I46" t="s">
         <v>27</v>
@@ -4162,7 +4514,7 @@
       </c>
       <c r="G47" s="3"/>
       <c r="H47" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="I47" t="s">
         <v>27</v>
@@ -4213,7 +4565,7 @@
       </c>
       <c r="G48" s="3"/>
       <c r="H48" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="I48" t="s">
         <v>27</v>
@@ -4307,7 +4659,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="I50" t="s">
         <v>27</v>
@@ -4356,7 +4708,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="I51" t="s">
         <v>27</v>
@@ -4405,7 +4757,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="I52" t="s">
         <v>27</v>
@@ -4454,7 +4806,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="I53" t="s">
         <v>27</v>
@@ -4503,7 +4855,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="I54" t="s">
         <v>27</v>
@@ -4552,7 +4904,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="I55" t="s">
         <v>27</v>
@@ -4601,7 +4953,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="I56" t="s">
         <v>27</v>
@@ -4650,7 +5002,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="I57" t="s">
         <v>27</v>
@@ -4699,7 +5051,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="I58" t="s">
         <v>27</v>
@@ -4748,7 +5100,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="I59" t="s">
         <v>27</v>
@@ -4797,7 +5149,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="I60" t="s">
         <v>27</v>
@@ -4846,7 +5198,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="I61" t="s">
         <v>27</v>
@@ -4895,7 +5247,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="I62" t="s">
         <v>27</v>
@@ -4944,7 +5296,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="I63" t="s">
         <v>27</v>
@@ -4993,7 +5345,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="I64" t="s">
         <v>27</v>
@@ -5042,7 +5394,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="I65" t="s">
         <v>27</v>
@@ -7040,7 +7392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -7115,13 +7467,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>58</v>
@@ -7162,7 +7514,7 @@
         <v>12</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">

--- a/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
+++ b/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="334">
   <si>
     <t>TCID</t>
   </si>
@@ -823,375 +823,6 @@
   </si>
   <si>
     <t>genvideotest1078@gmail.com</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
-Command duration or timeout: 20.08 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":".btn.btn-default.field-25.female"}
-Command duration or timeout: 20.10 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
-*** Element info: {Using=css selector, value=.btn.btn-default.field-25.female}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#exampleInput"}
-Command duration or timeout: 20.06 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
-*** Element info: {Using=css selector, value=#exampleInput}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button"}
-Command duration or timeout: 20.03 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a"}
-Command duration or timeout: 20.03 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button"}
-Command duration or timeout: 20.02 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a"}
-Command duration or timeout: 20.05 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address"}
-Command duration or timeout: 20.07 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
-*** Element info: {Using=css selector, value=#address}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address2"}
-Command duration or timeout: 20.06 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
-*** Element info: {Using=css selector, value=#address2}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#city"}
-Command duration or timeout: 20.07 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
-*** Element info: {Using=css selector, value=#city}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"US\"]"}
-Command duration or timeout: 20.09 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
-*** Element info: {Using=css selector, value=option[value="US"]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"NY\"]"}
-Command duration or timeout: 20.08 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
-*** Element info: {Using=css selector, value=option[value="NY"]}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#zip"}
-Command duration or timeout: 20.08 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
-*** Element info: {Using=css selector, value=#zip}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
-Command duration or timeout: 20.04 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#youtube_rate"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
-*** Element info: {Using=css selector, value=#youtube_rate}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#video_only_rate"}
-Command duration or timeout: 20.29 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
-*** Element info: {Using=css selector, value=#video_only_rate}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input"}
-Command duration or timeout: 20.10 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]"}
-Command duration or timeout: 20.09 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]"}
-Command duration or timeout: 20.09 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]"}
-Command duration or timeout: 20.04 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]"}
-Command duration or timeout: 20.07 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]"}
-Command duration or timeout: 20.02 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]"}
-Command duration or timeout: 20.10 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]"}
-Command duration or timeout: 20.04 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]"}
-Command duration or timeout: 20.05 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]"}
-Command duration or timeout: 20.09 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]"}
-Command duration or timeout: 20.10 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
-Command duration or timeout: 20.09 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
-Command duration or timeout: 20.10 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
-Command duration or timeout: 20.08 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[5]/div/div/a"}
-Command duration or timeout: 20.05 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[5]/div/div/a}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/header/nav/div[2]/ul[1]/li[3]/a"}
-Command duration or timeout: 20.02 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 11c60d14-6e85-43a9-ad57-3d389a1d0d04
-*** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
-  </si>
-  <si>
-    <t>genvideotest1177@gmail.com</t>
-  </si>
-  <si>
-    <t>genvideotest1178@gmail.com</t>
   </si>
   <si>
     <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
@@ -1543,6 +1174,375 @@
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
 Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+*** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
+  </si>
+  <si>
+    <t>genvideotest1179@gmail.com</t>
+  </si>
+  <si>
+    <t>genvideotest1180@gmail.com</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
+Command duration or timeout: 20.05 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":".btn.btn-default.field-25.female"}
+Command duration or timeout: 20.10 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
+*** Element info: {Using=css selector, value=.btn.btn-default.field-25.female}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#exampleInput"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
+*** Element info: {Using=css selector, value=#exampleInput}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button"}
+Command duration or timeout: 20.04 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a"}
+Command duration or timeout: 20.14 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
+*** Element info: {Using=css selector, value=#address}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address2"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
+*** Element info: {Using=css selector, value=#address2}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#city"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
+*** Element info: {Using=css selector, value=#city}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"US\"]"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
+*** Element info: {Using=css selector, value=option[value="US"]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"NY\"]"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
+*** Element info: {Using=css selector, value=option[value="NY"]}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#zip"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
+*** Element info: {Using=css selector, value=#zip}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
+Command duration or timeout: 20.05 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#youtube_rate"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
+*** Element info: {Using=css selector, value=#youtube_rate}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#video_only_rate"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
+*** Element info: {Using=css selector, value=#video_only_rate}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]"}
+Command duration or timeout: 20.05 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]"}
+Command duration or timeout: 20.14 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
+Command duration or timeout: 20.14 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[5]/div/div/a"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[5]/div/div/a}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/header/nav/div[2]/ul[1]/li[3]/a"}
+Command duration or timeout: 20.04 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
 *** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
   </si>
 </sst>
@@ -3675,7 +3675,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I30" t="s">
         <v>27</v>
@@ -3769,7 +3769,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I32" t="s">
         <v>27</v>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="G33" s="3"/>
       <c r="H33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I33" t="s">
         <v>27</v>
@@ -3869,7 +3869,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I34" t="s">
         <v>27</v>
@@ -3918,7 +3918,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I35" t="s">
         <v>27</v>
@@ -3967,7 +3967,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I36" t="s">
         <v>27</v>
@@ -4016,7 +4016,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I37" t="s">
         <v>27</v>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="G38" s="3"/>
       <c r="H38" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I38" t="s">
         <v>27</v>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="G39" s="3"/>
       <c r="H39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I39" t="s">
         <v>27</v>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="G40" s="3"/>
       <c r="H40" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I40" t="s">
         <v>27</v>
@@ -4218,7 +4218,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I41" t="s">
         <v>27</v>
@@ -4267,7 +4267,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I42" t="s">
         <v>27</v>
@@ -4318,7 +4318,7 @@
       </c>
       <c r="G43" s="3"/>
       <c r="H43" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I43" t="s">
         <v>27</v>
@@ -4412,7 +4412,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I45" t="s">
         <v>27</v>
@@ -4463,7 +4463,7 @@
       </c>
       <c r="G46" s="3"/>
       <c r="H46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I46" t="s">
         <v>27</v>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="G47" s="3"/>
       <c r="H47" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I47" t="s">
         <v>27</v>
@@ -4565,7 +4565,7 @@
       </c>
       <c r="G48" s="3"/>
       <c r="H48" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I48" t="s">
         <v>27</v>
@@ -4659,7 +4659,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I50" t="s">
         <v>27</v>
@@ -4708,7 +4708,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I51" t="s">
         <v>27</v>
@@ -4757,7 +4757,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I52" t="s">
         <v>27</v>
@@ -4806,7 +4806,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I53" t="s">
         <v>27</v>
@@ -4855,7 +4855,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I54" t="s">
         <v>27</v>
@@ -4904,7 +4904,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I55" t="s">
         <v>27</v>
@@ -4953,7 +4953,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I56" t="s">
         <v>27</v>
@@ -5002,7 +5002,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I57" t="s">
         <v>27</v>
@@ -5051,7 +5051,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I58" t="s">
         <v>27</v>
@@ -5100,7 +5100,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I59" t="s">
         <v>27</v>
@@ -5149,7 +5149,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I60" t="s">
         <v>27</v>
@@ -5198,7 +5198,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I61" t="s">
         <v>27</v>
@@ -5247,7 +5247,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I62" t="s">
         <v>27</v>
@@ -5296,7 +5296,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="I63" t="s">
         <v>27</v>
@@ -7467,13 +7467,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>58</v>
@@ -7514,7 +7514,7 @@
         <v>12</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">

--- a/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
+++ b/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700" tabRatio="826" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700" tabRatio="826" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="303">
   <si>
     <t>TCID</t>
   </si>
@@ -825,36 +825,42 @@
     <t>genvideotest1078@gmail.com</t>
   </si>
   <si>
+    <t>genvideotest1181@gmail.com</t>
+  </si>
+  <si>
+    <t>genvideotest1182@gmail.com</t>
+  </si>
+  <si>
     <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
-Command duration or timeout: 20.10 seconds
+Command duration or timeout: 22.72 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
 System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
   </si>
   <si>
     <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":".btn.btn-default.field-25.female"}
-Command duration or timeout: 20.11 seconds
+Command duration or timeout: 20.08 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
 System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
 *** Element info: {Using=css selector, value=.btn.btn-default.field-25.female}</t>
   </si>
   <si>
     <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#exampleInput"}
-Command duration or timeout: 20.07 seconds
+Command duration or timeout: 20.05 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
 System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
 *** Element info: {Using=css selector, value=#exampleInput}</t>
   </si>
   <si>
@@ -865,216 +871,216 @@
 System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button}</t>
   </si>
   <si>
     <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a"}
-Command duration or timeout: 20.02 seconds
+Command duration or timeout: 20.12 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
 System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a}</t>
   </si>
   <si>
     <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button"}
-Command duration or timeout: 20.03 seconds
+Command duration or timeout: 20.12 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
 System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button}</t>
   </si>
   <si>
     <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a"}
-Command duration or timeout: 20.04 seconds
+Command duration or timeout: 20.12 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
 System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a}</t>
   </si>
   <si>
     <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address"}
+Command duration or timeout: 20.09 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
+*** Element info: {Using=css selector, value=#address}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address2"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
+*** Element info: {Using=css selector, value=#address2}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#city"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
+*** Element info: {Using=css selector, value=#city}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"US\"]"}
+Command duration or timeout: 20.14 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
+*** Element info: {Using=css selector, value=option[value="US"]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"NY\"]"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
+*** Element info: {Using=css selector, value=option[value="NY"]}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#zip"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
+*** Element info: {Using=css selector, value=#zip}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
 System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
-*** Element info: {Using=css selector, value=#address}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address2"}
-Command duration or timeout: 20.07 seconds
+Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#youtube_rate"}
+Command duration or timeout: 20.14 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
 System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
-*** Element info: {Using=css selector, value=#address2}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#city"}
-Command duration or timeout: 20.08 seconds
+Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
+*** Element info: {Using=css selector, value=#youtube_rate}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#video_only_rate"}
+Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
 System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
-*** Element info: {Using=css selector, value=#city}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"US\"]"}
-Command duration or timeout: 20.09 seconds
+Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
+*** Element info: {Using=css selector, value=#video_only_rate}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input"}
+Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
 System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
-*** Element info: {Using=css selector, value=option[value="US"]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"NY\"]"}
-Command duration or timeout: 20.09 seconds
+Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]"}
+Command duration or timeout: 20.13 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
 System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
-*** Element info: {Using=css selector, value=option[value="NY"]}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#zip"}
-Command duration or timeout: 20.08 seconds
+Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]"}
+Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
 System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
-*** Element info: {Using=css selector, value=#zip}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
-Command duration or timeout: 20.04 seconds
+Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]"}
+Command duration or timeout: 20.13 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
 System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#youtube_rate"}
-Command duration or timeout: 20.07 seconds
+Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]"}
+Command duration or timeout: 20.12 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
 System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
-*** Element info: {Using=css selector, value=#youtube_rate}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#video_only_rate"}
-Command duration or timeout: 20.07 seconds
+Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]"}
+Command duration or timeout: 20.12 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
 System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
-*** Element info: {Using=css selector, value=#video_only_rate}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input"}
-Command duration or timeout: 20.02 seconds
+Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]"}
+Command duration or timeout: 20.12 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
 System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]"}
-Command duration or timeout: 20.03 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]"}
-Command duration or timeout: 20.03 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]"}
-Command duration or timeout: 20.02 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]"}
-Command duration or timeout: 20.03 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]"}
-Command duration or timeout: 20.05 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]"}
-Command duration or timeout: 20.02 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]}</t>
   </si>
   <si>
@@ -1085,472 +1091,116 @@
 System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]}</t>
   </si>
   <si>
     <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]"}
-Command duration or timeout: 20.08 seconds
+Command duration or timeout: 20.14 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
 System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]}</t>
   </si>
   <si>
     <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]"}
-Command duration or timeout: 20.03 seconds
+Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
 System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]}</t>
   </si>
   <si>
     <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]"}
-Command duration or timeout: 20.03 seconds
+Command duration or timeout: 20.12 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
 System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]}</t>
   </si>
   <si>
     <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]"}
-Command duration or timeout: 20.03 seconds
+Command duration or timeout: 20.12 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
 System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]}</t>
   </si>
   <si>
     <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
-Command duration or timeout: 20.02 seconds
+Command duration or timeout: 20.06 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
 System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
   </si>
   <si>
     <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
-Command duration or timeout: 20.04 seconds
+Command duration or timeout: 20.12 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
 System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
+Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
   </si>
   <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[5]/div/div/a"}
-Command duration or timeout: 20.04 seconds
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
+Command duration or timeout: 20.12 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
 System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[5]/div/div/a}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/header/nav/div[2]/ul[1]/li[3]/a"}
-Command duration or timeout: 20.04 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 4a00a80b-e848-4520-8c8a-e3feb85dbfd6
-*** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
-  </si>
-  <si>
-    <t>genvideotest1179@gmail.com</t>
-  </si>
-  <si>
-    <t>genvideotest1180@gmail.com</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
+Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[5]/div/div/a"}
 Command duration or timeout: 20.05 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
 System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":".btn.btn-default.field-25.female"}
-Command duration or timeout: 20.10 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
-*** Element info: {Using=css selector, value=.btn.btn-default.field-25.female}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#exampleInput"}
-Command duration or timeout: 20.08 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
-*** Element info: {Using=css selector, value=#exampleInput}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button"}
-Command duration or timeout: 20.04 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a"}
+Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[5]/div/div/a}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/header/nav/div[2]/ul[1]/li[3]/a"}
 Command duration or timeout: 20.12 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
 System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a"}
-Command duration or timeout: 20.14 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address"}
-Command duration or timeout: 20.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
-*** Element info: {Using=css selector, value=#address}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address2"}
-Command duration or timeout: 20.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
-*** Element info: {Using=css selector, value=#address2}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#city"}
-Command duration or timeout: 20.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
-*** Element info: {Using=css selector, value=#city}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"US\"]"}
-Command duration or timeout: 20.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
-*** Element info: {Using=css selector, value=option[value="US"]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"NY\"]"}
-Command duration or timeout: 20.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
-*** Element info: {Using=css selector, value=option[value="NY"]}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#zip"}
-Command duration or timeout: 20.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
-*** Element info: {Using=css selector, value=#zip}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
-Command duration or timeout: 20.05 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#youtube_rate"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
-*** Element info: {Using=css selector, value=#youtube_rate}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#video_only_rate"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
-*** Element info: {Using=css selector, value=#video_only_rate}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]"}
-Command duration or timeout: 20.05 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]"}
-Command duration or timeout: 20.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]"}
-Command duration or timeout: 20.14 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]"}
-Command duration or timeout: 20.08 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]"}
-Command duration or timeout: 20.08 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]"}
-Command duration or timeout: 20.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]"}
-Command duration or timeout: 20.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
-Command duration or timeout: 20.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
-Command duration or timeout: 20.14 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
-Command duration or timeout: 20.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[5]/div/div/a"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[5]/div/div/a}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/header/nav/div[2]/ul[1]/li[3]/a"}
-Command duration or timeout: 20.04 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 74d7bfeb-af66-423c-b30d-7d199fb68a8d
+Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
 *** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2166,10 +1816,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="23.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="37.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="8.85546875" collapsed="true"/>
+    <col min="1" max="1" width="23.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.85546875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2215,30 +1865,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R108"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H105" sqref="H105"/>
+    <sheetView tabSelected="1" topLeftCell="H84" workbookViewId="0">
+      <selection activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
-    <col min="2" max="2" style="2" width="8.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="47.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="20.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="36.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="24.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="255.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="8.62890625" collapsed="true"/>
-    <col min="18" max="16384" style="2" width="8.85546875" collapsed="true"/>
+    <col min="1" max="1" width="20.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.85546875" style="2" collapsed="1"/>
+    <col min="3" max="3" width="47.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="36.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="255" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16" width="7.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="16384" width="8.85546875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -3675,7 +3318,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="I30" t="s">
         <v>27</v>
@@ -3769,7 +3412,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="I32" t="s">
         <v>27</v>
@@ -3820,7 +3463,7 @@
       </c>
       <c r="G33" s="3"/>
       <c r="H33" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="I33" t="s">
         <v>27</v>
@@ -3869,7 +3512,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="I34" t="s">
         <v>27</v>
@@ -3918,7 +3561,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="I35" t="s">
         <v>27</v>
@@ -3967,7 +3610,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="I36" t="s">
         <v>27</v>
@@ -4016,7 +3659,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="I37" t="s">
         <v>27</v>
@@ -4067,7 +3710,7 @@
       </c>
       <c r="G38" s="3"/>
       <c r="H38" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="I38" t="s">
         <v>27</v>
@@ -4118,7 +3761,7 @@
       </c>
       <c r="G39" s="3"/>
       <c r="H39" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="I39" t="s">
         <v>27</v>
@@ -4169,7 +3812,7 @@
       </c>
       <c r="G40" s="3"/>
       <c r="H40" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="I40" t="s">
         <v>27</v>
@@ -4218,7 +3861,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="I41" t="s">
         <v>27</v>
@@ -4267,7 +3910,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="I42" t="s">
         <v>27</v>
@@ -4318,7 +3961,7 @@
       </c>
       <c r="G43" s="3"/>
       <c r="H43" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="I43" t="s">
         <v>27</v>
@@ -4412,7 +4055,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="I45" t="s">
         <v>27</v>
@@ -4463,7 +4106,7 @@
       </c>
       <c r="G46" s="3"/>
       <c r="H46" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="I46" t="s">
         <v>27</v>
@@ -4514,7 +4157,7 @@
       </c>
       <c r="G47" s="3"/>
       <c r="H47" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="I47" t="s">
         <v>27</v>
@@ -4565,7 +4208,7 @@
       </c>
       <c r="G48" s="3"/>
       <c r="H48" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="I48" t="s">
         <v>27</v>
@@ -4659,7 +4302,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="I50" t="s">
         <v>27</v>
@@ -4708,7 +4351,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="I51" t="s">
         <v>27</v>
@@ -4757,7 +4400,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="I52" t="s">
         <v>27</v>
@@ -4806,7 +4449,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="I53" t="s">
         <v>27</v>
@@ -4855,7 +4498,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="I54" t="s">
         <v>27</v>
@@ -4904,7 +4547,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="I55" t="s">
         <v>27</v>
@@ -4953,7 +4596,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="I56" t="s">
         <v>27</v>
@@ -5002,7 +4645,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="I57" t="s">
         <v>27</v>
@@ -5051,7 +4694,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="I58" t="s">
         <v>27</v>
@@ -5100,7 +4743,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="I59" t="s">
         <v>27</v>
@@ -5149,7 +4792,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="I60" t="s">
         <v>27</v>
@@ -5198,7 +4841,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="I61" t="s">
         <v>27</v>
@@ -5247,7 +4890,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="I62" t="s">
         <v>27</v>
@@ -5296,7 +4939,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="I63" t="s">
         <v>27</v>
@@ -5345,7 +4988,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="I64" t="s">
         <v>27</v>
@@ -5394,7 +5037,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="I65" t="s">
         <v>27</v>
@@ -6968,7 +6611,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" t="s">
-        <v>30</v>
+        <v>302</v>
       </c>
       <c r="I98" t="s">
         <v>27</v>
@@ -7014,7 +6657,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" t="s">
-        <v>30</v>
+        <v>302</v>
       </c>
       <c r="I99" t="s">
         <v>27</v>
@@ -7062,7 +6705,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" t="s">
-        <v>30</v>
+        <v>302</v>
       </c>
       <c r="I100" t="s">
         <v>27</v>
@@ -7110,7 +6753,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" t="s">
-        <v>30</v>
+        <v>302</v>
       </c>
       <c r="I101" t="s">
         <v>27</v>
@@ -7158,7 +6801,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" t="s">
-        <v>30</v>
+        <v>302</v>
       </c>
       <c r="I102" t="s">
         <v>27</v>
@@ -7206,7 +6849,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" t="s">
-        <v>30</v>
+        <v>302</v>
       </c>
       <c r="I103" t="s">
         <v>27</v>
@@ -7254,7 +6897,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" t="s">
-        <v>30</v>
+        <v>302</v>
       </c>
       <c r="I104" t="s">
         <v>27</v>
@@ -7392,21 +7035,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="7" width="28.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="7" width="25.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="7" width="33.28515625" collapsed="true"/>
-    <col min="4" max="14" customWidth="true" style="7" width="25.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="7" width="15.42578125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="7" width="17.0" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="7" width="9.42578125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="7" width="255.0" collapsed="true"/>
-    <col min="19" max="16384" style="7" width="8.85546875" collapsed="true"/>
+    <col min="1" max="1" width="28.28515625" style="7" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.28515625" style="7" customWidth="1" collapsed="1"/>
+    <col min="4" max="14" width="25.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17" style="7" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="255" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="16384" width="8.85546875" style="7" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -7467,13 +7110,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>58</v>
@@ -7514,7 +7157,7 @@
         <v>12</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -8005,10 +7648,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="1" max="1" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">

--- a/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
+++ b/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700" tabRatio="826" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700" tabRatio="826" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="335">
   <si>
     <t>TCID</t>
   </si>
@@ -823,12 +823,6 @@
   </si>
   <si>
     <t>genvideotest1078@gmail.com</t>
-  </si>
-  <si>
-    <t>genvideotest1181@gmail.com</t>
-  </si>
-  <si>
-    <t>genvideotest1182@gmail.com</t>
   </si>
   <si>
     <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
@@ -1196,11 +1190,370 @@
   <si>
     <t>FAIL</t>
   </si>
+  <si>
+    <t>genvideotest1183@gmail.com</t>
+  </si>
+  <si>
+    <t>genvideotest1184@gmail.com</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
+Command duration or timeout: 20.10 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":".btn.btn-default.field-25.female"}
+Command duration or timeout: 20.10 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
+*** Element info: {Using=css selector, value=.btn.btn-default.field-25.female}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#exampleInput"}
+Command duration or timeout: 20.09 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
+*** Element info: {Using=css selector, value=#exampleInput}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button"}
+Command duration or timeout: 20.05 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button"}
+Command duration or timeout: 20.03 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address"}
+Command duration or timeout: 20.05 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
+*** Element info: {Using=css selector, value=#address}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address2"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
+*** Element info: {Using=css selector, value=#address2}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#city"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
+*** Element info: {Using=css selector, value=#city}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"US\"]"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
+*** Element info: {Using=css selector, value=option[value="US"]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"NY\"]"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
+*** Element info: {Using=css selector, value=option[value="NY"]}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#zip"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
+*** Element info: {Using=css selector, value=#zip}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#youtube_rate"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
+*** Element info: {Using=css selector, value=#youtube_rate}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#video_only_rate"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
+*** Element info: {Using=css selector, value=#video_only_rate}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]"}
+Command duration or timeout: 20.03 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[5]/div/div/a"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[5]/div/div/a}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/header/nav/div[2]/ul[1]/li[3]/a"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
+*** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1816,10 +2169,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.85546875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="23.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="37.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1865,23 +2218,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H84" workbookViewId="0">
+    <sheetView topLeftCell="H84" workbookViewId="0">
       <selection activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.85546875" style="2" collapsed="1"/>
-    <col min="3" max="3" width="47.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="36.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="255" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16" width="7.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="16384" width="8.85546875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
+    <col min="2" max="2" style="2" width="8.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="47.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="20.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="36.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="24.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="255.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="8.62890625" collapsed="true"/>
+    <col min="18" max="16384" style="2" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -3318,7 +3678,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="I30" t="s">
         <v>27</v>
@@ -3412,7 +3772,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="I32" t="s">
         <v>27</v>
@@ -3463,7 +3823,7 @@
       </c>
       <c r="G33" s="3"/>
       <c r="H33" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="I33" t="s">
         <v>27</v>
@@ -3512,7 +3872,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="I34" t="s">
         <v>27</v>
@@ -3561,7 +3921,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="I35" t="s">
         <v>27</v>
@@ -3610,7 +3970,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="I36" t="s">
         <v>27</v>
@@ -3659,7 +4019,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="I37" t="s">
         <v>27</v>
@@ -3710,7 +4070,7 @@
       </c>
       <c r="G38" s="3"/>
       <c r="H38" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="I38" t="s">
         <v>27</v>
@@ -3761,7 +4121,7 @@
       </c>
       <c r="G39" s="3"/>
       <c r="H39" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="I39" t="s">
         <v>27</v>
@@ -3812,7 +4172,7 @@
       </c>
       <c r="G40" s="3"/>
       <c r="H40" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="I40" t="s">
         <v>27</v>
@@ -3861,7 +4221,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="I41" t="s">
         <v>27</v>
@@ -3910,7 +4270,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="I42" t="s">
         <v>27</v>
@@ -3961,7 +4321,7 @@
       </c>
       <c r="G43" s="3"/>
       <c r="H43" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="I43" t="s">
         <v>27</v>
@@ -4055,7 +4415,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="I45" t="s">
         <v>27</v>
@@ -4106,7 +4466,7 @@
       </c>
       <c r="G46" s="3"/>
       <c r="H46" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="I46" t="s">
         <v>27</v>
@@ -4157,7 +4517,7 @@
       </c>
       <c r="G47" s="3"/>
       <c r="H47" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="I47" t="s">
         <v>27</v>
@@ -4208,7 +4568,7 @@
       </c>
       <c r="G48" s="3"/>
       <c r="H48" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="I48" t="s">
         <v>27</v>
@@ -4302,7 +4662,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="I50" t="s">
         <v>27</v>
@@ -4351,7 +4711,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="I51" t="s">
         <v>27</v>
@@ -4400,7 +4760,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="I52" t="s">
         <v>27</v>
@@ -4449,7 +4809,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="I53" t="s">
         <v>27</v>
@@ -4498,7 +4858,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="I54" t="s">
         <v>27</v>
@@ -4547,7 +4907,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="I55" t="s">
         <v>27</v>
@@ -4596,7 +4956,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="I56" t="s">
         <v>27</v>
@@ -4645,7 +5005,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="I57" t="s">
         <v>27</v>
@@ -4694,7 +5054,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="I58" t="s">
         <v>27</v>
@@ -4743,7 +5103,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="I59" t="s">
         <v>27</v>
@@ -4792,7 +5152,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="I60" t="s">
         <v>27</v>
@@ -4841,7 +5201,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="I61" t="s">
         <v>27</v>
@@ -4890,7 +5250,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="I62" t="s">
         <v>27</v>
@@ -4939,7 +5299,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="I63" t="s">
         <v>27</v>
@@ -4988,7 +5348,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="I64" t="s">
         <v>27</v>
@@ -5037,7 +5397,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="I65" t="s">
         <v>27</v>
@@ -6611,7 +6971,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I98" t="s">
         <v>27</v>
@@ -6657,7 +7017,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I99" t="s">
         <v>27</v>
@@ -6705,7 +7065,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I100" t="s">
         <v>27</v>
@@ -6753,7 +7113,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I101" t="s">
         <v>27</v>
@@ -6801,7 +7161,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I102" t="s">
         <v>27</v>
@@ -6849,7 +7209,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I103" t="s">
         <v>27</v>
@@ -6897,7 +7257,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I104" t="s">
         <v>27</v>
@@ -7035,21 +7395,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="7" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.28515625" style="7" customWidth="1" collapsed="1"/>
-    <col min="4" max="14" width="25.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="17" style="7" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="9.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="255" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="16384" width="8.85546875" style="7" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="7" width="28.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="25.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="7" width="33.28515625" collapsed="true"/>
+    <col min="4" max="14" customWidth="true" style="7" width="25.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="7" width="15.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="7" width="17.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="7" width="9.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="7" width="255.0" collapsed="true"/>
+    <col min="19" max="16384" style="7" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -7110,13 +7470,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>58</v>
@@ -7157,7 +7517,7 @@
         <v>12</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -7648,10 +8008,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">

--- a/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
+++ b/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="333">
   <si>
     <t>TCID</t>
   </si>
@@ -825,376 +825,7 @@
     <t>genvideotest1078@gmail.com</t>
   </si>
   <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
-Command duration or timeout: 22.72 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":".btn.btn-default.field-25.female"}
-Command duration or timeout: 20.08 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
-*** Element info: {Using=css selector, value=.btn.btn-default.field-25.female}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#exampleInput"}
-Command duration or timeout: 20.05 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
-*** Element info: {Using=css selector, value=#exampleInput}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address"}
-Command duration or timeout: 20.09 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
-*** Element info: {Using=css selector, value=#address}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address2"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
-*** Element info: {Using=css selector, value=#address2}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#city"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
-*** Element info: {Using=css selector, value=#city}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"US\"]"}
-Command duration or timeout: 20.14 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
-*** Element info: {Using=css selector, value=option[value="US"]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"NY\"]"}
-Command duration or timeout: 20.08 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
-*** Element info: {Using=css selector, value=option[value="NY"]}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#zip"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
-*** Element info: {Using=css selector, value=#zip}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#youtube_rate"}
-Command duration or timeout: 20.14 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
-*** Element info: {Using=css selector, value=#youtube_rate}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#video_only_rate"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
-*** Element info: {Using=css selector, value=#video_only_rate}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]"}
-Command duration or timeout: 20.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]"}
-Command duration or timeout: 20.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]"}
-Command duration or timeout: 20.06 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]"}
-Command duration or timeout: 20.14 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
-Command duration or timeout: 20.06 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[5]/div/div/a"}
-Command duration or timeout: 20.05 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[5]/div/div/a}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/header/nav/div[2]/ul[1]/li[3]/a"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: b360b579-41fe-430b-947e-7e9d11cbc6f6
-*** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
-  </si>
-  <si>
     <t>FAIL</t>
-  </si>
-  <si>
-    <t>genvideotest1183@gmail.com</t>
-  </si>
-  <si>
-    <t>genvideotest1184@gmail.com</t>
   </si>
   <si>
     <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
@@ -1546,6 +1177,353 @@
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
 Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
+*** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
+  </si>
+  <si>
+    <t>genvideotest1185@gmail.com</t>
+  </si>
+  <si>
+    <t>genvideotest1186@gmail.com</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
+Command duration or timeout: 22.26 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":".btn.btn-default.field-25.female"}
+Command duration or timeout: 20.09 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
+*** Element info: {Using=css selector, value=.btn.btn-default.field-25.female}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#exampleInput"}
+Command duration or timeout: 20.10 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
+*** Element info: {Using=css selector, value=#exampleInput}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button"}
+Command duration or timeout: 20.05 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address"}
+Command duration or timeout: 20.05 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
+*** Element info: {Using=css selector, value=#address}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address2"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
+*** Element info: {Using=css selector, value=#address2}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#city"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
+*** Element info: {Using=css selector, value=#city}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"US\"]"}
+Command duration or timeout: 20.09 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
+*** Element info: {Using=css selector, value=option[value="US"]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"NY\"]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
+*** Element info: {Using=css selector, value=option[value="NY"]}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#zip"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
+*** Element info: {Using=css selector, value=#zip}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#youtube_rate"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
+*** Element info: {Using=css selector, value=#youtube_rate}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#video_only_rate"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
+*** Element info: {Using=css selector, value=#video_only_rate}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]"}
+Command duration or timeout: 20.03 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]"}
+Command duration or timeout: 20.06 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[5]/div/div/a"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[5]/div/div/a}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/header/nav/div[2]/ul[1]/li[3]/a"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
 *** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
   </si>
 </sst>
@@ -3678,7 +3656,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I30" t="s">
         <v>27</v>
@@ -3772,7 +3750,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I32" t="s">
         <v>27</v>
@@ -3823,7 +3801,7 @@
       </c>
       <c r="G33" s="3"/>
       <c r="H33" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I33" t="s">
         <v>27</v>
@@ -3872,7 +3850,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I34" t="s">
         <v>27</v>
@@ -3921,7 +3899,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I35" t="s">
         <v>27</v>
@@ -3970,7 +3948,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I36" t="s">
         <v>27</v>
@@ -4019,7 +3997,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I37" t="s">
         <v>27</v>
@@ -4070,7 +4048,7 @@
       </c>
       <c r="G38" s="3"/>
       <c r="H38" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I38" t="s">
         <v>27</v>
@@ -4121,7 +4099,7 @@
       </c>
       <c r="G39" s="3"/>
       <c r="H39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I39" t="s">
         <v>27</v>
@@ -4172,7 +4150,7 @@
       </c>
       <c r="G40" s="3"/>
       <c r="H40" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I40" t="s">
         <v>27</v>
@@ -4221,7 +4199,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I41" t="s">
         <v>27</v>
@@ -4270,7 +4248,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I42" t="s">
         <v>27</v>
@@ -4321,7 +4299,7 @@
       </c>
       <c r="G43" s="3"/>
       <c r="H43" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I43" t="s">
         <v>27</v>
@@ -4415,7 +4393,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I45" t="s">
         <v>27</v>
@@ -4466,7 +4444,7 @@
       </c>
       <c r="G46" s="3"/>
       <c r="H46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I46" t="s">
         <v>27</v>
@@ -4517,7 +4495,7 @@
       </c>
       <c r="G47" s="3"/>
       <c r="H47" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I47" t="s">
         <v>27</v>
@@ -4568,7 +4546,7 @@
       </c>
       <c r="G48" s="3"/>
       <c r="H48" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I48" t="s">
         <v>27</v>
@@ -4662,7 +4640,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I50" t="s">
         <v>27</v>
@@ -4711,7 +4689,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I51" t="s">
         <v>27</v>
@@ -4760,7 +4738,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I52" t="s">
         <v>27</v>
@@ -4809,7 +4787,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I53" t="s">
         <v>27</v>
@@ -4858,7 +4836,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I54" t="s">
         <v>27</v>
@@ -4907,7 +4885,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I55" t="s">
         <v>27</v>
@@ -4956,7 +4934,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I56" t="s">
         <v>27</v>
@@ -5005,7 +4983,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I57" t="s">
         <v>27</v>
@@ -5054,7 +5032,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I58" t="s">
         <v>27</v>
@@ -5103,7 +5081,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I59" t="s">
         <v>27</v>
@@ -5152,7 +5130,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I60" t="s">
         <v>27</v>
@@ -5201,7 +5179,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I61" t="s">
         <v>27</v>
@@ -5250,7 +5228,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I62" t="s">
         <v>27</v>
@@ -5299,7 +5277,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="I63" t="s">
         <v>27</v>
@@ -5348,7 +5326,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I64" t="s">
         <v>27</v>
@@ -5397,7 +5375,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I65" t="s">
         <v>27</v>
@@ -6971,7 +6949,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="I98" t="s">
         <v>27</v>
@@ -7017,7 +6995,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="I99" t="s">
         <v>27</v>
@@ -7065,7 +7043,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="I100" t="s">
         <v>27</v>
@@ -7113,7 +7091,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="I101" t="s">
         <v>27</v>
@@ -7161,7 +7139,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="I102" t="s">
         <v>27</v>
@@ -7209,7 +7187,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="I103" t="s">
         <v>27</v>
@@ -7257,7 +7235,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="I104" t="s">
         <v>27</v>
@@ -7470,13 +7448,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>58</v>
@@ -7517,7 +7495,7 @@
         <v>12</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">

--- a/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
+++ b/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="334">
   <si>
     <t>TCID</t>
   </si>
@@ -826,364 +826,6 @@
   </si>
   <si>
     <t>FAIL</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
-Command duration or timeout: 20.10 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":".btn.btn-default.field-25.female"}
-Command duration or timeout: 20.10 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
-*** Element info: {Using=css selector, value=.btn.btn-default.field-25.female}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#exampleInput"}
-Command duration or timeout: 20.09 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
-*** Element info: {Using=css selector, value=#exampleInput}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button"}
-Command duration or timeout: 20.05 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button"}
-Command duration or timeout: 20.03 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address"}
-Command duration or timeout: 20.05 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
-*** Element info: {Using=css selector, value=#address}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address2"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
-*** Element info: {Using=css selector, value=#address2}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#city"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
-*** Element info: {Using=css selector, value=#city}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"US\"]"}
-Command duration or timeout: 20.08 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
-*** Element info: {Using=css selector, value=option[value="US"]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"NY\"]"}
-Command duration or timeout: 20.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
-*** Element info: {Using=css selector, value=option[value="NY"]}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#zip"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
-*** Element info: {Using=css selector, value=#zip}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#youtube_rate"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
-*** Element info: {Using=css selector, value=#youtube_rate}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#video_only_rate"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
-*** Element info: {Using=css selector, value=#video_only_rate}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]"}
-Command duration or timeout: 20.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]"}
-Command duration or timeout: 20.03 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]"}
-Command duration or timeout: 20.08 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]"}
-Command duration or timeout: 20.08 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]"}
-Command duration or timeout: 20.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
-Command duration or timeout: 20.08 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[5]/div/div/a"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[5]/div/div/a}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/header/nav/div[2]/ul[1]/li[3]/a"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: fd920b33-7b8b-4504-9c9c-697587fcf6e1
-*** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
-  </si>
-  <si>
-    <t>genvideotest1185@gmail.com</t>
-  </si>
-  <si>
-    <t>genvideotest1186@gmail.com</t>
   </si>
   <si>
     <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
@@ -1524,6 +1166,375 @@
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
 Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
+*** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
+  </si>
+  <si>
+    <t>genvideotest1187@gmail.com</t>
+  </si>
+  <si>
+    <t>genvideotest1188@gmail.com</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
+Command duration or timeout: 20.47 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":".btn.btn-default.field-25.female"}
+Command duration or timeout: 20.07 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
+*** Element info: {Using=css selector, value=.btn.btn-default.field-25.female}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#exampleInput"}
+Command duration or timeout: 20.04 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
+*** Element info: {Using=css selector, value=#exampleInput}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button"}
+Command duration or timeout: 20.06 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a"}
+Command duration or timeout: 20.03 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address"}
+Command duration or timeout: 20.06 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
+*** Element info: {Using=css selector, value=#address}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address2"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
+*** Element info: {Using=css selector, value=#address2}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#city"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
+*** Element info: {Using=css selector, value=#city}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"US\"]"}
+Command duration or timeout: 20.05 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
+*** Element info: {Using=css selector, value=option[value="US"]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"NY\"]"}
+Command duration or timeout: 20.14 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
+*** Element info: {Using=css selector, value=option[value="NY"]}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#zip"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
+*** Element info: {Using=css selector, value=#zip}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
+Command duration or timeout: 20.03 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#youtube_rate"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
+*** Element info: {Using=css selector, value=#youtube_rate}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#video_only_rate"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
+*** Element info: {Using=css selector, value=#video_only_rate}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]"}
+Command duration or timeout: 20.14 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]"}
+Command duration or timeout: 20.05 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]"}
+Command duration or timeout: 20.06 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
+Command duration or timeout: 20.06 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[5]/div/div/a"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[5]/div/div/a}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/header/nav/div[2]/ul[1]/li[3]/a"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
 *** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
   </si>
 </sst>
@@ -3656,7 +3667,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I30" t="s">
         <v>27</v>
@@ -3750,7 +3761,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I32" t="s">
         <v>27</v>
@@ -3801,7 +3812,7 @@
       </c>
       <c r="G33" s="3"/>
       <c r="H33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I33" t="s">
         <v>27</v>
@@ -3850,7 +3861,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I34" t="s">
         <v>27</v>
@@ -3899,7 +3910,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I35" t="s">
         <v>27</v>
@@ -3948,7 +3959,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I36" t="s">
         <v>27</v>
@@ -3997,7 +4008,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I37" t="s">
         <v>27</v>
@@ -4048,7 +4059,7 @@
       </c>
       <c r="G38" s="3"/>
       <c r="H38" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I38" t="s">
         <v>27</v>
@@ -4099,7 +4110,7 @@
       </c>
       <c r="G39" s="3"/>
       <c r="H39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I39" t="s">
         <v>27</v>
@@ -4150,7 +4161,7 @@
       </c>
       <c r="G40" s="3"/>
       <c r="H40" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I40" t="s">
         <v>27</v>
@@ -4199,7 +4210,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I41" t="s">
         <v>27</v>
@@ -4248,7 +4259,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I42" t="s">
         <v>27</v>
@@ -4299,7 +4310,7 @@
       </c>
       <c r="G43" s="3"/>
       <c r="H43" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I43" t="s">
         <v>27</v>
@@ -4393,7 +4404,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I45" t="s">
         <v>27</v>
@@ -4444,7 +4455,7 @@
       </c>
       <c r="G46" s="3"/>
       <c r="H46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I46" t="s">
         <v>27</v>
@@ -4495,7 +4506,7 @@
       </c>
       <c r="G47" s="3"/>
       <c r="H47" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I47" t="s">
         <v>27</v>
@@ -4546,7 +4557,7 @@
       </c>
       <c r="G48" s="3"/>
       <c r="H48" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I48" t="s">
         <v>27</v>
@@ -4640,7 +4651,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I50" t="s">
         <v>27</v>
@@ -4689,7 +4700,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I51" t="s">
         <v>27</v>
@@ -4738,7 +4749,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I52" t="s">
         <v>27</v>
@@ -4787,7 +4798,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I53" t="s">
         <v>27</v>
@@ -4836,7 +4847,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I54" t="s">
         <v>27</v>
@@ -4885,7 +4896,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I55" t="s">
         <v>27</v>
@@ -4934,7 +4945,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I56" t="s">
         <v>27</v>
@@ -4983,7 +4994,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I57" t="s">
         <v>27</v>
@@ -5032,7 +5043,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I58" t="s">
         <v>27</v>
@@ -5081,7 +5092,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I59" t="s">
         <v>27</v>
@@ -5130,7 +5141,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I60" t="s">
         <v>27</v>
@@ -5179,7 +5190,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I61" t="s">
         <v>27</v>
@@ -5277,7 +5288,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="I63" t="s">
         <v>27</v>
@@ -5326,7 +5337,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I64" t="s">
         <v>27</v>
@@ -5375,7 +5386,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I65" t="s">
         <v>27</v>
@@ -7374,7 +7385,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7448,13 +7459,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>58</v>
@@ -7495,7 +7506,7 @@
         <v>12</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">

--- a/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
+++ b/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="335">
   <si>
     <t>TCID</t>
   </si>
@@ -826,353 +826,6 @@
   </si>
   <si>
     <t>FAIL</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
-Command duration or timeout: 22.26 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":".btn.btn-default.field-25.female"}
-Command duration or timeout: 20.09 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
-*** Element info: {Using=css selector, value=.btn.btn-default.field-25.female}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#exampleInput"}
-Command duration or timeout: 20.10 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
-*** Element info: {Using=css selector, value=#exampleInput}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button"}
-Command duration or timeout: 20.05 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address"}
-Command duration or timeout: 20.05 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
-*** Element info: {Using=css selector, value=#address}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address2"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
-*** Element info: {Using=css selector, value=#address2}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#city"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
-*** Element info: {Using=css selector, value=#city}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"US\"]"}
-Command duration or timeout: 20.09 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
-*** Element info: {Using=css selector, value=option[value="US"]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"NY\"]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
-*** Element info: {Using=css selector, value=option[value="NY"]}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#zip"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
-*** Element info: {Using=css selector, value=#zip}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#youtube_rate"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
-*** Element info: {Using=css selector, value=#youtube_rate}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#video_only_rate"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
-*** Element info: {Using=css selector, value=#video_only_rate}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]"}
-Command duration or timeout: 20.03 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]"}
-Command duration or timeout: 20.06 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]"}
-Command duration or timeout: 20.08 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[5]/div/div/a"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[5]/div/div/a}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/header/nav/div[2]/ul[1]/li[3]/a"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 469b625d-9c81-4bc9-9f84-15cf4efb18c9
-*** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
-  </si>
-  <si>
-    <t>genvideotest1187@gmail.com</t>
-  </si>
-  <si>
-    <t>genvideotest1188@gmail.com</t>
   </si>
   <si>
     <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
@@ -1535,6 +1188,364 @@
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
 Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
+*** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
+  </si>
+  <si>
+    <t>genvideotest1189@gmail.com</t>
+  </si>
+  <si>
+    <t>genvideotest1190@gmail.com</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
+Command duration or timeout: 20.14 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":".btn.btn-default.field-25.female"}
+Command duration or timeout: 20.07 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
+*** Element info: {Using=css selector, value=.btn.btn-default.field-25.female}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#exampleInput"}
+Command duration or timeout: 20.05 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
+*** Element info: {Using=css selector, value=#exampleInput}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button"}
+Command duration or timeout: 20.04 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a"}
+Command duration or timeout: 20.07 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a"}
+Command duration or timeout: 20.06 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
+*** Element info: {Using=css selector, value=#address}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address2"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
+*** Element info: {Using=css selector, value=#address2}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#city"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
+*** Element info: {Using=css selector, value=#city}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"US\"]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
+*** Element info: {Using=css selector, value=option[value="US"]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"NY\"]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
+*** Element info: {Using=css selector, value=option[value="NY"]}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#zip"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
+*** Element info: {Using=css selector, value=#zip}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
+Command duration or timeout: 20.02 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#youtube_rate"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
+*** Element info: {Using=css selector, value=#youtube_rate}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#video_only_rate"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
+*** Element info: {Using=css selector, value=#video_only_rate}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[5]/div/div/a"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[5]/div/div/a}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/header/nav/div[2]/ul[1]/li[3]/a"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
 *** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
   </si>
 </sst>
@@ -3667,7 +3678,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I30" t="s">
         <v>27</v>
@@ -3761,7 +3772,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I32" t="s">
         <v>27</v>
@@ -3812,7 +3823,7 @@
       </c>
       <c r="G33" s="3"/>
       <c r="H33" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I33" t="s">
         <v>27</v>
@@ -3861,7 +3872,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I34" t="s">
         <v>27</v>
@@ -3910,7 +3921,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I35" t="s">
         <v>27</v>
@@ -3959,7 +3970,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I36" t="s">
         <v>27</v>
@@ -4008,7 +4019,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I37" t="s">
         <v>27</v>
@@ -4059,7 +4070,7 @@
       </c>
       <c r="G38" s="3"/>
       <c r="H38" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I38" t="s">
         <v>27</v>
@@ -4110,7 +4121,7 @@
       </c>
       <c r="G39" s="3"/>
       <c r="H39" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I39" t="s">
         <v>27</v>
@@ -4161,7 +4172,7 @@
       </c>
       <c r="G40" s="3"/>
       <c r="H40" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I40" t="s">
         <v>27</v>
@@ -4210,7 +4221,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I41" t="s">
         <v>27</v>
@@ -4259,7 +4270,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I42" t="s">
         <v>27</v>
@@ -4310,7 +4321,7 @@
       </c>
       <c r="G43" s="3"/>
       <c r="H43" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I43" t="s">
         <v>27</v>
@@ -4404,7 +4415,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I45" t="s">
         <v>27</v>
@@ -4455,7 +4466,7 @@
       </c>
       <c r="G46" s="3"/>
       <c r="H46" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I46" t="s">
         <v>27</v>
@@ -4506,7 +4517,7 @@
       </c>
       <c r="G47" s="3"/>
       <c r="H47" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="I47" t="s">
         <v>27</v>
@@ -4557,7 +4568,7 @@
       </c>
       <c r="G48" s="3"/>
       <c r="H48" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I48" t="s">
         <v>27</v>
@@ -4651,7 +4662,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I50" t="s">
         <v>27</v>
@@ -4700,7 +4711,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="I51" t="s">
         <v>27</v>
@@ -4749,7 +4760,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I52" t="s">
         <v>27</v>
@@ -4798,7 +4809,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I53" t="s">
         <v>27</v>
@@ -4847,7 +4858,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I54" t="s">
         <v>27</v>
@@ -4896,7 +4907,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I55" t="s">
         <v>27</v>
@@ -4945,7 +4956,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="I56" t="s">
         <v>27</v>
@@ -4994,7 +5005,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I57" t="s">
         <v>27</v>
@@ -5043,7 +5054,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="I58" t="s">
         <v>27</v>
@@ -5092,7 +5103,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I59" t="s">
         <v>27</v>
@@ -5141,7 +5152,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="I60" t="s">
         <v>27</v>
@@ -5190,7 +5201,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I61" t="s">
         <v>27</v>
@@ -5239,7 +5250,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I62" t="s">
         <v>27</v>
@@ -5288,7 +5299,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I63" t="s">
         <v>27</v>
@@ -5337,7 +5348,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I64" t="s">
         <v>27</v>
@@ -5386,7 +5397,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I65" t="s">
         <v>27</v>
@@ -7385,7 +7396,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7459,13 +7470,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>58</v>
@@ -7506,7 +7517,7 @@
         <v>12</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">

--- a/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
+++ b/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="269">
   <si>
     <t>TCID</t>
   </si>
@@ -825,735 +825,16 @@
     <t>genvideotest1078@gmail.com</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
-Command duration or timeout: 20.47 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":".btn.btn-default.field-25.female"}
-Command duration or timeout: 20.07 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
-*** Element info: {Using=css selector, value=.btn.btn-default.field-25.female}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#exampleInput"}
-Command duration or timeout: 20.04 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
-*** Element info: {Using=css selector, value=#exampleInput}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button"}
-Command duration or timeout: 20.06 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a"}
-Command duration or timeout: 20.03 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address"}
-Command duration or timeout: 20.06 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
-*** Element info: {Using=css selector, value=#address}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address2"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
-*** Element info: {Using=css selector, value=#address2}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#city"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
-*** Element info: {Using=css selector, value=#city}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"US\"]"}
-Command duration or timeout: 20.05 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
-*** Element info: {Using=css selector, value=option[value="US"]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"NY\"]"}
-Command duration or timeout: 20.14 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
-*** Element info: {Using=css selector, value=option[value="NY"]}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#zip"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
-*** Element info: {Using=css selector, value=#zip}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
-Command duration or timeout: 20.03 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#youtube_rate"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
-*** Element info: {Using=css selector, value=#youtube_rate}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#video_only_rate"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
-*** Element info: {Using=css selector, value=#video_only_rate}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]"}
-Command duration or timeout: 20.14 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]"}
-Command duration or timeout: 20.05 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]"}
-Command duration or timeout: 20.06 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
-Command duration or timeout: 20.06 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[5]/div/div/a"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[5]/div/div/a}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/header/nav/div[2]/ul[1]/li[3]/a"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.91', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 36f9401a-7724-4b7c-a82b-78dd09a8712c
-*** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
-  </si>
-  <si>
-    <t>genvideotest1189@gmail.com</t>
-  </si>
-  <si>
-    <t>genvideotest1190@gmail.com</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
-Command duration or timeout: 20.14 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":".btn.btn-default.field-25.female"}
-Command duration or timeout: 20.07 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
-*** Element info: {Using=css selector, value=.btn.btn-default.field-25.female}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#exampleInput"}
-Command duration or timeout: 20.05 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
-*** Element info: {Using=css selector, value=#exampleInput}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button"}
-Command duration or timeout: 20.04 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a"}
-Command duration or timeout: 20.07 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a"}
-Command duration or timeout: 20.06 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
-*** Element info: {Using=css selector, value=#address}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address2"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
-*** Element info: {Using=css selector, value=#address2}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#city"}
-Command duration or timeout: 20.08 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
-*** Element info: {Using=css selector, value=#city}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"US\"]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
-*** Element info: {Using=css selector, value=option[value="US"]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"NY\"]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
-*** Element info: {Using=css selector, value=option[value="NY"]}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#zip"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
-*** Element info: {Using=css selector, value=#zip}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
-Command duration or timeout: 20.02 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#youtube_rate"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
-*** Element info: {Using=css selector, value=#youtube_rate}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#video_only_rate"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
-*** Element info: {Using=css selector, value=#video_only_rate}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input"}
-Command duration or timeout: 20.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]"}
-Command duration or timeout: 20.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]"}
-Command duration or timeout: 20.08 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]"}
-Command duration or timeout: 20.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]"}
-Command duration or timeout: 20.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[3]/div[2]/div/button[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[5]/div/div/a"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[5]/div/div/a}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/header/nav/div[2]/ul[1]/li[3]/a"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: d5390c20-3376-4442-8b74-5ddb1eb29f33
-*** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
+    <t>genvideotest1196@gmail.com</t>
+  </si>
+  <si>
+    <t>genvideotest1197@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2169,10 +1450,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="23.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="37.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="8.85546875" collapsed="true"/>
+    <col min="1" max="1" width="23.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.85546875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2224,24 +1505,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
-    <col min="2" max="2" style="2" width="8.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="47.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="20.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="36.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="24.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="255.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="8.62890625" collapsed="true"/>
-    <col min="18" max="16384" style="2" width="8.85546875" collapsed="true"/>
+    <col min="1" max="1" width="20.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.85546875" style="2" collapsed="1"/>
+    <col min="3" max="3" width="47.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="36.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="255" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16" width="7.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="16384" width="8.85546875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -3678,7 +2952,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" t="s">
-        <v>303</v>
+        <v>30</v>
       </c>
       <c r="I30" t="s">
         <v>27</v>
@@ -3772,7 +3046,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" t="s">
-        <v>304</v>
+        <v>30</v>
       </c>
       <c r="I32" t="s">
         <v>27</v>
@@ -3823,7 +3097,7 @@
       </c>
       <c r="G33" s="3"/>
       <c r="H33" t="s">
-        <v>305</v>
+        <v>30</v>
       </c>
       <c r="I33" t="s">
         <v>27</v>
@@ -3872,7 +3146,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" t="s">
-        <v>306</v>
+        <v>30</v>
       </c>
       <c r="I34" t="s">
         <v>27</v>
@@ -3921,7 +3195,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" t="s">
-        <v>307</v>
+        <v>30</v>
       </c>
       <c r="I35" t="s">
         <v>27</v>
@@ -3970,7 +3244,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" t="s">
-        <v>308</v>
+        <v>30</v>
       </c>
       <c r="I36" t="s">
         <v>27</v>
@@ -4019,7 +3293,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" t="s">
-        <v>309</v>
+        <v>30</v>
       </c>
       <c r="I37" t="s">
         <v>27</v>
@@ -4070,7 +3344,7 @@
       </c>
       <c r="G38" s="3"/>
       <c r="H38" t="s">
-        <v>310</v>
+        <v>30</v>
       </c>
       <c r="I38" t="s">
         <v>27</v>
@@ -4121,7 +3395,7 @@
       </c>
       <c r="G39" s="3"/>
       <c r="H39" t="s">
-        <v>311</v>
+        <v>30</v>
       </c>
       <c r="I39" t="s">
         <v>27</v>
@@ -4172,7 +3446,7 @@
       </c>
       <c r="G40" s="3"/>
       <c r="H40" t="s">
-        <v>312</v>
+        <v>30</v>
       </c>
       <c r="I40" t="s">
         <v>27</v>
@@ -4221,7 +3495,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" t="s">
-        <v>313</v>
+        <v>30</v>
       </c>
       <c r="I41" t="s">
         <v>27</v>
@@ -4270,7 +3544,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" t="s">
-        <v>314</v>
+        <v>30</v>
       </c>
       <c r="I42" t="s">
         <v>27</v>
@@ -4321,7 +3595,7 @@
       </c>
       <c r="G43" s="3"/>
       <c r="H43" t="s">
-        <v>315</v>
+        <v>30</v>
       </c>
       <c r="I43" t="s">
         <v>27</v>
@@ -4415,7 +3689,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" t="s">
-        <v>316</v>
+        <v>30</v>
       </c>
       <c r="I45" t="s">
         <v>27</v>
@@ -4466,7 +3740,7 @@
       </c>
       <c r="G46" s="3"/>
       <c r="H46" t="s">
-        <v>317</v>
+        <v>30</v>
       </c>
       <c r="I46" t="s">
         <v>27</v>
@@ -4517,7 +3791,7 @@
       </c>
       <c r="G47" s="3"/>
       <c r="H47" t="s">
-        <v>318</v>
+        <v>30</v>
       </c>
       <c r="I47" t="s">
         <v>27</v>
@@ -4568,7 +3842,7 @@
       </c>
       <c r="G48" s="3"/>
       <c r="H48" t="s">
-        <v>319</v>
+        <v>30</v>
       </c>
       <c r="I48" t="s">
         <v>27</v>
@@ -4662,7 +3936,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" t="s">
-        <v>320</v>
+        <v>30</v>
       </c>
       <c r="I50" t="s">
         <v>27</v>
@@ -4711,7 +3985,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" t="s">
-        <v>321</v>
+        <v>30</v>
       </c>
       <c r="I51" t="s">
         <v>27</v>
@@ -4760,7 +4034,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" t="s">
-        <v>322</v>
+        <v>30</v>
       </c>
       <c r="I52" t="s">
         <v>27</v>
@@ -4809,7 +4083,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" t="s">
-        <v>323</v>
+        <v>30</v>
       </c>
       <c r="I53" t="s">
         <v>27</v>
@@ -4858,7 +4132,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" t="s">
-        <v>324</v>
+        <v>30</v>
       </c>
       <c r="I54" t="s">
         <v>27</v>
@@ -4907,7 +4181,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" t="s">
-        <v>325</v>
+        <v>30</v>
       </c>
       <c r="I55" t="s">
         <v>27</v>
@@ -4956,7 +4230,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" t="s">
-        <v>326</v>
+        <v>30</v>
       </c>
       <c r="I56" t="s">
         <v>27</v>
@@ -5005,7 +4279,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" t="s">
-        <v>327</v>
+        <v>30</v>
       </c>
       <c r="I57" t="s">
         <v>27</v>
@@ -5054,7 +4328,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" t="s">
-        <v>328</v>
+        <v>30</v>
       </c>
       <c r="I58" t="s">
         <v>27</v>
@@ -5103,7 +4377,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" t="s">
-        <v>329</v>
+        <v>30</v>
       </c>
       <c r="I59" t="s">
         <v>27</v>
@@ -5152,7 +4426,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" t="s">
-        <v>330</v>
+        <v>30</v>
       </c>
       <c r="I60" t="s">
         <v>27</v>
@@ -5201,7 +4475,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" t="s">
-        <v>331</v>
+        <v>30</v>
       </c>
       <c r="I61" t="s">
         <v>27</v>
@@ -5250,7 +4524,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" t="s">
-        <v>331</v>
+        <v>30</v>
       </c>
       <c r="I62" t="s">
         <v>27</v>
@@ -5299,7 +4573,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" t="s">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="I63" t="s">
         <v>27</v>
@@ -5348,7 +4622,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" t="s">
-        <v>333</v>
+        <v>30</v>
       </c>
       <c r="I64" t="s">
         <v>27</v>
@@ -5397,7 +4671,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" t="s">
-        <v>334</v>
+        <v>30</v>
       </c>
       <c r="I65" t="s">
         <v>27</v>
@@ -6971,7 +6245,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" t="s">
-        <v>267</v>
+        <v>30</v>
       </c>
       <c r="I98" t="s">
         <v>27</v>
@@ -7017,7 +6291,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" t="s">
-        <v>267</v>
+        <v>30</v>
       </c>
       <c r="I99" t="s">
         <v>27</v>
@@ -7065,7 +6339,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" t="s">
-        <v>267</v>
+        <v>30</v>
       </c>
       <c r="I100" t="s">
         <v>27</v>
@@ -7113,7 +6387,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" t="s">
-        <v>267</v>
+        <v>30</v>
       </c>
       <c r="I101" t="s">
         <v>27</v>
@@ -7161,7 +6435,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" t="s">
-        <v>267</v>
+        <v>30</v>
       </c>
       <c r="I102" t="s">
         <v>27</v>
@@ -7209,7 +6483,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" t="s">
-        <v>267</v>
+        <v>30</v>
       </c>
       <c r="I103" t="s">
         <v>27</v>
@@ -7257,7 +6531,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" t="s">
-        <v>267</v>
+        <v>30</v>
       </c>
       <c r="I104" t="s">
         <v>27</v>
@@ -7395,21 +6669,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="R2" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="7" width="28.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="7" width="25.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="7" width="33.28515625" collapsed="true"/>
-    <col min="4" max="14" customWidth="true" style="7" width="25.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="7" width="15.42578125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="7" width="17.0" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="7" width="9.42578125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="7" width="255.0" collapsed="true"/>
-    <col min="19" max="16384" style="7" width="8.85546875" collapsed="true"/>
+    <col min="1" max="1" width="28.28515625" style="7" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.28515625" style="7" customWidth="1" collapsed="1"/>
+    <col min="4" max="14" width="25.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17" style="7" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="255" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="16384" width="8.85546875" style="7" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -7470,13 +6744,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>58</v>
@@ -7517,7 +6791,7 @@
         <v>12</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>303</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -8008,10 +7282,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="1" max="1" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">

--- a/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
+++ b/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
@@ -825,10 +825,10 @@
     <t>genvideotest1078@gmail.com</t>
   </si>
   <si>
-    <t>genvideotest1196@gmail.com</t>
-  </si>
-  <si>
-    <t>genvideotest1197@gmail.com</t>
+    <t>genvideotest1198@gmail.com</t>
+  </si>
+  <si>
+    <t>genvideotest1199@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -6669,8 +6669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R2" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
+++ b/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="269">
   <si>
     <t>TCID</t>
   </si>
@@ -825,16 +825,17 @@
     <t>genvideotest1078@gmail.com</t>
   </si>
   <si>
-    <t>genvideotest1198@gmail.com</t>
-  </si>
-  <si>
-    <t>genvideotest1199@gmail.com</t>
+    <t>genvideotest1210@gmail.com</t>
+  </si>
+  <si>
+    <t>genvideotest1209@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1450,10 +1451,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.85546875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="23.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="37.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1505,17 +1506,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.85546875" style="2" collapsed="1"/>
-    <col min="3" max="3" width="47.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="36.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="255" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16" width="7.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="16384" width="8.85546875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
+    <col min="2" max="2" style="2" width="8.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="47.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="20.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="36.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="24.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="8.62890625" collapsed="true"/>
+    <col min="18" max="16384" style="2" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6675,15 +6683,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="7" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.28515625" style="7" customWidth="1" collapsed="1"/>
-    <col min="4" max="14" width="25.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="17" style="7" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="9.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="255" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="16384" width="8.85546875" style="7" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="7" width="28.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="25.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="7" width="33.28515625" collapsed="true"/>
+    <col min="4" max="14" customWidth="true" style="7" width="25.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="7" width="15.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="7" width="17.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="7" width="9.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="7" width="6.3984375" collapsed="true"/>
+    <col min="19" max="16384" style="7" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -6744,13 +6752,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>58</v>
@@ -7282,10 +7290,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">

--- a/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
+++ b/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="269">
   <si>
     <t>TCID</t>
   </si>
@@ -825,17 +825,16 @@
     <t>genvideotest1078@gmail.com</t>
   </si>
   <si>
-    <t>genvideotest1210@gmail.com</t>
-  </si>
-  <si>
-    <t>genvideotest1209@gmail.com</t>
+    <t>genvideotest1215@gmail.com</t>
+  </si>
+  <si>
+    <t>genvideotest1216@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1451,10 +1450,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="23.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="37.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="8.85546875" collapsed="true"/>
+    <col min="1" max="1" width="23.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.85546875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1500,30 +1499,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R108"/>
   <sheetViews>
-    <sheetView topLeftCell="H84" workbookViewId="0">
-      <selection activeCell="H104" sqref="H104"/>
+    <sheetView topLeftCell="B94" workbookViewId="0">
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
-    <col min="2" max="2" style="2" width="8.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="47.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="20.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="36.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="24.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="8.62890625" collapsed="true"/>
-    <col min="18" max="16384" style="2" width="8.85546875" collapsed="true"/>
+    <col min="1" max="1" width="20.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.85546875" style="2" collapsed="1"/>
+    <col min="3" max="3" width="47.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="36.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="255" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16" width="7.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="16384" width="8.85546875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6678,20 +6670,20 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="7" width="28.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="7" width="25.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="7" width="33.28515625" collapsed="true"/>
-    <col min="4" max="14" customWidth="true" style="7" width="25.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="7" width="15.42578125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="7" width="17.0" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="7" width="9.42578125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="7" width="6.3984375" collapsed="true"/>
-    <col min="19" max="16384" style="7" width="8.85546875" collapsed="true"/>
+    <col min="1" max="1" width="28.28515625" style="7" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.28515625" style="7" customWidth="1" collapsed="1"/>
+    <col min="4" max="14" width="25.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17" style="7" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="255" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="16384" width="8.85546875" style="7" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -6752,13 +6744,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>58</v>
@@ -7290,10 +7282,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="1" max="1" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">

--- a/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
+++ b/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700" tabRatio="826" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700" tabRatio="826"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -825,10 +825,10 @@
     <t>genvideotest1078@gmail.com</t>
   </si>
   <si>
-    <t>genvideotest1215@gmail.com</t>
-  </si>
-  <si>
-    <t>genvideotest1216@gmail.com</t>
+    <t>genvideotest1217@gmail.com</t>
+  </si>
+  <si>
+    <t>genvideotest1218@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1444,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,8 +1512,7 @@
     <col min="5" max="5" width="36.28515625" style="2" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="24.140625" style="2" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="255" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16" width="7.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16" width="7.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="8.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="16384" width="8.85546875" style="2" collapsed="1"/>
   </cols>
@@ -6669,8 +6668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6682,7 +6681,7 @@
     <col min="15" max="15" width="15.42578125" style="7" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="17" style="7" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="9.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="255" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="6.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="19" max="16384" width="8.85546875" style="7" collapsed="1"/>
   </cols>
   <sheetData>

--- a/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
+++ b/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700" tabRatio="826"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700" tabRatio="826" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="284">
   <si>
     <t>TCID</t>
   </si>
@@ -825,16 +825,156 @@
     <t>genvideotest1078@gmail.com</t>
   </si>
   <si>
-    <t>genvideotest1217@gmail.com</t>
-  </si>
-  <si>
-    <t>genvideotest1218@gmail.com</t>
+    <t>FAIL -- Not able to click on ButtonElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.07 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 5f070305-64d0-4561-bbbb-28ef1b3645e2</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Element is not currently visible and so may not be interacted with
+Command duration or timeout: 20.11 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 5f070305-64d0-4561-bbbb-28ef1b3645e2</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.11 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 5f070305-64d0-4561-bbbb-28ef1b3645e2</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.12 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 5f070305-64d0-4561-bbbb-28ef1b3645e2</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.07 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 5f070305-64d0-4561-bbbb-28ef1b3645e2</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Element is not currently visible and so may not be interacted with
+Command duration or timeout: 20.08 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 5f070305-64d0-4561-bbbb-28ef1b3645e2</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Element is not currently visible and so may not be interacted with
+Command duration or timeout: 20.02 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 5f070305-64d0-4561-bbbb-28ef1b3645e2</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 5f070305-64d0-4561-bbbb-28ef1b3645e2
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.09 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 5f070305-64d0-4561-bbbb-28ef1b3645e2</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.02 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 5f070305-64d0-4561-bbbb-28ef1b3645e2</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.06 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 5f070305-64d0-4561-bbbb-28ef1b3645e2</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.08 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 5f070305-64d0-4561-bbbb-28ef1b3645e2</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.05 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 5f070305-64d0-4561-bbbb-28ef1b3645e2</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.10 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 5f070305-64d0-4561-bbbb-28ef1b3645e2</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/header/nav/div[2]/ul[1]/li[3]/a"}
+Command duration or timeout: 20.05 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 5f070305-64d0-4561-bbbb-28ef1b3645e2
+*** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
+  </si>
+  <si>
+    <t>genvideotest1221@gmail.com</t>
+  </si>
+  <si>
+    <t>genvideotest1222@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1444,16 +1584,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.85546875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="23.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="37.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1505,16 +1645,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.85546875" style="2" collapsed="1"/>
-    <col min="3" max="3" width="47.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="36.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="16" width="7.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="16384" width="8.85546875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
+    <col min="2" max="2" style="2" width="8.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="47.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="20.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="36.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="24.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="8.62890625" collapsed="true"/>
+    <col min="18" max="16384" style="2" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6668,21 +6816,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="7" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.28515625" style="7" customWidth="1" collapsed="1"/>
-    <col min="4" max="14" width="25.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="17" style="7" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="9.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="6.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="16384" width="8.85546875" style="7" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="7" width="28.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="25.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="7" width="33.28515625" collapsed="true"/>
+    <col min="4" max="14" customWidth="true" style="7" width="25.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="7" width="15.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="7" width="17.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="7" width="9.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="7" width="6.3984375" collapsed="true"/>
+    <col min="19" max="16384" style="7" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -6743,13 +6891,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>58</v>
@@ -7281,10 +7429,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">

--- a/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
+++ b/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2562" uniqueCount="270">
   <si>
     <t>TCID</t>
   </si>
@@ -826,148 +826,18 @@
   </si>
   <si>
     <t>FAIL -- Not able to click on ButtonElement is not currently visible and so may not be interacted with
-Command duration or timeout: 20.07 seconds
+Command duration or timeout: 120.04 seconds
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
 System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 5f070305-64d0-4561-bbbb-28ef1b3645e2</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Element is not currently visible and so may not be interacted with
-Command duration or timeout: 20.11 seconds
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 5f070305-64d0-4561-bbbb-28ef1b3645e2</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
-Command duration or timeout: 20.11 seconds
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 5f070305-64d0-4561-bbbb-28ef1b3645e2</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
-Command duration or timeout: 20.12 seconds
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 5f070305-64d0-4561-bbbb-28ef1b3645e2</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
-Command duration or timeout: 20.07 seconds
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 5f070305-64d0-4561-bbbb-28ef1b3645e2</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Element is not currently visible and so may not be interacted with
-Command duration or timeout: 20.08 seconds
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 5f070305-64d0-4561-bbbb-28ef1b3645e2</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Element is not currently visible and so may not be interacted with
-Command duration or timeout: 20.02 seconds
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 5f070305-64d0-4561-bbbb-28ef1b3645e2</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 5f070305-64d0-4561-bbbb-28ef1b3645e2
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
-Command duration or timeout: 20.09 seconds
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 5f070305-64d0-4561-bbbb-28ef1b3645e2</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
-Command duration or timeout: 20.02 seconds
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 5f070305-64d0-4561-bbbb-28ef1b3645e2</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
-Command duration or timeout: 20.06 seconds
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 5f070305-64d0-4561-bbbb-28ef1b3645e2</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
-Command duration or timeout: 20.08 seconds
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 5f070305-64d0-4561-bbbb-28ef1b3645e2</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
-Command duration or timeout: 20.05 seconds
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 5f070305-64d0-4561-bbbb-28ef1b3645e2</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
-Command duration or timeout: 20.10 seconds
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 5f070305-64d0-4561-bbbb-28ef1b3645e2</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/header/nav/div[2]/ul[1]/li[3]/a"}
-Command duration or timeout: 20.05 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 5f070305-64d0-4561-bbbb-28ef1b3645e2
-*** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
-  </si>
-  <si>
-    <t>genvideotest1221@gmail.com</t>
-  </si>
-  <si>
-    <t>genvideotest1222@gmail.com</t>
+Session ID: 55cf97b0-95bb-41c6-9038-04c87adcb7a9</t>
+  </si>
+  <si>
+    <t>genvideotest1229@gmail.com</t>
+  </si>
+  <si>
+    <t>genvideotest1230@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -6817,7 +6687,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6891,13 +6761,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>58</v>

--- a/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
+++ b/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2562" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2560" uniqueCount="269">
   <si>
     <t>TCID</t>
   </si>
@@ -825,19 +825,10 @@
     <t>genvideotest1078@gmail.com</t>
   </si>
   <si>
-    <t>FAIL -- Not able to click on ButtonElement is not currently visible and so may not be interacted with
-Command duration or timeout: 120.04 seconds
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.33', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 55cf97b0-95bb-41c6-9038-04c87adcb7a9</t>
-  </si>
-  <si>
-    <t>genvideotest1229@gmail.com</t>
-  </si>
-  <si>
-    <t>genvideotest1230@gmail.com</t>
+    <t>genvideotest1233@gmail.com</t>
+  </si>
+  <si>
+    <t>genvideotest1234@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -6687,7 +6678,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6761,13 +6752,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>58</v>

--- a/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
+++ b/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2560" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="269">
   <si>
     <t>TCID</t>
   </si>
@@ -825,17 +825,16 @@
     <t>genvideotest1078@gmail.com</t>
   </si>
   <si>
-    <t>genvideotest1233@gmail.com</t>
-  </si>
-  <si>
-    <t>genvideotest1234@gmail.com</t>
+    <t>genvideotest1237@gmail.com</t>
+  </si>
+  <si>
+    <t>genvideotest1238@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1451,10 +1450,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="23.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="37.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="8.85546875" collapsed="true"/>
+    <col min="1" max="1" width="23.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.85546875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1500,30 +1499,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R108"/>
   <sheetViews>
-    <sheetView topLeftCell="B94" workbookViewId="0">
-      <selection activeCell="F118" sqref="F118"/>
+    <sheetView topLeftCell="F14" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
-    <col min="2" max="2" style="2" width="8.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="47.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="20.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="36.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="24.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="8.62890625" collapsed="true"/>
-    <col min="18" max="16384" style="2" width="8.85546875" collapsed="true"/>
+    <col min="1" max="1" width="20.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.85546875" style="2" collapsed="1"/>
+    <col min="3" max="3" width="47.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="36.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="255" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16" width="7.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="16384" width="8.85546875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6677,21 +6669,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="7" width="28.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="7" width="25.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="7" width="33.28515625" collapsed="true"/>
-    <col min="4" max="14" customWidth="true" style="7" width="25.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="7" width="15.42578125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="7" width="17.0" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="7" width="9.42578125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="7" width="6.3984375" collapsed="true"/>
-    <col min="19" max="16384" style="7" width="8.85546875" collapsed="true"/>
+    <col min="1" max="1" width="28.28515625" style="7" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.28515625" style="7" customWidth="1" collapsed="1"/>
+    <col min="4" max="14" width="25.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17" style="7" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="255" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="16384" width="8.85546875" style="7" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -7284,16 +7274,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="1" max="1" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">

--- a/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
+++ b/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="301">
   <si>
     <t>TCID</t>
   </si>
@@ -825,16 +825,369 @@
     <t>genvideotest1078@gmail.com</t>
   </si>
   <si>
-    <t>genvideotest1237@gmail.com</t>
-  </si>
-  <si>
-    <t>genvideotest1238@gmail.com</t>
+    <t>genvideotest1243@gmail.com</t>
+  </si>
+  <si>
+    <t>genvideotest1244@gmail.com</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"(//button[@class='btn btn-lg btn-warning2'])[2]"}
+Command duration or timeout: 120.04 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: af0869a7-5f67-4a22-8665-8547496386b1
+*** Element info: {Using=xpath, value=(//button[@class='btn btn-lg btn-warning2'])[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":".btn.btn-default.field-25.female"}
+Command duration or timeout: 120.04 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: af0869a7-5f67-4a22-8665-8547496386b1
+*** Element info: {Using=css selector, value=.btn.btn-default.field-25.female}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#exampleInput"}
+Command duration or timeout: 120.04 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: af0869a7-5f67-4a22-8665-8547496386b1
+*** Element info: {Using=css selector, value=#exampleInput}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button"}
+Command duration or timeout: 120.06 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: af0869a7-5f67-4a22-8665-8547496386b1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a"}
+Command duration or timeout: 120.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: af0869a7-5f67-4a22-8665-8547496386b1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button"}
+Command duration or timeout: 120.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: af0869a7-5f67-4a22-8665-8547496386b1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a"}
+Command duration or timeout: 120.14 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: af0869a7-5f67-4a22-8665-8547496386b1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address"}
+Command duration or timeout: 120.09 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: af0869a7-5f67-4a22-8665-8547496386b1
+*** Element info: {Using=css selector, value=#address}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address2"}
+Command duration or timeout: 120.14 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: af0869a7-5f67-4a22-8665-8547496386b1
+*** Element info: {Using=css selector, value=#address2}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#city"}
+Command duration or timeout: 120.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: af0869a7-5f67-4a22-8665-8547496386b1
+*** Element info: {Using=css selector, value=#city}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"US\"]"}
+Command duration or timeout: 120.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: af0869a7-5f67-4a22-8665-8547496386b1
+*** Element info: {Using=css selector, value=option[value="US"]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"NY\"]"}
+Command duration or timeout: 120.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: af0869a7-5f67-4a22-8665-8547496386b1
+*** Element info: {Using=css selector, value=option[value="NY"]}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#zip"}
+Command duration or timeout: 120.02 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: af0869a7-5f67-4a22-8665-8547496386b1
+*** Element info: {Using=css selector, value=#zip}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]"}
+Command duration or timeout: 120.04 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: af0869a7-5f67-4a22-8665-8547496386b1
+*** Element info: {Using=xpath, value=.//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#youtube_rate"}
+Command duration or timeout: 120.16 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: af0869a7-5f67-4a22-8665-8547496386b1
+*** Element info: {Using=css selector, value=#youtube_rate}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#video_only_rate"}
+Command duration or timeout: 120.14 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: af0869a7-5f67-4a22-8665-8547496386b1
+*** Element info: {Using=css selector, value=#video_only_rate}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input"}
+Command duration or timeout: 120.05 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: af0869a7-5f67-4a22-8665-8547496386b1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]"}
+Command duration or timeout: 120.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: af0869a7-5f67-4a22-8665-8547496386b1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]"}
+Command duration or timeout: 120.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: af0869a7-5f67-4a22-8665-8547496386b1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]"}
+Command duration or timeout: 120.14 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: af0869a7-5f67-4a22-8665-8547496386b1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]"}
+Command duration or timeout: 120.07 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: af0869a7-5f67-4a22-8665-8547496386b1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]"}
+Command duration or timeout: 120.07 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: af0869a7-5f67-4a22-8665-8547496386b1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]"}
+Command duration or timeout: 120.04 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: af0869a7-5f67-4a22-8665-8547496386b1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]"}
+Command duration or timeout: 120.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: af0869a7-5f67-4a22-8665-8547496386b1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]"}
+Command duration or timeout: 120.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: af0869a7-5f67-4a22-8665-8547496386b1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]"}
+Command duration or timeout: 120.09 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: af0869a7-5f67-4a22-8665-8547496386b1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]"}
+Command duration or timeout: 120.09 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: af0869a7-5f67-4a22-8665-8547496386b1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]"}
+Command duration or timeout: 120.06 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: af0869a7-5f67-4a22-8665-8547496386b1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
+Command duration or timeout: 120.14 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: af0869a7-5f67-4a22-8665-8547496386b1
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]"}
+Command duration or timeout: 120.14 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: af0869a7-5f67-4a22-8665-8547496386b1
+*** Element info: {Using=xpath, value=.//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Visit Offers')]"}
+Command duration or timeout: 120.15 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: af0869a7-5f67-4a22-8665-8547496386b1
+*** Element info: {Using=xpath, value=//a[contains(text(),'Visit Offers')]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/header/nav/div[2]/ul[1]/li[3]/a"}
+Command duration or timeout: 120.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: af0869a7-5f67-4a22-8665-8547496386b1
+*** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1445,15 +1798,15 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.85546875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="23.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="37.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1505,17 +1858,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.85546875" style="2" collapsed="1"/>
-    <col min="3" max="3" width="47.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="36.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="255" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16" width="7.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="16384" width="8.85546875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
+    <col min="2" max="2" style="2" width="8.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="47.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="20.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="36.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="24.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="255.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="8.62890625" collapsed="true"/>
+    <col min="18" max="16384" style="2" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -2952,7 +3312,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" t="s">
-        <v>30</v>
+        <v>269</v>
       </c>
       <c r="I30" t="s">
         <v>27</v>
@@ -3046,7 +3406,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" t="s">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="I32" t="s">
         <v>27</v>
@@ -3097,7 +3457,7 @@
       </c>
       <c r="G33" s="3"/>
       <c r="H33" t="s">
-        <v>30</v>
+        <v>271</v>
       </c>
       <c r="I33" t="s">
         <v>27</v>
@@ -3146,7 +3506,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" t="s">
-        <v>30</v>
+        <v>272</v>
       </c>
       <c r="I34" t="s">
         <v>27</v>
@@ -3195,7 +3555,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" t="s">
-        <v>30</v>
+        <v>273</v>
       </c>
       <c r="I35" t="s">
         <v>27</v>
@@ -3244,7 +3604,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" t="s">
-        <v>30</v>
+        <v>274</v>
       </c>
       <c r="I36" t="s">
         <v>27</v>
@@ -3293,7 +3653,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" t="s">
-        <v>30</v>
+        <v>275</v>
       </c>
       <c r="I37" t="s">
         <v>27</v>
@@ -3344,7 +3704,7 @@
       </c>
       <c r="G38" s="3"/>
       <c r="H38" t="s">
-        <v>30</v>
+        <v>276</v>
       </c>
       <c r="I38" t="s">
         <v>27</v>
@@ -3395,7 +3755,7 @@
       </c>
       <c r="G39" s="3"/>
       <c r="H39" t="s">
-        <v>30</v>
+        <v>277</v>
       </c>
       <c r="I39" t="s">
         <v>27</v>
@@ -3446,7 +3806,7 @@
       </c>
       <c r="G40" s="3"/>
       <c r="H40" t="s">
-        <v>30</v>
+        <v>278</v>
       </c>
       <c r="I40" t="s">
         <v>27</v>
@@ -3495,7 +3855,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" t="s">
-        <v>30</v>
+        <v>279</v>
       </c>
       <c r="I41" t="s">
         <v>27</v>
@@ -3544,7 +3904,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" t="s">
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="I42" t="s">
         <v>27</v>
@@ -3595,7 +3955,7 @@
       </c>
       <c r="G43" s="3"/>
       <c r="H43" t="s">
-        <v>30</v>
+        <v>281</v>
       </c>
       <c r="I43" t="s">
         <v>27</v>
@@ -3689,7 +4049,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" t="s">
-        <v>30</v>
+        <v>282</v>
       </c>
       <c r="I45" t="s">
         <v>27</v>
@@ -3740,7 +4100,7 @@
       </c>
       <c r="G46" s="3"/>
       <c r="H46" t="s">
-        <v>30</v>
+        <v>283</v>
       </c>
       <c r="I46" t="s">
         <v>27</v>
@@ -3791,7 +4151,7 @@
       </c>
       <c r="G47" s="3"/>
       <c r="H47" t="s">
-        <v>30</v>
+        <v>284</v>
       </c>
       <c r="I47" t="s">
         <v>27</v>
@@ -3842,7 +4202,7 @@
       </c>
       <c r="G48" s="3"/>
       <c r="H48" t="s">
-        <v>30</v>
+        <v>285</v>
       </c>
       <c r="I48" t="s">
         <v>27</v>
@@ -3936,7 +4296,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" t="s">
-        <v>30</v>
+        <v>286</v>
       </c>
       <c r="I50" t="s">
         <v>27</v>
@@ -3985,7 +4345,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" t="s">
-        <v>30</v>
+        <v>287</v>
       </c>
       <c r="I51" t="s">
         <v>27</v>
@@ -4034,7 +4394,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" t="s">
-        <v>30</v>
+        <v>288</v>
       </c>
       <c r="I52" t="s">
         <v>27</v>
@@ -4083,7 +4443,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" t="s">
-        <v>30</v>
+        <v>289</v>
       </c>
       <c r="I53" t="s">
         <v>27</v>
@@ -4132,7 +4492,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" t="s">
-        <v>30</v>
+        <v>290</v>
       </c>
       <c r="I54" t="s">
         <v>27</v>
@@ -4181,7 +4541,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" t="s">
-        <v>30</v>
+        <v>291</v>
       </c>
       <c r="I55" t="s">
         <v>27</v>
@@ -4230,7 +4590,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" t="s">
-        <v>30</v>
+        <v>292</v>
       </c>
       <c r="I56" t="s">
         <v>27</v>
@@ -4279,7 +4639,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" t="s">
-        <v>30</v>
+        <v>293</v>
       </c>
       <c r="I57" t="s">
         <v>27</v>
@@ -4328,7 +4688,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" t="s">
-        <v>30</v>
+        <v>294</v>
       </c>
       <c r="I58" t="s">
         <v>27</v>
@@ -4377,7 +4737,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="I59" t="s">
         <v>27</v>
@@ -4426,7 +4786,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="I60" t="s">
         <v>27</v>
@@ -4475,7 +4835,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" t="s">
-        <v>30</v>
+        <v>297</v>
       </c>
       <c r="I61" t="s">
         <v>27</v>
@@ -4524,7 +4884,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" t="s">
-        <v>30</v>
+        <v>297</v>
       </c>
       <c r="I62" t="s">
         <v>27</v>
@@ -4573,7 +4933,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" t="s">
-        <v>30</v>
+        <v>298</v>
       </c>
       <c r="I63" t="s">
         <v>27</v>
@@ -4622,7 +4982,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" t="s">
-        <v>30</v>
+        <v>299</v>
       </c>
       <c r="I64" t="s">
         <v>27</v>
@@ -4671,7 +5031,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" t="s">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="I65" t="s">
         <v>27</v>
@@ -6669,19 +7029,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="7" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.28515625" style="7" customWidth="1" collapsed="1"/>
-    <col min="4" max="14" width="25.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="17" style="7" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="9.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="255" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="16384" width="8.85546875" style="7" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="7" width="28.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="25.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="7" width="33.28515625" collapsed="true"/>
+    <col min="4" max="14" customWidth="true" style="7" width="25.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="7" width="15.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="7" width="17.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="7" width="9.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="7" width="255.0" collapsed="true"/>
+    <col min="19" max="16384" style="7" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -6789,7 +7151,7 @@
         <v>12</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>30</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -7280,10 +7642,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">

--- a/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
+++ b/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="269">
   <si>
     <t>TCID</t>
   </si>
@@ -825,362 +825,10 @@
     <t>genvideotest1078@gmail.com</t>
   </si>
   <si>
-    <t>genvideotest1243@gmail.com</t>
-  </si>
-  <si>
-    <t>genvideotest1244@gmail.com</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"(//button[@class='btn btn-lg btn-warning2'])[2]"}
-Command duration or timeout: 120.04 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: af0869a7-5f67-4a22-8665-8547496386b1
-*** Element info: {Using=xpath, value=(//button[@class='btn btn-lg btn-warning2'])[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":".btn.btn-default.field-25.female"}
-Command duration or timeout: 120.04 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: af0869a7-5f67-4a22-8665-8547496386b1
-*** Element info: {Using=css selector, value=.btn.btn-default.field-25.female}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#exampleInput"}
-Command duration or timeout: 120.04 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: af0869a7-5f67-4a22-8665-8547496386b1
-*** Element info: {Using=css selector, value=#exampleInput}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button"}
-Command duration or timeout: 120.06 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: af0869a7-5f67-4a22-8665-8547496386b1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a"}
-Command duration or timeout: 120.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: af0869a7-5f67-4a22-8665-8547496386b1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button"}
-Command duration or timeout: 120.08 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: af0869a7-5f67-4a22-8665-8547496386b1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a"}
-Command duration or timeout: 120.14 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: af0869a7-5f67-4a22-8665-8547496386b1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address"}
-Command duration or timeout: 120.09 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: af0869a7-5f67-4a22-8665-8547496386b1
-*** Element info: {Using=css selector, value=#address}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address2"}
-Command duration or timeout: 120.14 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: af0869a7-5f67-4a22-8665-8547496386b1
-*** Element info: {Using=css selector, value=#address2}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#city"}
-Command duration or timeout: 120.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: af0869a7-5f67-4a22-8665-8547496386b1
-*** Element info: {Using=css selector, value=#city}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"US\"]"}
-Command duration or timeout: 120.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: af0869a7-5f67-4a22-8665-8547496386b1
-*** Element info: {Using=css selector, value=option[value="US"]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"NY\"]"}
-Command duration or timeout: 120.08 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: af0869a7-5f67-4a22-8665-8547496386b1
-*** Element info: {Using=css selector, value=option[value="NY"]}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#zip"}
-Command duration or timeout: 120.02 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: af0869a7-5f67-4a22-8665-8547496386b1
-*** Element info: {Using=css selector, value=#zip}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]"}
-Command duration or timeout: 120.04 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: af0869a7-5f67-4a22-8665-8547496386b1
-*** Element info: {Using=xpath, value=.//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#youtube_rate"}
-Command duration or timeout: 120.16 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: af0869a7-5f67-4a22-8665-8547496386b1
-*** Element info: {Using=css selector, value=#youtube_rate}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#video_only_rate"}
-Command duration or timeout: 120.14 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: af0869a7-5f67-4a22-8665-8547496386b1
-*** Element info: {Using=css selector, value=#video_only_rate}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input"}
-Command duration or timeout: 120.05 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: af0869a7-5f67-4a22-8665-8547496386b1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]"}
-Command duration or timeout: 120.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: af0869a7-5f67-4a22-8665-8547496386b1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]"}
-Command duration or timeout: 120.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: af0869a7-5f67-4a22-8665-8547496386b1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]"}
-Command duration or timeout: 120.14 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: af0869a7-5f67-4a22-8665-8547496386b1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]"}
-Command duration or timeout: 120.07 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: af0869a7-5f67-4a22-8665-8547496386b1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]"}
-Command duration or timeout: 120.07 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: af0869a7-5f67-4a22-8665-8547496386b1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]"}
-Command duration or timeout: 120.04 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: af0869a7-5f67-4a22-8665-8547496386b1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]"}
-Command duration or timeout: 120.08 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: af0869a7-5f67-4a22-8665-8547496386b1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]"}
-Command duration or timeout: 120.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: af0869a7-5f67-4a22-8665-8547496386b1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]"}
-Command duration or timeout: 120.09 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: af0869a7-5f67-4a22-8665-8547496386b1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]"}
-Command duration or timeout: 120.09 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: af0869a7-5f67-4a22-8665-8547496386b1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]"}
-Command duration or timeout: 120.06 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: af0869a7-5f67-4a22-8665-8547496386b1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
-Command duration or timeout: 120.14 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: af0869a7-5f67-4a22-8665-8547496386b1
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]"}
-Command duration or timeout: 120.14 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: af0869a7-5f67-4a22-8665-8547496386b1
-*** Element info: {Using=xpath, value=.//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Visit Offers')]"}
-Command duration or timeout: 120.15 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: af0869a7-5f67-4a22-8665-8547496386b1
-*** Element info: {Using=xpath, value=//a[contains(text(),'Visit Offers')]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/header/nav/div[2]/ul[1]/li[3]/a"}
-Command duration or timeout: 120.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.95', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: af0869a7-5f67-4a22-8665-8547496386b1
-*** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
+    <t>genvideotest1247@gmail.com</t>
+  </si>
+  <si>
+    <t>genvideotest1248@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1798,7 +1446,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1852,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R108"/>
   <sheetViews>
-    <sheetView topLeftCell="F14" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1865,7 +1513,7 @@
     <col min="5" max="5" customWidth="true" style="2" width="36.28515625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" style="2" width="24.140625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="255.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
@@ -3312,7 +2960,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" t="s">
-        <v>269</v>
+        <v>30</v>
       </c>
       <c r="I30" t="s">
         <v>27</v>
@@ -3406,7 +3054,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" t="s">
-        <v>270</v>
+        <v>30</v>
       </c>
       <c r="I32" t="s">
         <v>27</v>
@@ -3457,7 +3105,7 @@
       </c>
       <c r="G33" s="3"/>
       <c r="H33" t="s">
-        <v>271</v>
+        <v>30</v>
       </c>
       <c r="I33" t="s">
         <v>27</v>
@@ -3506,7 +3154,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" t="s">
-        <v>272</v>
+        <v>30</v>
       </c>
       <c r="I34" t="s">
         <v>27</v>
@@ -3555,7 +3203,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" t="s">
-        <v>273</v>
+        <v>30</v>
       </c>
       <c r="I35" t="s">
         <v>27</v>
@@ -3604,7 +3252,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" t="s">
-        <v>274</v>
+        <v>30</v>
       </c>
       <c r="I36" t="s">
         <v>27</v>
@@ -3653,7 +3301,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" t="s">
-        <v>275</v>
+        <v>30</v>
       </c>
       <c r="I37" t="s">
         <v>27</v>
@@ -3704,7 +3352,7 @@
       </c>
       <c r="G38" s="3"/>
       <c r="H38" t="s">
-        <v>276</v>
+        <v>30</v>
       </c>
       <c r="I38" t="s">
         <v>27</v>
@@ -3755,7 +3403,7 @@
       </c>
       <c r="G39" s="3"/>
       <c r="H39" t="s">
-        <v>277</v>
+        <v>30</v>
       </c>
       <c r="I39" t="s">
         <v>27</v>
@@ -3806,7 +3454,7 @@
       </c>
       <c r="G40" s="3"/>
       <c r="H40" t="s">
-        <v>278</v>
+        <v>30</v>
       </c>
       <c r="I40" t="s">
         <v>27</v>
@@ -3855,7 +3503,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" t="s">
-        <v>279</v>
+        <v>30</v>
       </c>
       <c r="I41" t="s">
         <v>27</v>
@@ -3904,7 +3552,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" t="s">
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="I42" t="s">
         <v>27</v>
@@ -3955,7 +3603,7 @@
       </c>
       <c r="G43" s="3"/>
       <c r="H43" t="s">
-        <v>281</v>
+        <v>30</v>
       </c>
       <c r="I43" t="s">
         <v>27</v>
@@ -4049,7 +3697,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" t="s">
-        <v>282</v>
+        <v>30</v>
       </c>
       <c r="I45" t="s">
         <v>27</v>
@@ -4100,7 +3748,7 @@
       </c>
       <c r="G46" s="3"/>
       <c r="H46" t="s">
-        <v>283</v>
+        <v>30</v>
       </c>
       <c r="I46" t="s">
         <v>27</v>
@@ -4151,7 +3799,7 @@
       </c>
       <c r="G47" s="3"/>
       <c r="H47" t="s">
-        <v>284</v>
+        <v>30</v>
       </c>
       <c r="I47" t="s">
         <v>27</v>
@@ -4202,7 +3850,7 @@
       </c>
       <c r="G48" s="3"/>
       <c r="H48" t="s">
-        <v>285</v>
+        <v>30</v>
       </c>
       <c r="I48" t="s">
         <v>27</v>
@@ -4296,7 +3944,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" t="s">
-        <v>286</v>
+        <v>30</v>
       </c>
       <c r="I50" t="s">
         <v>27</v>
@@ -4345,7 +3993,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" t="s">
-        <v>287</v>
+        <v>30</v>
       </c>
       <c r="I51" t="s">
         <v>27</v>
@@ -4394,7 +4042,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" t="s">
-        <v>288</v>
+        <v>30</v>
       </c>
       <c r="I52" t="s">
         <v>27</v>
@@ -4443,7 +4091,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" t="s">
-        <v>289</v>
+        <v>30</v>
       </c>
       <c r="I53" t="s">
         <v>27</v>
@@ -4492,7 +4140,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" t="s">
-        <v>290</v>
+        <v>30</v>
       </c>
       <c r="I54" t="s">
         <v>27</v>
@@ -4541,7 +4189,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" t="s">
-        <v>291</v>
+        <v>30</v>
       </c>
       <c r="I55" t="s">
         <v>27</v>
@@ -4590,7 +4238,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" t="s">
-        <v>292</v>
+        <v>30</v>
       </c>
       <c r="I56" t="s">
         <v>27</v>
@@ -4639,7 +4287,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" t="s">
-        <v>293</v>
+        <v>30</v>
       </c>
       <c r="I57" t="s">
         <v>27</v>
@@ -4688,7 +4336,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" t="s">
-        <v>294</v>
+        <v>30</v>
       </c>
       <c r="I58" t="s">
         <v>27</v>
@@ -4737,7 +4385,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" t="s">
-        <v>295</v>
+        <v>30</v>
       </c>
       <c r="I59" t="s">
         <v>27</v>
@@ -4786,7 +4434,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" t="s">
-        <v>296</v>
+        <v>30</v>
       </c>
       <c r="I60" t="s">
         <v>27</v>
@@ -4835,7 +4483,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" t="s">
-        <v>297</v>
+        <v>30</v>
       </c>
       <c r="I61" t="s">
         <v>27</v>
@@ -4884,7 +4532,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" t="s">
-        <v>297</v>
+        <v>30</v>
       </c>
       <c r="I62" t="s">
         <v>27</v>
@@ -4933,7 +4581,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" t="s">
-        <v>298</v>
+        <v>30</v>
       </c>
       <c r="I63" t="s">
         <v>27</v>
@@ -4982,7 +4630,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" t="s">
-        <v>299</v>
+        <v>30</v>
       </c>
       <c r="I64" t="s">
         <v>27</v>
@@ -5031,7 +4679,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" t="s">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="I65" t="s">
         <v>27</v>
@@ -7030,7 +6678,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7042,7 +6690,7 @@
     <col min="15" max="15" customWidth="true" style="7" width="15.42578125" collapsed="true"/>
     <col min="16" max="16" customWidth="true" style="7" width="17.0" collapsed="true"/>
     <col min="17" max="17" customWidth="true" style="7" width="9.42578125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="7" width="255.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="7" width="6.3984375" collapsed="true"/>
     <col min="19" max="16384" style="7" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -7151,7 +6799,7 @@
         <v>12</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>269</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">

--- a/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
+++ b/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
@@ -825,10 +825,10 @@
     <t>genvideotest1078@gmail.com</t>
   </si>
   <si>
-    <t>genvideotest1247@gmail.com</t>
-  </si>
-  <si>
-    <t>genvideotest1248@gmail.com</t>
+    <t>genvideotest1252@gmail.com</t>
+  </si>
+  <si>
+    <t>genvideotest1251@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -6677,9 +6677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6752,13 +6750,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>58</v>

--- a/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
+++ b/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2558" uniqueCount="269">
   <si>
     <t>TCID</t>
   </si>
@@ -825,10 +825,10 @@
     <t>genvideotest1078@gmail.com</t>
   </si>
   <si>
-    <t>genvideotest1252@gmail.com</t>
-  </si>
-  <si>
-    <t>genvideotest1251@gmail.com</t>
+    <t>genvideotest1253@gmail.com</t>
+  </si>
+  <si>
+    <t>genvideotest1254@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -6677,7 +6677,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6750,13 +6752,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>58</v>

--- a/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
+++ b/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2558" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="269">
   <si>
     <t>TCID</t>
   </si>
@@ -825,10 +825,10 @@
     <t>genvideotest1078@gmail.com</t>
   </si>
   <si>
-    <t>genvideotest1253@gmail.com</t>
-  </si>
-  <si>
-    <t>genvideotest1254@gmail.com</t>
+    <t>genvideotest1255@gmail.com</t>
+  </si>
+  <si>
+    <t>genvideotest1256@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -6678,7 +6678,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
+++ b/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
@@ -825,10 +825,10 @@
     <t>genvideotest1078@gmail.com</t>
   </si>
   <si>
-    <t>genvideotest1255@gmail.com</t>
-  </si>
-  <si>
-    <t>genvideotest1256@gmail.com</t>
+    <t>genvideotest1257@gmail.com</t>
+  </si>
+  <si>
+    <t>genvideotest1258@gmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
+++ b/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
@@ -825,10 +825,10 @@
     <t>genvideotest1078@gmail.com</t>
   </si>
   <si>
-    <t>genvideotest1257@gmail.com</t>
-  </si>
-  <si>
-    <t>genvideotest1258@gmail.com</t>
+    <t>genvideotest1259@gmail.com</t>
+  </si>
+  <si>
+    <t>genvideotest1260@gmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
+++ b/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="269">
   <si>
     <t>TCID</t>
   </si>
@@ -825,10 +825,10 @@
     <t>genvideotest1078@gmail.com</t>
   </si>
   <si>
-    <t>genvideotest1259@gmail.com</t>
-  </si>
-  <si>
-    <t>genvideotest1260@gmail.com</t>
+    <t>genvideotest1261@gmail.com</t>
+  </si>
+  <si>
+    <t>genvideotest1262@gmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
+++ b/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2559" uniqueCount="269">
   <si>
     <t>TCID</t>
   </si>
@@ -825,10 +825,10 @@
     <t>genvideotest1078@gmail.com</t>
   </si>
   <si>
-    <t>genvideotest1261@gmail.com</t>
-  </si>
-  <si>
-    <t>genvideotest1262@gmail.com</t>
+    <t>genvideotest1263@gmail.com</t>
+  </si>
+  <si>
+    <t>genvideotest1264@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -6678,7 +6678,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
+++ b/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2559" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="343">
   <si>
     <t>TCID</t>
   </si>
@@ -825,10 +825,824 @@
     <t>genvideotest1078@gmail.com</t>
   </si>
   <si>
-    <t>genvideotest1263@gmail.com</t>
-  </si>
-  <si>
-    <t>genvideotest1264@gmail.com</t>
+    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"(//button[@class='btn btn-lg btn-warning2'])[2]"}
+Command duration or timeout: 20.05 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+*** Element info: {Using=xpath, value=(//button[@class='btn btn-lg btn-warning2'])[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":".btn.btn-default.field-25.female"}
+Command duration or timeout: 20.07 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+*** Element info: {Using=css selector, value=.btn.btn-default.field-25.female}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#exampleInput"}
+Command duration or timeout: 20.06 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+*** Element info: {Using=css selector, value=#exampleInput}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+*** Element info: {Using=css selector, value=#address}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address2"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+*** Element info: {Using=css selector, value=#address2}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#city"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+*** Element info: {Using=css selector, value=#city}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"US\"]"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+*** Element info: {Using=css selector, value=option[value="US"]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"NY\"]"}
+Command duration or timeout: 20.09 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+*** Element info: {Using=css selector, value=option[value="NY"]}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#zip"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+*** Element info: {Using=css selector, value=#zip}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]"}
+Command duration or timeout: 20.02 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+*** Element info: {Using=xpath, value=.//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#youtube_rate"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+*** Element info: {Using=css selector, value=#youtube_rate}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#video_only_rate"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+*** Element info: {Using=css selector, value=#video_only_rate}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]"}
+Command duration or timeout: 20.03 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]"}
+Command duration or timeout: 20.02 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]"}
+Command duration or timeout: 20.05 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]"}
+Command duration or timeout: 20.02 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+*** Element info: {Using=xpath, value=.//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Visit Offers')]"}
+Command duration or timeout: 20.09 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+*** Element info: {Using=xpath, value=//a[contains(text(),'Visit Offers')]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/header/nav/div[2]/ul[1]/li[3]/a"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+*** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
+  </si>
+  <si>
+    <t>genvideotest1285@gmail.com</t>
+  </si>
+  <si>
+    <t>genvideotest1286@gmail.com</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='pin-target']/a[1]"}
+Command duration or timeout: 20.14 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: ef60b593-61bc-44d1-8d68-0e18912e612f
+*** Element info: {Using=xpath, value=.//*[@id='pin-target']/a[1]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[1]/div[1]/div[2]/a"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: ef60b593-61bc-44d1-8d68-0e18912e612f
+*** Element info: {Using=xpath, value=html/body/div[1]/div[1]/div[2]/a}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#first_name"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: ef60b593-61bc-44d1-8d68-0e18912e612f
+*** Element info: {Using=css selector, value=#first_name}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#last_name"}
+Command duration or timeout: 20.14 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: ef60b593-61bc-44d1-8d68-0e18912e612f
+*** Element info: {Using=css selector, value=#last_name}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#email"}
+Command duration or timeout: 20.03 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: ef60b593-61bc-44d1-8d68-0e18912e612f
+*** Element info: {Using=css selector, value=#email}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#password"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: ef60b593-61bc-44d1-8d68-0e18912e612f
+*** Element info: {Using=css selector, value=#password}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#password_confirmation"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: ef60b593-61bc-44d1-8d68-0e18912e612f
+*** Element info: {Using=css selector, value=#password_confirmation}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]"}
+Command duration or timeout: 20.06 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: ef60b593-61bc-44d1-8d68-0e18912e612f
+*** Element info: {Using=xpath, value=.//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[2]/div/div[3]/div[2]/a"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: ef60b593-61bc-44d1-8d68-0e18912e612f
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[2]/div/div[3]/div[2]/a}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[2]/div/div[3]/div[2]/a"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: ef60b593-61bc-44d1-8d68-0e18912e612f
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[2]/div/div[3]/div[2]/a}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"(//button[@class='btn btn-lg btn-warning2'])[2]"}
+Command duration or timeout: 61.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+*** Element info: {Using=xpath, value=(//button[@class='btn btn-lg btn-warning2'])[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":".btn.btn-default.field-25.female"}
+Command duration or timeout: 20.05 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+*** Element info: {Using=css selector, value=.btn.btn-default.field-25.female}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#exampleInput"}
+Command duration or timeout: 20.02 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+*** Element info: {Using=css selector, value=#exampleInput}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a"}
+Command duration or timeout: 20.03 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+*** Element info: {Using=css selector, value=#address}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address2"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+*** Element info: {Using=css selector, value=#address2}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#city"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+*** Element info: {Using=css selector, value=#city}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"US\"]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+*** Element info: {Using=css selector, value=option[value="US"]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"NY\"]"}
+Command duration or timeout: 20.06 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+*** Element info: {Using=css selector, value=option[value="NY"]}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#zip"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+*** Element info: {Using=css selector, value=#zip}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]"}
+Command duration or timeout: 20.02 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+*** Element info: {Using=xpath, value=.//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#youtube_rate"}
+Command duration or timeout: 20.16 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+*** Element info: {Using=css selector, value=#youtube_rate}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#video_only_rate"}
+Command duration or timeout: 20.14 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+*** Element info: {Using=css selector, value=#video_only_rate}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]"}
+Command duration or timeout: 20.09 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+*** Element info: {Using=xpath, value=.//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Visit Offers')]"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+*** Element info: {Using=xpath, value=//a[contains(text(),'Visit Offers')]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/header/nav/div[2]/ul[1]/li[3]/a"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+*** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
   </si>
 </sst>
 </file>
@@ -1513,7 +2327,7 @@
     <col min="5" max="5" customWidth="true" style="2" width="36.28515625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" style="2" width="24.140625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="255.0" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
@@ -1696,7 +2510,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>301</v>
       </c>
       <c r="I4" t="s">
         <v>27</v>
@@ -1745,7 +2559,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>302</v>
       </c>
       <c r="I5" t="s">
         <v>27</v>
@@ -1841,7 +2655,7 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>303</v>
       </c>
       <c r="I7" t="s">
         <v>27</v>
@@ -1892,7 +2706,7 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>304</v>
       </c>
       <c r="I8" t="s">
         <v>27</v>
@@ -1943,7 +2757,7 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>305</v>
       </c>
       <c r="I9" t="s">
         <v>27</v>
@@ -1994,7 +2808,7 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="I10" t="s">
         <v>27</v>
@@ -2045,7 +2859,7 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>307</v>
       </c>
       <c r="I11" t="s">
         <v>27</v>
@@ -2139,7 +2953,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>308</v>
       </c>
       <c r="I13" t="s">
         <v>27</v>
@@ -2233,7 +3047,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>309</v>
       </c>
       <c r="I15" t="s">
         <v>27</v>
@@ -2327,7 +3141,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" t="s">
-        <v>30</v>
+        <v>310</v>
       </c>
       <c r="I17" t="s">
         <v>27</v>
@@ -2960,7 +3774,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" t="s">
-        <v>30</v>
+        <v>311</v>
       </c>
       <c r="I30" t="s">
         <v>27</v>
@@ -3054,7 +3868,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" t="s">
-        <v>30</v>
+        <v>312</v>
       </c>
       <c r="I32" t="s">
         <v>27</v>
@@ -3105,7 +3919,7 @@
       </c>
       <c r="G33" s="3"/>
       <c r="H33" t="s">
-        <v>30</v>
+        <v>313</v>
       </c>
       <c r="I33" t="s">
         <v>27</v>
@@ -3154,7 +3968,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" t="s">
-        <v>30</v>
+        <v>314</v>
       </c>
       <c r="I34" t="s">
         <v>27</v>
@@ -3203,7 +4017,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" t="s">
-        <v>30</v>
+        <v>315</v>
       </c>
       <c r="I35" t="s">
         <v>27</v>
@@ -3252,7 +4066,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" t="s">
-        <v>30</v>
+        <v>316</v>
       </c>
       <c r="I36" t="s">
         <v>27</v>
@@ -3301,7 +4115,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" t="s">
-        <v>30</v>
+        <v>317</v>
       </c>
       <c r="I37" t="s">
         <v>27</v>
@@ -3352,7 +4166,7 @@
       </c>
       <c r="G38" s="3"/>
       <c r="H38" t="s">
-        <v>30</v>
+        <v>318</v>
       </c>
       <c r="I38" t="s">
         <v>27</v>
@@ -3403,7 +4217,7 @@
       </c>
       <c r="G39" s="3"/>
       <c r="H39" t="s">
-        <v>30</v>
+        <v>319</v>
       </c>
       <c r="I39" t="s">
         <v>27</v>
@@ -3454,7 +4268,7 @@
       </c>
       <c r="G40" s="3"/>
       <c r="H40" t="s">
-        <v>30</v>
+        <v>320</v>
       </c>
       <c r="I40" t="s">
         <v>27</v>
@@ -3503,7 +4317,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" t="s">
-        <v>30</v>
+        <v>321</v>
       </c>
       <c r="I41" t="s">
         <v>27</v>
@@ -3552,7 +4366,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" t="s">
-        <v>30</v>
+        <v>322</v>
       </c>
       <c r="I42" t="s">
         <v>27</v>
@@ -3603,7 +4417,7 @@
       </c>
       <c r="G43" s="3"/>
       <c r="H43" t="s">
-        <v>30</v>
+        <v>323</v>
       </c>
       <c r="I43" t="s">
         <v>27</v>
@@ -3697,7 +4511,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" t="s">
-        <v>30</v>
+        <v>324</v>
       </c>
       <c r="I45" t="s">
         <v>27</v>
@@ -3748,7 +4562,7 @@
       </c>
       <c r="G46" s="3"/>
       <c r="H46" t="s">
-        <v>30</v>
+        <v>325</v>
       </c>
       <c r="I46" t="s">
         <v>27</v>
@@ -3799,7 +4613,7 @@
       </c>
       <c r="G47" s="3"/>
       <c r="H47" t="s">
-        <v>30</v>
+        <v>326</v>
       </c>
       <c r="I47" t="s">
         <v>27</v>
@@ -3850,7 +4664,7 @@
       </c>
       <c r="G48" s="3"/>
       <c r="H48" t="s">
-        <v>30</v>
+        <v>327</v>
       </c>
       <c r="I48" t="s">
         <v>27</v>
@@ -3944,7 +4758,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" t="s">
-        <v>30</v>
+        <v>328</v>
       </c>
       <c r="I50" t="s">
         <v>27</v>
@@ -3993,7 +4807,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" t="s">
-        <v>30</v>
+        <v>329</v>
       </c>
       <c r="I51" t="s">
         <v>27</v>
@@ -4042,7 +4856,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" t="s">
-        <v>30</v>
+        <v>330</v>
       </c>
       <c r="I52" t="s">
         <v>27</v>
@@ -4091,7 +4905,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" t="s">
-        <v>30</v>
+        <v>331</v>
       </c>
       <c r="I53" t="s">
         <v>27</v>
@@ -4140,7 +4954,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" t="s">
-        <v>30</v>
+        <v>332</v>
       </c>
       <c r="I54" t="s">
         <v>27</v>
@@ -4189,7 +5003,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" t="s">
-        <v>30</v>
+        <v>333</v>
       </c>
       <c r="I55" t="s">
         <v>27</v>
@@ -4238,7 +5052,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" t="s">
-        <v>30</v>
+        <v>334</v>
       </c>
       <c r="I56" t="s">
         <v>27</v>
@@ -4287,7 +5101,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" t="s">
-        <v>30</v>
+        <v>335</v>
       </c>
       <c r="I57" t="s">
         <v>27</v>
@@ -4336,7 +5150,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" t="s">
-        <v>30</v>
+        <v>336</v>
       </c>
       <c r="I58" t="s">
         <v>27</v>
@@ -4385,7 +5199,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" t="s">
-        <v>30</v>
+        <v>337</v>
       </c>
       <c r="I59" t="s">
         <v>27</v>
@@ -4434,7 +5248,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" t="s">
-        <v>30</v>
+        <v>338</v>
       </c>
       <c r="I60" t="s">
         <v>27</v>
@@ -4483,7 +5297,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" t="s">
-        <v>30</v>
+        <v>339</v>
       </c>
       <c r="I61" t="s">
         <v>27</v>
@@ -4532,7 +5346,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" t="s">
-        <v>30</v>
+        <v>339</v>
       </c>
       <c r="I62" t="s">
         <v>27</v>
@@ -4581,7 +5395,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" t="s">
-        <v>30</v>
+        <v>340</v>
       </c>
       <c r="I63" t="s">
         <v>27</v>
@@ -4630,7 +5444,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" t="s">
-        <v>30</v>
+        <v>341</v>
       </c>
       <c r="I64" t="s">
         <v>27</v>
@@ -4679,7 +5493,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" t="s">
-        <v>30</v>
+        <v>342</v>
       </c>
       <c r="I65" t="s">
         <v>27</v>
@@ -6690,7 +7504,7 @@
     <col min="15" max="15" customWidth="true" style="7" width="15.42578125" collapsed="true"/>
     <col min="16" max="16" customWidth="true" style="7" width="17.0" collapsed="true"/>
     <col min="17" max="17" customWidth="true" style="7" width="9.42578125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="7" width="6.3984375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="7" width="255.0" collapsed="true"/>
     <col min="19" max="16384" style="7" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -6752,13 +7566,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>58</v>
@@ -6799,7 +7613,7 @@
         <v>12</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>30</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">

--- a/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
+++ b/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="315">
   <si>
     <t>TCID</t>
   </si>
@@ -528,27 +528,6 @@
     <t>10005</t>
   </si>
   <si>
-    <t>TS048</t>
-  </si>
-  <si>
-    <t>TS049</t>
-  </si>
-  <si>
-    <t>TS050</t>
-  </si>
-  <si>
-    <t>TS051</t>
-  </si>
-  <si>
-    <t>TS052</t>
-  </si>
-  <si>
-    <t>TS053</t>
-  </si>
-  <si>
-    <t>TS054</t>
-  </si>
-  <si>
     <t>Click on Continue</t>
   </si>
   <si>
@@ -606,24 +585,6 @@
     <t>tech</t>
   </si>
   <si>
-    <t>TS055</t>
-  </si>
-  <si>
-    <t>TS056</t>
-  </si>
-  <si>
-    <t>TS057</t>
-  </si>
-  <si>
-    <t>TS058</t>
-  </si>
-  <si>
-    <t>TS059</t>
-  </si>
-  <si>
-    <t>TS060</t>
-  </si>
-  <si>
     <t>creator_select_video_haul</t>
   </si>
   <si>
@@ -693,18 +654,6 @@
     <t>Click on child video off</t>
   </si>
   <si>
-    <t>TS061</t>
-  </si>
-  <si>
-    <t>TS062</t>
-  </si>
-  <si>
-    <t>TS063</t>
-  </si>
-  <si>
-    <t>TS064</t>
-  </si>
-  <si>
     <t>creator_targeting_continue</t>
   </si>
   <si>
@@ -780,9 +729,6 @@
     <t>ErrMsg</t>
   </si>
   <si>
-    <t>TS065</t>
-  </si>
-  <si>
     <t>genvideotest1034@gmail.com</t>
   </si>
   <si>
@@ -825,47 +771,36 @@
     <t>genvideotest1078@gmail.com</t>
   </si>
   <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"(//button[@class='btn btn-lg btn-warning2'])[2]"}
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":".btn.btn-default.field-25.female"}
 Command duration or timeout: 20.05 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
-*** Element info: {Using=xpath, value=(//button[@class='btn btn-lg btn-warning2'])[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":".btn.btn-default.field-25.female"}
-Command duration or timeout: 20.07 seconds
+Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
+*** Element info: {Using=css selector, value=.btn.btn-default.field-25.female}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#exampleInput"}
+Command duration or timeout: 20.04 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
-*** Element info: {Using=css selector, value=.btn.btn-default.field-25.female}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#exampleInput"}
-Command duration or timeout: 20.06 seconds
+Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
+*** Element info: {Using=css selector, value=#exampleInput}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button"}
+Command duration or timeout: 20.05 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
-*** Element info: {Using=css selector, value=#exampleInput}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button"}
-Command duration or timeout: 20.08 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button}</t>
   </si>
   <si>
@@ -873,21 +808,390 @@
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a}</t>
   </si>
   <si>
     <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button"}
+Command duration or timeout: 20.03 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
+*** Element info: {Using=css selector, value=#address}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address2"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
+*** Element info: {Using=css selector, value=#address2}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#city"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
+*** Element info: {Using=css selector, value=#city}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"US\"]"}
+Command duration or timeout: 20.14 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
+*** Element info: {Using=css selector, value=option[value="US"]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"NY\"]"}
+Command duration or timeout: 20.03 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
+*** Element info: {Using=css selector, value=option[value="NY"]}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#zip"}
 Command duration or timeout: 20.08 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
+*** Element info: {Using=css selector, value=#zip}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
+*** Element info: {Using=xpath, value=.//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#youtube_rate"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
+*** Element info: {Using=css selector, value=#youtube_rate}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#video_only_rate"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
+*** Element info: {Using=css selector, value=#video_only_rate}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]"}
+Command duration or timeout: 20.02 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]"}
+Command duration or timeout: 20.05 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]"}
+Command duration or timeout: 20.14 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
+*** Element info: {Using=xpath, value=.//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Visit Offers')]"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
+*** Element info: {Using=xpath, value=//a[contains(text(),'Visit Offers')]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/header/nav/div[2]/ul[1]/li[3]/a"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
+*** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
+  </si>
+  <si>
+    <t>genvideotest1346@gmail.com</t>
+  </si>
+  <si>
+    <t>genvideotest1347@gmail.com</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"(//button[@class='btn btn-lg btn-warning2'])[2]"}
+Command duration or timeout: 20.09 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
+*** Element info: {Using=xpath, value=(//button[@class='btn btn-lg btn-warning2'])[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":".btn.btn-default.field-25.female"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
+*** Element info: {Using=css selector, value=.btn.btn-default.field-25.female}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#exampleInput"}
+Command duration or timeout: 20.09 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
+*** Element info: {Using=css selector, value=#exampleInput}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button"}
+Command duration or timeout: 20.01 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button}</t>
   </si>
   <si>
@@ -895,10 +1199,10 @@
 Command duration or timeout: 20.12 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a}</t>
   </si>
   <si>
@@ -906,21 +1210,21 @@
 Command duration or timeout: 20.12 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
 *** Element info: {Using=css selector, value=#address}</t>
   </si>
   <si>
     <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address2"}
-Command duration or timeout: 20.11 seconds
+Command duration or timeout: 20.03 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
 *** Element info: {Using=css selector, value=#address2}</t>
   </si>
   <si>
@@ -928,32 +1232,32 @@
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
 *** Element info: {Using=css selector, value=#city}</t>
   </si>
   <si>
     <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"US\"]"}
-Command duration or timeout: 20.08 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
-*** Element info: {Using=css selector, value=option[value="US"]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"NY\"]"}
 Command duration or timeout: 20.09 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
+*** Element info: {Using=css selector, value=option[value="US"]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"NY\"]"}
+Command duration or timeout: 20.06 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
 *** Element info: {Using=css selector, value=option[value="NY"]}</t>
   </si>
   <si>
@@ -961,21 +1265,21 @@
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
 *** Element info: {Using=css selector, value=#zip}</t>
   </si>
   <si>
     <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]"}
-Command duration or timeout: 20.02 seconds
+Command duration or timeout: 20.06 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
 *** Element info: {Using=xpath, value=.//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]}</t>
   </si>
   <si>
@@ -983,10 +1287,10 @@
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
 *** Element info: {Using=css selector, value=#youtube_rate}</t>
   </si>
   <si>
@@ -994,10 +1298,10 @@
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
 *** Element info: {Using=css selector, value=#video_only_rate}</t>
   </si>
   <si>
@@ -1005,10 +1309,10 @@
 Command duration or timeout: 20.12 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input}</t>
   </si>
   <si>
@@ -1016,21 +1320,21 @@
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]}</t>
   </si>
   <si>
     <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]"}
-Command duration or timeout: 20.03 seconds
+Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]}</t>
   </si>
   <si>
@@ -1038,10 +1342,10 @@
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]}</t>
   </si>
   <si>
@@ -1049,43 +1353,43 @@
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]}</t>
   </si>
   <si>
     <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]"}
-Command duration or timeout: 20.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]"}
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]"}
-Command duration or timeout: 20.02 seconds
+Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]"}
+Command duration or timeout: 20.12 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
+Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]}</t>
   </si>
   <si>
@@ -1093,478 +1397,10 @@
 Command duration or timeout: 20.05 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]"}
-Command duration or timeout: 20.08 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]"}
-Command duration or timeout: 20.02 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
-*** Element info: {Using=xpath, value=.//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Visit Offers')]"}
-Command duration or timeout: 20.09 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
-*** Element info: {Using=xpath, value=//a[contains(text(),'Visit Offers')]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/header/nav/div[2]/ul[1]/li[3]/a"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 8d2f83a1-ff40-42fe-ae8d-9b6534e87180
-*** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
-  </si>
-  <si>
-    <t>genvideotest1285@gmail.com</t>
-  </si>
-  <si>
-    <t>genvideotest1286@gmail.com</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='pin-target']/a[1]"}
-Command duration or timeout: 20.14 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: ef60b593-61bc-44d1-8d68-0e18912e612f
-*** Element info: {Using=xpath, value=.//*[@id='pin-target']/a[1]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[1]/div[1]/div[2]/a"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: ef60b593-61bc-44d1-8d68-0e18912e612f
-*** Element info: {Using=xpath, value=html/body/div[1]/div[1]/div[2]/a}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#first_name"}
-Command duration or timeout: 20.08 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: ef60b593-61bc-44d1-8d68-0e18912e612f
-*** Element info: {Using=css selector, value=#first_name}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#last_name"}
-Command duration or timeout: 20.14 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: ef60b593-61bc-44d1-8d68-0e18912e612f
-*** Element info: {Using=css selector, value=#last_name}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#email"}
-Command duration or timeout: 20.03 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: ef60b593-61bc-44d1-8d68-0e18912e612f
-*** Element info: {Using=css selector, value=#email}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#password"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: ef60b593-61bc-44d1-8d68-0e18912e612f
-*** Element info: {Using=css selector, value=#password}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#password_confirmation"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: ef60b593-61bc-44d1-8d68-0e18912e612f
-*** Element info: {Using=css selector, value=#password_confirmation}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]"}
-Command duration or timeout: 20.06 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: ef60b593-61bc-44d1-8d68-0e18912e612f
-*** Element info: {Using=xpath, value=.//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[2]/div/div[3]/div[2]/a"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: ef60b593-61bc-44d1-8d68-0e18912e612f
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[2]/div/div[3]/div[2]/a}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[2]/div/div[3]/div[2]/a"}
-Command duration or timeout: 20.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: ef60b593-61bc-44d1-8d68-0e18912e612f
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[2]/div/div[3]/div[2]/a}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"(//button[@class='btn btn-lg btn-warning2'])[2]"}
-Command duration or timeout: 61.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
-*** Element info: {Using=xpath, value=(//button[@class='btn btn-lg btn-warning2'])[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":".btn.btn-default.field-25.female"}
-Command duration or timeout: 20.05 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
-*** Element info: {Using=css selector, value=.btn.btn-default.field-25.female}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#exampleInput"}
-Command duration or timeout: 20.02 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
-*** Element info: {Using=css selector, value=#exampleInput}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button"}
-Command duration or timeout: 20.08 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button"}
-Command duration or timeout: 20.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a"}
-Command duration or timeout: 20.03 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
-*** Element info: {Using=css selector, value=#address}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address2"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
-*** Element info: {Using=css selector, value=#address2}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#city"}
-Command duration or timeout: 20.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
-*** Element info: {Using=css selector, value=#city}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"US\"]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
-*** Element info: {Using=css selector, value=option[value="US"]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"NY\"]"}
-Command duration or timeout: 20.06 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
-*** Element info: {Using=css selector, value=option[value="NY"]}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#zip"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
-*** Element info: {Using=css selector, value=#zip}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]"}
-Command duration or timeout: 20.02 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
-*** Element info: {Using=xpath, value=.//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#youtube_rate"}
-Command duration or timeout: 20.16 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
-*** Element info: {Using=css selector, value=#youtube_rate}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#video_only_rate"}
-Command duration or timeout: 20.14 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
-*** Element info: {Using=css selector, value=#video_only_rate}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]"}
-Command duration or timeout: 20.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]}</t>
   </si>
   <si>
@@ -1572,21 +1408,21 @@
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]}</t>
   </si>
   <si>
     <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]"}
-Command duration or timeout: 20.09 seconds
+Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]}</t>
   </si>
   <si>
@@ -1594,54 +1430,54 @@
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]}</t>
   </si>
   <si>
     <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]"}
-Command duration or timeout: 20.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
-*** Element info: {Using=xpath, value=.//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Visit Offers')]"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
-*** Element info: {Using=xpath, value=//a[contains(text(),'Visit Offers')]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/header/nav/div[2]/ul[1]/li[3]/a"}
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 1d31fff5-b66b-449d-bac4-2268793f7aeb
+Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]"}
+Command duration or timeout: 20.14 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
+*** Element info: {Using=xpath, value=.//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Visit Offers')]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
+*** Element info: {Using=xpath, value=//a[contains(text(),'Visit Offers')]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/header/nav/div[2]/ul[1]/li[3]/a"}
+Command duration or timeout: 20.03 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
 *** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
   </si>
 </sst>
@@ -2293,7 +2129,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="4" t="s">
@@ -2312,11 +2148,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R108"/>
+  <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2450,14 +2284,14 @@
         <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" t="s">
@@ -2499,18 +2333,20 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" t="s">
-        <v>301</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
         <v>27</v>
@@ -2548,18 +2384,20 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" t="s">
-        <v>302</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
         <v>27</v>
@@ -2596,12 +2434,18 @@
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="D6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>218</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" t="s">
         <v>30</v>
@@ -2642,20 +2486,20 @@
         <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>88</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" t="s">
-        <v>303</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
         <v>27</v>
@@ -2693,20 +2537,20 @@
         <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>88</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" t="s">
-        <v>304</v>
+        <v>30</v>
       </c>
       <c r="I8" t="s">
         <v>27</v>
@@ -2743,21 +2587,15 @@
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" t="s">
-        <v>305</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
         <v>27</v>
@@ -2795,20 +2633,18 @@
         <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" t="s">
-        <v>306</v>
+        <v>30</v>
       </c>
       <c r="I10" t="s">
         <v>27</v>
@@ -2845,21 +2681,15 @@
       <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" t="s">
-        <v>307</v>
+        <v>30</v>
       </c>
       <c r="I11" t="s">
         <v>27</v>
@@ -2896,15 +2726,19 @@
       <c r="B12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="D12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>222</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>283</v>
       </c>
       <c r="I12" t="s">
         <v>27</v>
@@ -2941,19 +2775,15 @@
       <c r="B13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>237</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" t="s">
-        <v>308</v>
+        <v>30</v>
       </c>
       <c r="I13" t="s">
         <v>27</v>
@@ -2990,15 +2820,19 @@
       <c r="B14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="D14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>284</v>
       </c>
       <c r="I14" t="s">
         <v>27</v>
@@ -3036,18 +2870,20 @@
         <v>62</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F15" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="I15" t="s">
         <v>27</v>
@@ -3084,15 +2920,19 @@
       <c r="B16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="D16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" t="s">
-        <v>30</v>
+        <v>286</v>
       </c>
       <c r="I16" t="s">
         <v>27</v>
@@ -3130,18 +2970,18 @@
         <v>64</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>238</v>
+        <v>25</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>234</v>
+        <v>125</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="I17" t="s">
         <v>27</v>
@@ -3178,15 +3018,19 @@
       <c r="B18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="D18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" t="s">
-        <v>30</v>
+        <v>288</v>
       </c>
       <c r="I18" t="s">
         <v>27</v>
@@ -3224,16 +3068,18 @@
         <v>71</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" t="s">
-        <v>30</v>
+        <v>289</v>
       </c>
       <c r="I19" t="s">
         <v>27</v>
@@ -3271,18 +3117,20 @@
         <v>91</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="F20" s="3" t="s">
-        <v>8</v>
+        <v>137</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" t="s">
-        <v>30</v>
+        <v>290</v>
       </c>
       <c r="I20" t="s">
         <v>27</v>
@@ -3320,18 +3168,20 @@
         <v>51</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="F21" s="3" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" t="s">
-        <v>30</v>
+        <v>291</v>
       </c>
       <c r="I21" t="s">
         <v>27</v>
@@ -3369,20 +3219,20 @@
         <v>92</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>88</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" t="s">
-        <v>30</v>
+        <v>292</v>
       </c>
       <c r="I22" t="s">
         <v>27</v>
@@ -3420,20 +3270,18 @@
         <v>93</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" t="s">
-        <v>30</v>
+        <v>293</v>
       </c>
       <c r="I23" t="s">
         <v>27</v>
@@ -3471,20 +3319,18 @@
         <v>94</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>235</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" t="s">
-        <v>30</v>
+        <v>294</v>
       </c>
       <c r="I24" t="s">
         <v>27</v>
@@ -3522,20 +3368,20 @@
         <v>95</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>88</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="I25" t="s">
         <v>27</v>
@@ -3572,18 +3418,12 @@
       <c r="B26" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" t="s">
         <v>30</v>
@@ -3623,15 +3463,19 @@
       <c r="B27" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="D27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="I27" t="s">
         <v>27</v>
@@ -3669,18 +3513,20 @@
         <v>100</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="F28" s="3"/>
+        <v>172</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" t="s">
-        <v>30</v>
+        <v>297</v>
       </c>
       <c r="I28" t="s">
         <v>27</v>
@@ -3717,15 +3563,21 @@
       <c r="B29" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="D29" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>175</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="H29" t="s">
-        <v>30</v>
+        <v>298</v>
       </c>
       <c r="I29" t="s">
         <v>27</v>
@@ -3763,18 +3615,20 @@
         <v>102</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>239</v>
+        <v>11</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F30" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>184</v>
+      </c>
       <c r="G30" s="3"/>
       <c r="H30" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="I30" t="s">
         <v>27</v>
@@ -3857,18 +3711,18 @@
         <v>104</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="I32" t="s">
         <v>27</v>
@@ -3906,20 +3760,18 @@
         <v>105</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>121</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="I33" t="s">
         <v>27</v>
@@ -3957,18 +3809,18 @@
         <v>106</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="I34" t="s">
         <v>27</v>
@@ -4006,18 +3858,18 @@
         <v>107</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>126</v>
+        <v>199</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="I35" t="s">
         <v>27</v>
@@ -4055,18 +3907,18 @@
         <v>108</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="I36" t="s">
         <v>27</v>
@@ -4104,18 +3956,18 @@
         <v>109</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="I37" t="s">
         <v>27</v>
@@ -4153,20 +4005,18 @@
         <v>110</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>137</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="I38" t="s">
         <v>27</v>
@@ -4204,20 +4054,18 @@
         <v>111</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>132</v>
+        <v>203</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>138</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="I39" t="s">
         <v>27</v>
@@ -4255,20 +4103,18 @@
         <v>151</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>139</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="I40" t="s">
         <v>27</v>
@@ -4306,18 +4152,18 @@
         <v>152</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>147</v>
+        <v>205</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="I41" t="s">
         <v>27</v>
@@ -4355,18 +4201,18 @@
         <v>153</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="I42" t="s">
         <v>27</v>
@@ -4404,20 +4250,18 @@
         <v>154</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>161</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="I43" t="s">
         <v>27</v>
@@ -4454,15 +4298,19 @@
       <c r="B44" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="D44" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E44" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" t="s">
-        <v>30</v>
+        <v>311</v>
       </c>
       <c r="I44" t="s">
         <v>27</v>
@@ -4500,18 +4348,18 @@
         <v>156</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="I45" t="s">
         <v>27</v>
@@ -4549,20 +4397,18 @@
         <v>157</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>181</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="I46" t="s">
         <v>27</v>
@@ -4600,20 +4446,18 @@
         <v>158</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>182</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="I47" t="s">
         <v>27</v>
@@ -4651,20 +4495,16 @@
         <v>159</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>187</v>
+        <v>28</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>191</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" t="s">
-        <v>327</v>
+        <v>30</v>
       </c>
       <c r="I48" t="s">
         <v>27</v>
@@ -4695,70 +4535,34 @@
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" t="s">
-        <v>30</v>
-      </c>
-      <c r="I49" t="s">
-        <v>27</v>
-      </c>
-      <c r="J49" t="s">
-        <v>27</v>
-      </c>
-      <c r="K49" t="s">
-        <v>27</v>
-      </c>
-      <c r="L49" t="s">
-        <v>27</v>
-      </c>
-      <c r="M49" t="s">
-        <v>27</v>
-      </c>
-      <c r="N49" t="s">
-        <v>27</v>
-      </c>
-      <c r="O49" t="s">
-        <v>27</v>
-      </c>
-      <c r="P49" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>27</v>
-      </c>
+      <c r="A49" s="10"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="25"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>49</v>
+      <c r="A50" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F50" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G50" s="3"/>
       <c r="H50" t="s">
-        <v>328</v>
+        <v>27</v>
       </c>
       <c r="I50" t="s">
         <v>27</v>
@@ -4789,25 +4593,25 @@
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>49</v>
+      <c r="A51" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>210</v>
+        <v>23</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F51" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="G51" s="3"/>
       <c r="H51" t="s">
-        <v>329</v>
+        <v>27</v>
       </c>
       <c r="I51" t="s">
         <v>27</v>
@@ -4838,25 +4642,25 @@
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>49</v>
+      <c r="A52" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>171</v>
+        <v>15</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>211</v>
+        <v>41</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>201</v>
+        <v>42</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" t="s">
-        <v>330</v>
+        <v>27</v>
       </c>
       <c r="I52" t="s">
         <v>27</v>
@@ -4887,25 +4691,25 @@
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>49</v>
+      <c r="A53" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>212</v>
+        <v>44</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>202</v>
+        <v>43</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" t="s">
-        <v>331</v>
+        <v>27</v>
       </c>
       <c r="I53" t="s">
         <v>27</v>
@@ -4936,25 +4740,21 @@
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>49</v>
+      <c r="A54" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>213</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>203</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" t="s">
-        <v>332</v>
+        <v>27</v>
       </c>
       <c r="I54" t="s">
         <v>27</v>
@@ -4985,25 +4785,27 @@
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>49</v>
+      <c r="A55" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>214</v>
+        <v>65</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F55" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="G55" s="3"/>
       <c r="H55" t="s">
-        <v>333</v>
+        <v>27</v>
       </c>
       <c r="I55" t="s">
         <v>27</v>
@@ -5034,25 +4836,27 @@
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>49</v>
+      <c r="A56" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>215</v>
+        <v>66</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F56" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="G56" s="3"/>
       <c r="H56" t="s">
-        <v>334</v>
+        <v>27</v>
       </c>
       <c r="I56" t="s">
         <v>27</v>
@@ -5083,25 +4887,27 @@
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>49</v>
+      <c r="A57" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>216</v>
+        <v>67</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F57" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="G57" s="3"/>
       <c r="H57" t="s">
-        <v>335</v>
+        <v>27</v>
       </c>
       <c r="I57" t="s">
         <v>27</v>
@@ -5132,25 +4938,27 @@
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>49</v>
+      <c r="A58" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>217</v>
+        <v>68</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F58" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="G58" s="3"/>
       <c r="H58" t="s">
-        <v>336</v>
+        <v>27</v>
       </c>
       <c r="I58" t="s">
         <v>27</v>
@@ -5181,25 +4989,27 @@
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>49</v>
+      <c r="A59" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>218</v>
+        <v>69</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F59" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="G59" s="3"/>
       <c r="H59" t="s">
-        <v>337</v>
+        <v>27</v>
       </c>
       <c r="I59" t="s">
         <v>27</v>
@@ -5230,25 +5040,21 @@
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>49</v>
+      <c r="A60" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>219</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C60" s="3"/>
       <c r="D60" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>209</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" t="s">
-        <v>338</v>
+        <v>27</v>
       </c>
       <c r="I60" t="s">
         <v>27</v>
@@ -5279,25 +5085,25 @@
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>49</v>
+      <c r="A61" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>199</v>
+        <v>60</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" t="s">
-        <v>339</v>
+        <v>27</v>
       </c>
       <c r="I61" t="s">
         <v>27</v>
@@ -5328,25 +5134,21 @@
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>49</v>
+      <c r="A62" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>222</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C62" s="3"/>
       <c r="D62" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>221</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" t="s">
-        <v>339</v>
+        <v>27</v>
       </c>
       <c r="I62" t="s">
         <v>27</v>
@@ -5377,25 +5179,25 @@
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>49</v>
+      <c r="A63" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>224</v>
+        <v>62</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>228</v>
+        <v>90</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" t="s">
-        <v>340</v>
+        <v>27</v>
       </c>
       <c r="I63" t="s">
         <v>27</v>
@@ -5426,25 +5228,21 @@
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>49</v>
+      <c r="A64" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>229</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C64" s="3"/>
       <c r="D64" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>230</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" t="s">
-        <v>341</v>
+        <v>27</v>
       </c>
       <c r="I64" t="s">
         <v>27</v>
@@ -5474,26 +5272,26 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>49</v>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>226</v>
+        <v>64</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>231</v>
+        <v>90</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" t="s">
-        <v>342</v>
+        <v>27</v>
       </c>
       <c r="I65" t="s">
         <v>27</v>
@@ -5522,25 +5320,24 @@
       <c r="Q65" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>49</v>
+      <c r="R65"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C66" s="3"/>
       <c r="D66" s="3" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I66" t="s">
         <v>27</v>
@@ -5569,22 +5366,62 @@
       <c r="Q66" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="10"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="25"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R66"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" t="s">
+        <v>27</v>
+      </c>
+      <c r="I67" t="s">
+        <v>27</v>
+      </c>
+      <c r="J67" t="s">
+        <v>27</v>
+      </c>
+      <c r="K67" t="s">
+        <v>27</v>
+      </c>
+      <c r="L67" t="s">
+        <v>27</v>
+      </c>
+      <c r="M67" t="s">
+        <v>27</v>
+      </c>
+      <c r="N67" t="s">
+        <v>27</v>
+      </c>
+      <c r="O67" t="s">
+        <v>27</v>
+      </c>
+      <c r="P67" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>27</v>
+      </c>
+      <c r="R67"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>22</v>
@@ -5598,7 +5435,7 @@
       </c>
       <c r="G68" s="3"/>
       <c r="H68" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I68" t="s">
         <v>27</v>
@@ -5627,27 +5464,28 @@
       <c r="Q68" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R68"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I69" t="s">
         <v>27</v>
@@ -5676,27 +5514,30 @@
       <c r="Q69" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R69"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F70" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="G70" s="3"/>
       <c r="H70" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I70" t="s">
         <v>27</v>
@@ -5725,27 +5566,30 @@
       <c r="Q70" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R70"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F71" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="G71" s="3"/>
       <c r="H71" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I71" t="s">
         <v>27</v>
@@ -5774,23 +5618,30 @@
       <c r="Q71" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R71"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C72" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="D72" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>218</v>
+      </c>
       <c r="G72" s="3"/>
       <c r="H72" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I72" t="s">
         <v>27</v>
@@ -5819,29 +5670,30 @@
       <c r="Q72" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R72"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>88</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I73" t="s">
         <v>27</v>
@@ -5870,29 +5722,30 @@
       <c r="Q73" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R73"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>88</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I74" t="s">
         <v>27</v>
@@ -5921,29 +5774,24 @@
       <c r="Q74" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R74"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I75" t="s">
         <v>27</v>
@@ -5972,29 +5820,28 @@
       <c r="Q75" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R75"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I76" t="s">
         <v>27</v>
@@ -6023,29 +5870,24 @@
       <c r="Q76" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R76"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>69</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C77" s="3"/>
       <c r="D77" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I77" t="s">
         <v>27</v>
@@ -6074,23 +5916,28 @@
       <c r="Q77" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R77"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C78" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="D78" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E78" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I78" t="s">
         <v>27</v>
@@ -6120,26 +5967,22 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>72</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>237</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I79" t="s">
         <v>27</v>
@@ -6169,22 +6012,26 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C80" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="D80" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E80" s="3"/>
+        <v>221</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I80" t="s">
         <v>27</v>
@@ -6213,27 +6060,24 @@
       <c r="Q80" t="s">
         <v>27</v>
       </c>
+      <c r="R80"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>90</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>234</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I81" t="s">
         <v>27</v>
@@ -6262,23 +6106,26 @@
       <c r="Q81" t="s">
         <v>27</v>
       </c>
+      <c r="R81"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C82" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>237</v>
+      </c>
       <c r="D82" s="3" t="s">
-        <v>50</v>
+        <v>242</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I82" t="s">
         <v>27</v>
@@ -6307,27 +6154,26 @@
       <c r="Q82" t="s">
         <v>27</v>
       </c>
+      <c r="R82"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>90</v>
+        <v>238</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>234</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I83" t="s">
         <v>27</v>
@@ -6360,20 +6206,22 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C84" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>239</v>
+      </c>
       <c r="D84" s="3" t="s">
-        <v>50</v>
+        <v>244</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I84" t="s">
         <v>27</v>
@@ -6406,22 +6254,22 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>28</v>
+        <v>240</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>26</v>
+        <v>245</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I85" t="s">
         <v>27</v>
@@ -6454,24 +6302,22 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>22</v>
+        <v>241</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>7</v>
+        <v>246</v>
       </c>
       <c r="E86" s="3"/>
-      <c r="F86" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I86" t="s">
         <v>27</v>
@@ -6504,24 +6350,22 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E87" s="3"/>
-      <c r="F87" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I87" t="s">
         <v>27</v>
@@ -6553,929 +6397,49 @@
       <c r="R87"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G88" s="3"/>
-      <c r="H88" t="s">
-        <v>30</v>
-      </c>
-      <c r="I88" t="s">
-        <v>27</v>
-      </c>
-      <c r="J88" t="s">
-        <v>27</v>
-      </c>
-      <c r="K88" t="s">
-        <v>27</v>
-      </c>
-      <c r="L88" t="s">
-        <v>27</v>
-      </c>
-      <c r="M88" t="s">
-        <v>27</v>
-      </c>
-      <c r="N88" t="s">
-        <v>27</v>
-      </c>
-      <c r="O88" t="s">
-        <v>27</v>
-      </c>
-      <c r="P88" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>27</v>
-      </c>
-      <c r="R88"/>
+      <c r="A88" s="10"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="25"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+      <c r="O88"/>
+      <c r="P88"/>
+      <c r="Q88"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G89" s="3"/>
-      <c r="H89" t="s">
-        <v>30</v>
-      </c>
-      <c r="I89" t="s">
-        <v>27</v>
-      </c>
-      <c r="J89" t="s">
-        <v>27</v>
-      </c>
-      <c r="K89" t="s">
-        <v>27</v>
-      </c>
-      <c r="L89" t="s">
-        <v>27</v>
-      </c>
-      <c r="M89" t="s">
-        <v>27</v>
-      </c>
-      <c r="N89" t="s">
-        <v>27</v>
-      </c>
-      <c r="O89" t="s">
-        <v>27</v>
-      </c>
-      <c r="P89" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>27</v>
-      </c>
-      <c r="R89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="O89"/>
+      <c r="P89"/>
+      <c r="Q89"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="G90" s="3"/>
-      <c r="H90" t="s">
-        <v>30</v>
-      </c>
-      <c r="I90" t="s">
-        <v>27</v>
-      </c>
-      <c r="J90" t="s">
-        <v>27</v>
-      </c>
-      <c r="K90" t="s">
-        <v>27</v>
-      </c>
-      <c r="L90" t="s">
-        <v>27</v>
-      </c>
-      <c r="M90" t="s">
-        <v>27</v>
-      </c>
-      <c r="N90" t="s">
-        <v>27</v>
-      </c>
-      <c r="O90" t="s">
-        <v>27</v>
-      </c>
-      <c r="P90" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>27</v>
-      </c>
-      <c r="R90"/>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G91" s="3"/>
-      <c r="H91" t="s">
-        <v>30</v>
-      </c>
-      <c r="I91" t="s">
-        <v>27</v>
-      </c>
-      <c r="J91" t="s">
-        <v>27</v>
-      </c>
-      <c r="K91" t="s">
-        <v>27</v>
-      </c>
-      <c r="L91" t="s">
-        <v>27</v>
-      </c>
-      <c r="M91" t="s">
-        <v>27</v>
-      </c>
-      <c r="N91" t="s">
-        <v>27</v>
-      </c>
-      <c r="O91" t="s">
-        <v>27</v>
-      </c>
-      <c r="P91" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>27</v>
-      </c>
-      <c r="R91"/>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G92" s="3"/>
-      <c r="H92" t="s">
-        <v>30</v>
-      </c>
-      <c r="I92" t="s">
-        <v>27</v>
-      </c>
-      <c r="J92" t="s">
-        <v>27</v>
-      </c>
-      <c r="K92" t="s">
-        <v>27</v>
-      </c>
-      <c r="L92" t="s">
-        <v>27</v>
-      </c>
-      <c r="M92" t="s">
-        <v>27</v>
-      </c>
-      <c r="N92" t="s">
-        <v>27</v>
-      </c>
-      <c r="O92" t="s">
-        <v>27</v>
-      </c>
-      <c r="P92" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>27</v>
-      </c>
-      <c r="R92"/>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" t="s">
-        <v>30</v>
-      </c>
-      <c r="I93" t="s">
-        <v>27</v>
-      </c>
-      <c r="J93" t="s">
-        <v>27</v>
-      </c>
-      <c r="K93" t="s">
-        <v>27</v>
-      </c>
-      <c r="L93" t="s">
-        <v>27</v>
-      </c>
-      <c r="M93" t="s">
-        <v>27</v>
-      </c>
-      <c r="N93" t="s">
-        <v>27</v>
-      </c>
-      <c r="O93" t="s">
-        <v>27</v>
-      </c>
-      <c r="P93" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>27</v>
-      </c>
-      <c r="R93"/>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" t="s">
-        <v>30</v>
-      </c>
-      <c r="I94" t="s">
-        <v>27</v>
-      </c>
-      <c r="J94" t="s">
-        <v>27</v>
-      </c>
-      <c r="K94" t="s">
-        <v>27</v>
-      </c>
-      <c r="L94" t="s">
-        <v>27</v>
-      </c>
-      <c r="M94" t="s">
-        <v>27</v>
-      </c>
-      <c r="N94" t="s">
-        <v>27</v>
-      </c>
-      <c r="O94" t="s">
-        <v>27</v>
-      </c>
-      <c r="P94" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>27</v>
-      </c>
-      <c r="R94"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" t="s">
-        <v>30</v>
-      </c>
-      <c r="I95" t="s">
-        <v>27</v>
-      </c>
-      <c r="J95" t="s">
-        <v>27</v>
-      </c>
-      <c r="K95" t="s">
-        <v>27</v>
-      </c>
-      <c r="L95" t="s">
-        <v>27</v>
-      </c>
-      <c r="M95" t="s">
-        <v>27</v>
-      </c>
-      <c r="N95" t="s">
-        <v>27</v>
-      </c>
-      <c r="O95" t="s">
-        <v>27</v>
-      </c>
-      <c r="P95" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>27</v>
-      </c>
-      <c r="R95"/>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" t="s">
-        <v>30</v>
-      </c>
-      <c r="I96" t="s">
-        <v>27</v>
-      </c>
-      <c r="J96" t="s">
-        <v>27</v>
-      </c>
-      <c r="K96" t="s">
-        <v>27</v>
-      </c>
-      <c r="L96" t="s">
-        <v>27</v>
-      </c>
-      <c r="M96" t="s">
-        <v>27</v>
-      </c>
-      <c r="N96" t="s">
-        <v>27</v>
-      </c>
-      <c r="O96" t="s">
-        <v>27</v>
-      </c>
-      <c r="P96" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" t="s">
-        <v>30</v>
-      </c>
-      <c r="I97" t="s">
-        <v>27</v>
-      </c>
-      <c r="J97" t="s">
-        <v>27</v>
-      </c>
-      <c r="K97" t="s">
-        <v>27</v>
-      </c>
-      <c r="L97" t="s">
-        <v>27</v>
-      </c>
-      <c r="M97" t="s">
-        <v>27</v>
-      </c>
-      <c r="N97" t="s">
-        <v>27</v>
-      </c>
-      <c r="O97" t="s">
-        <v>27</v>
-      </c>
-      <c r="P97" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" t="s">
-        <v>30</v>
-      </c>
-      <c r="I98" t="s">
-        <v>27</v>
-      </c>
-      <c r="J98" t="s">
-        <v>27</v>
-      </c>
-      <c r="K98" t="s">
-        <v>27</v>
-      </c>
-      <c r="L98" t="s">
-        <v>27</v>
-      </c>
-      <c r="M98" t="s">
-        <v>27</v>
-      </c>
-      <c r="N98" t="s">
-        <v>27</v>
-      </c>
-      <c r="O98" t="s">
-        <v>27</v>
-      </c>
-      <c r="P98" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>27</v>
-      </c>
-      <c r="R98"/>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" t="s">
-        <v>30</v>
-      </c>
-      <c r="I99" t="s">
-        <v>27</v>
-      </c>
-      <c r="J99" t="s">
-        <v>27</v>
-      </c>
-      <c r="K99" t="s">
-        <v>27</v>
-      </c>
-      <c r="L99" t="s">
-        <v>27</v>
-      </c>
-      <c r="M99" t="s">
-        <v>27</v>
-      </c>
-      <c r="N99" t="s">
-        <v>27</v>
-      </c>
-      <c r="O99" t="s">
-        <v>27</v>
-      </c>
-      <c r="P99" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>27</v>
-      </c>
-      <c r="R99"/>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" t="s">
-        <v>30</v>
-      </c>
-      <c r="I100" t="s">
-        <v>27</v>
-      </c>
-      <c r="J100" t="s">
-        <v>27</v>
-      </c>
-      <c r="K100" t="s">
-        <v>27</v>
-      </c>
-      <c r="L100" t="s">
-        <v>27</v>
-      </c>
-      <c r="M100" t="s">
-        <v>27</v>
-      </c>
-      <c r="N100" t="s">
-        <v>27</v>
-      </c>
-      <c r="O100" t="s">
-        <v>27</v>
-      </c>
-      <c r="P100" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>27</v>
-      </c>
-      <c r="R100"/>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" t="s">
-        <v>30</v>
-      </c>
-      <c r="I101" t="s">
-        <v>27</v>
-      </c>
-      <c r="J101" t="s">
-        <v>27</v>
-      </c>
-      <c r="K101" t="s">
-        <v>27</v>
-      </c>
-      <c r="L101" t="s">
-        <v>27</v>
-      </c>
-      <c r="M101" t="s">
-        <v>27</v>
-      </c>
-      <c r="N101" t="s">
-        <v>27</v>
-      </c>
-      <c r="O101" t="s">
-        <v>27</v>
-      </c>
-      <c r="P101" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>27</v>
-      </c>
-      <c r="R101"/>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I102" t="s">
-        <v>27</v>
-      </c>
-      <c r="J102" t="s">
-        <v>27</v>
-      </c>
-      <c r="K102" t="s">
-        <v>27</v>
-      </c>
-      <c r="L102" t="s">
-        <v>27</v>
-      </c>
-      <c r="M102" t="s">
-        <v>27</v>
-      </c>
-      <c r="N102" t="s">
-        <v>27</v>
-      </c>
-      <c r="O102" t="s">
-        <v>27</v>
-      </c>
-      <c r="P102" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>27</v>
-      </c>
-      <c r="R102"/>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" t="s">
-        <v>30</v>
-      </c>
-      <c r="I103" t="s">
-        <v>27</v>
-      </c>
-      <c r="J103" t="s">
-        <v>27</v>
-      </c>
-      <c r="K103" t="s">
-        <v>27</v>
-      </c>
-      <c r="L103" t="s">
-        <v>27</v>
-      </c>
-      <c r="M103" t="s">
-        <v>27</v>
-      </c>
-      <c r="N103" t="s">
-        <v>27</v>
-      </c>
-      <c r="O103" t="s">
-        <v>27</v>
-      </c>
-      <c r="P103" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>27</v>
-      </c>
-      <c r="R103"/>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" t="s">
-        <v>30</v>
-      </c>
-      <c r="I104" t="s">
-        <v>27</v>
-      </c>
-      <c r="J104" t="s">
-        <v>27</v>
-      </c>
-      <c r="K104" t="s">
-        <v>27</v>
-      </c>
-      <c r="L104" t="s">
-        <v>27</v>
-      </c>
-      <c r="M104" t="s">
-        <v>27</v>
-      </c>
-      <c r="N104" t="s">
-        <v>27</v>
-      </c>
-      <c r="O104" t="s">
-        <v>27</v>
-      </c>
-      <c r="P104" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>27</v>
-      </c>
-      <c r="R104"/>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" t="s">
-        <v>30</v>
-      </c>
-      <c r="I105" t="s">
-        <v>27</v>
-      </c>
-      <c r="J105" t="s">
-        <v>27</v>
-      </c>
-      <c r="K105" t="s">
-        <v>27</v>
-      </c>
-      <c r="L105" t="s">
-        <v>27</v>
-      </c>
-      <c r="M105" t="s">
-        <v>27</v>
-      </c>
-      <c r="N105" t="s">
-        <v>27</v>
-      </c>
-      <c r="O105" t="s">
-        <v>27</v>
-      </c>
-      <c r="P105" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>27</v>
-      </c>
-      <c r="R105"/>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A106" s="10"/>
-      <c r="B106" s="24"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="24"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="25"/>
-      <c r="I106"/>
-      <c r="J106"/>
-      <c r="K106"/>
-      <c r="L106"/>
-      <c r="M106"/>
-      <c r="N106"/>
-      <c r="O106"/>
-      <c r="P106"/>
-      <c r="Q106"/>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I107"/>
-      <c r="J107"/>
-      <c r="K107"/>
-      <c r="L107"/>
-      <c r="M107"/>
-      <c r="N107"/>
-      <c r="O107"/>
-      <c r="P107"/>
-      <c r="Q107"/>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I108"/>
-      <c r="J108"/>
-      <c r="K108"/>
-      <c r="L108"/>
-      <c r="M108"/>
-      <c r="N108"/>
-      <c r="O108"/>
-      <c r="P108"/>
-      <c r="Q108"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90"/>
+      <c r="P90"/>
+      <c r="Q90"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B106:G106"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B88:G88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -7516,10 +6480,10 @@
         <v>48</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>80</v>
@@ -7543,19 +6507,19 @@
         <v>160</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>2</v>
@@ -7566,13 +6530,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>58</v>
@@ -7599,13 +6563,13 @@
         <v>162</v>
       </c>
       <c r="L2" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="O2" s="22"/>
       <c r="P2" s="22"/>
@@ -7613,7 +6577,7 @@
         <v>12</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -7624,7 +6588,7 @@
         <v>54</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>58</v>
@@ -7651,13 +6615,13 @@
         <v>163</v>
       </c>
       <c r="L3" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="N3" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
@@ -7676,7 +6640,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>58</v>
@@ -7703,13 +6667,13 @@
         <v>164</v>
       </c>
       <c r="L4" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="N4" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
@@ -7728,7 +6692,7 @@
         <v>54</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>58</v>
@@ -7755,13 +6719,13 @@
         <v>165</v>
       </c>
       <c r="L5" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="N5" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
@@ -7780,7 +6744,7 @@
         <v>54</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>58</v>
@@ -7807,13 +6771,13 @@
         <v>167</v>
       </c>
       <c r="L6" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="N6" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
@@ -7832,7 +6796,7 @@
         <v>54</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>58</v>
@@ -7844,13 +6808,13 @@
         <v>166</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>143</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>144</v>
@@ -7859,13 +6823,13 @@
         <v>167</v>
       </c>
       <c r="L7" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="N7" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
@@ -7884,7 +6848,7 @@
         <v>54</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>58</v>
@@ -7893,16 +6857,16 @@
         <v>82</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>143</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>144</v>
@@ -7911,13 +6875,13 @@
         <v>167</v>
       </c>
       <c r="L8" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="N8" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
@@ -7936,7 +6900,7 @@
         <v>54</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>58</v>
@@ -7945,16 +6909,16 @@
         <v>82</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>143</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>144</v>
@@ -7963,13 +6927,13 @@
         <v>167</v>
       </c>
       <c r="L9" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="N9" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
@@ -7988,7 +6952,7 @@
         <v>54</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>58</v>
@@ -7997,16 +6961,16 @@
         <v>82</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>143</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>144</v>
@@ -8015,13 +6979,13 @@
         <v>167</v>
       </c>
       <c r="L10" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="N10" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
@@ -8040,7 +7004,7 @@
         <v>54</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>58</v>
@@ -8049,16 +7013,16 @@
         <v>82</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>143</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>144</v>
@@ -8067,13 +7031,13 @@
         <v>167</v>
       </c>
       <c r="L11" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="N11" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
@@ -8118,10 +7082,10 @@
         <v>48</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>80</v>
@@ -8145,19 +7109,19 @@
         <v>160</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>2</v>
@@ -8168,13 +7132,13 @@
     </row>
     <row r="2" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>58</v>
@@ -8201,13 +7165,13 @@
         <v>162</v>
       </c>
       <c r="L2" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="O2" s="22"/>
       <c r="P2" s="22"/>
@@ -8226,7 +7190,7 @@
         <v>54</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>58</v>
@@ -8253,13 +7217,13 @@
         <v>163</v>
       </c>
       <c r="L3" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="N3" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
@@ -8278,7 +7242,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>58</v>
@@ -8305,13 +7269,13 @@
         <v>164</v>
       </c>
       <c r="L4" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="N4" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
@@ -8330,7 +7294,7 @@
         <v>54</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>58</v>
@@ -8357,13 +7321,13 @@
         <v>165</v>
       </c>
       <c r="L5" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="N5" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
@@ -8382,7 +7346,7 @@
         <v>54</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>58</v>
@@ -8409,13 +7373,13 @@
         <v>167</v>
       </c>
       <c r="L6" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="N6" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
@@ -8434,7 +7398,7 @@
         <v>54</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>58</v>
@@ -8446,13 +7410,13 @@
         <v>166</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>143</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>144</v>
@@ -8461,13 +7425,13 @@
         <v>167</v>
       </c>
       <c r="L7" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="N7" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
@@ -8486,7 +7450,7 @@
         <v>54</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>58</v>
@@ -8495,16 +7459,16 @@
         <v>82</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>143</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>144</v>
@@ -8513,13 +7477,13 @@
         <v>167</v>
       </c>
       <c r="L8" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="N8" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
@@ -8538,7 +7502,7 @@
         <v>54</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>58</v>
@@ -8547,16 +7511,16 @@
         <v>82</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>143</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>144</v>
@@ -8565,13 +7529,13 @@
         <v>167</v>
       </c>
       <c r="L9" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="N9" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
@@ -8590,7 +7554,7 @@
         <v>54</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>58</v>
@@ -8599,16 +7563,16 @@
         <v>82</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>143</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>144</v>
@@ -8617,13 +7581,13 @@
         <v>167</v>
       </c>
       <c r="L10" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="N10" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
@@ -8642,7 +7606,7 @@
         <v>54</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>58</v>
@@ -8651,16 +7615,16 @@
         <v>82</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>143</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>144</v>
@@ -8669,13 +7633,13 @@
         <v>167</v>
       </c>
       <c r="L11" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="N11" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>

--- a/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
+++ b/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="316">
   <si>
     <t>TCID</t>
   </si>
@@ -769,364 +769,6 @@
   </si>
   <si>
     <t>genvideotest1078@gmail.com</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":".btn.btn-default.field-25.female"}
-Command duration or timeout: 20.05 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
-*** Element info: {Using=css selector, value=.btn.btn-default.field-25.female}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#exampleInput"}
-Command duration or timeout: 20.04 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
-*** Element info: {Using=css selector, value=#exampleInput}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button"}
-Command duration or timeout: 20.05 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button"}
-Command duration or timeout: 20.03 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
-*** Element info: {Using=css selector, value=#address}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address2"}
-Command duration or timeout: 20.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
-*** Element info: {Using=css selector, value=#address2}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#city"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
-*** Element info: {Using=css selector, value=#city}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"US\"]"}
-Command duration or timeout: 20.14 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
-*** Element info: {Using=css selector, value=option[value="US"]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"NY\"]"}
-Command duration or timeout: 20.03 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
-*** Element info: {Using=css selector, value=option[value="NY"]}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#zip"}
-Command duration or timeout: 20.08 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
-*** Element info: {Using=css selector, value=#zip}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
-*** Element info: {Using=xpath, value=.//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#youtube_rate"}
-Command duration or timeout: 20.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
-*** Element info: {Using=css selector, value=#youtube_rate}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#video_only_rate"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
-*** Element info: {Using=css selector, value=#video_only_rate}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]"}
-Command duration or timeout: 20.02 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]"}
-Command duration or timeout: 20.05 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]"}
-Command duration or timeout: 20.14 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]"}
-Command duration or timeout: 20.08 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
-*** Element info: {Using=xpath, value=.//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Visit Offers')]"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
-*** Element info: {Using=xpath, value=//a[contains(text(),'Visit Offers')]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/header/nav/div[2]/ul[1]/li[3]/a"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 6122c89c-1036-45a3-9c65-f73e3d095784
-*** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
-  </si>
-  <si>
-    <t>genvideotest1346@gmail.com</t>
-  </si>
-  <si>
-    <t>genvideotest1347@gmail.com</t>
   </si>
   <si>
     <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"(//button[@class='btn btn-lg btn-warning2'])[2]"}
@@ -1480,13 +1122,382 @@
 Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
 *** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
   </si>
+  <si>
+    <t>genvideotest1348@gmail.com</t>
+  </si>
+  <si>
+    <t>genvideotest1349@gmail.com</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"(//button[@class='btn btn-lg btn-warning2'])[2]"}
+Command duration or timeout: 21.70 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+*** Element info: {Using=xpath, value=(//button[@class='btn btn-lg btn-warning2'])[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":".btn.btn-default.field-25.female"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+*** Element info: {Using=css selector, value=.btn.btn-default.field-25.female}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#exampleInput"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+*** Element info: {Using=css selector, value=#exampleInput}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button"}
+Command duration or timeout: 20.05 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a"}
+Command duration or timeout: 20.05 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+*** Element info: {Using=css selector, value=#address}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address2"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+*** Element info: {Using=css selector, value=#address2}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#city"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+*** Element info: {Using=css selector, value=#city}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"US\"]"}
+Command duration or timeout: 20.06 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+*** Element info: {Using=css selector, value=option[value="US"]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"NY\"]"}
+Command duration or timeout: 20.06 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+*** Element info: {Using=css selector, value=option[value="NY"]}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#zip"}
+Command duration or timeout: 20.03 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+*** Element info: {Using=css selector, value=#zip}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+*** Element info: {Using=xpath, value=.//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#youtube_rate"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+*** Element info: {Using=css selector, value=#youtube_rate}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#video_only_rate"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+*** Element info: {Using=css selector, value=#video_only_rate}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]"}
+Command duration or timeout: 20.06 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
+Command duration or timeout: 20.14 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+*** Element info: {Using=xpath, value=.//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Visit Offers')]"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+*** Element info: {Using=xpath, value=//a[contains(text(),'Visit Offers')]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/header/nav/div[2]/ul[1]/li[3]/a"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+*** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4310,7 +4321,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I44" t="s">
         <v>27</v>
@@ -4359,7 +4370,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I45" t="s">
         <v>27</v>
@@ -4408,7 +4419,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I46" t="s">
         <v>27</v>
@@ -4457,7 +4468,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I47" t="s">
         <v>27</v>

--- a/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
+++ b/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700" tabRatio="826" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700" tabRatio="826" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Test Steps" sheetId="2" r:id="rId2"/>
     <sheet name="Creator_platform" sheetId="4" r:id="rId3"/>
     <sheet name="Account_setting" sheetId="5" r:id="rId4"/>
+    <sheet name="Video" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="378">
   <si>
     <t>TCID</t>
   </si>
@@ -771,372 +772,20 @@
     <t>genvideotest1078@gmail.com</t>
   </si>
   <si>
+    <t>genvideotest1356@gmail.com</t>
+  </si>
+  <si>
+    <t>genvideotest1357@gmail.com</t>
+  </si>
+  <si>
     <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"(//button[@class='btn btn-lg btn-warning2'])[2]"}
-Command duration or timeout: 20.09 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
-*** Element info: {Using=xpath, value=(//button[@class='btn btn-lg btn-warning2'])[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":".btn.btn-default.field-25.female"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
-*** Element info: {Using=css selector, value=.btn.btn-default.field-25.female}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#exampleInput"}
-Command duration or timeout: 20.09 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
-*** Element info: {Using=css selector, value=#exampleInput}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button"}
-Command duration or timeout: 20.01 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
-*** Element info: {Using=css selector, value=#address}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address2"}
-Command duration or timeout: 20.03 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
-*** Element info: {Using=css selector, value=#address2}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#city"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
-*** Element info: {Using=css selector, value=#city}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"US\"]"}
-Command duration or timeout: 20.09 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
-*** Element info: {Using=css selector, value=option[value="US"]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"NY\"]"}
-Command duration or timeout: 20.06 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
-*** Element info: {Using=css selector, value=option[value="NY"]}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#zip"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
-*** Element info: {Using=css selector, value=#zip}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]"}
-Command duration or timeout: 20.06 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
-*** Element info: {Using=xpath, value=.//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#youtube_rate"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
-*** Element info: {Using=css selector, value=#youtube_rate}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#video_only_rate"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
-*** Element info: {Using=css selector, value=#video_only_rate}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]"}
-Command duration or timeout: 20.08 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]"}
-Command duration or timeout: 20.05 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]"}
-Command duration or timeout: 20.14 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
-*** Element info: {Using=xpath, value=.//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Visit Offers')]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
-*** Element info: {Using=xpath, value=//a[contains(text(),'Visit Offers')]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/header/nav/div[2]/ul[1]/li[3]/a"}
-Command duration or timeout: 20.03 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 06dfb93f-9b22-42a7-bf8e-8be346aaa61a
-*** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
-  </si>
-  <si>
-    <t>genvideotest1348@gmail.com</t>
-  </si>
-  <si>
-    <t>genvideotest1349@gmail.com</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"(//button[@class='btn btn-lg btn-warning2'])[2]"}
-Command duration or timeout: 21.70 seconds
+Command duration or timeout: 24.78 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
 *** Element info: {Using=xpath, value=(//button[@class='btn btn-lg btn-warning2'])[2]}</t>
   </si>
   <si>
@@ -1144,10 +793,10 @@
 Command duration or timeout: 20.12 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
 *** Element info: {Using=css selector, value=.btn.btn-default.field-25.female}</t>
   </si>
   <si>
@@ -1155,120 +804,120 @@
 Command duration or timeout: 20.12 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
 *** Element info: {Using=css selector, value=#exampleInput}</t>
   </si>
   <si>
     <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button"}
-Command duration or timeout: 20.05 seconds
+Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button}</t>
   </si>
   <si>
     <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a"}
+Command duration or timeout: 20.02 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button"}
 Command duration or timeout: 20.12 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button"}
+Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a"}
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a"}
-Command duration or timeout: 20.05 seconds
+Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address"}
+Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address"}
+Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
+*** Element info: {Using=css selector, value=#address}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address2"}
+Command duration or timeout: 20.14 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
+*** Element info: {Using=css selector, value=#address2}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#city"}
 Command duration or timeout: 20.12 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
-*** Element info: {Using=css selector, value=#address}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address2"}
+Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
+*** Element info: {Using=css selector, value=#city}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"US\"]"}
+Command duration or timeout: 20.03 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
+*** Element info: {Using=css selector, value=option[value="US"]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"NY\"]"}
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
-*** Element info: {Using=css selector, value=#address2}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#city"}
+Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
+*** Element info: {Using=css selector, value=option[value="NY"]}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#zip"}
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
-*** Element info: {Using=css selector, value=#city}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"US\"]"}
-Command duration or timeout: 20.06 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
-*** Element info: {Using=css selector, value=option[value="US"]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"NY\"]"}
-Command duration or timeout: 20.06 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
-*** Element info: {Using=css selector, value=option[value="NY"]}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#zip"}
-Command duration or timeout: 20.03 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
 *** Element info: {Using=css selector, value=#zip}</t>
   </si>
   <si>
@@ -1276,21 +925,21 @@
 Command duration or timeout: 20.13 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
 *** Element info: {Using=xpath, value=.//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]}</t>
   </si>
   <si>
     <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#youtube_rate"}
-Command duration or timeout: 20.11 seconds
+Command duration or timeout: 20.03 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
 *** Element info: {Using=css selector, value=#youtube_rate}</t>
   </si>
   <si>
@@ -1298,21 +947,21 @@
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
 *** Element info: {Using=css selector, value=#video_only_rate}</t>
   </si>
   <si>
     <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input"}
-Command duration or timeout: 20.13 seconds
+Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input}</t>
   </si>
   <si>
@@ -1320,21 +969,21 @@
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]}</t>
   </si>
   <si>
     <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]"}
-Command duration or timeout: 20.11 seconds
+Command duration or timeout: 20.12 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]}</t>
   </si>
   <si>
@@ -1342,10 +991,10 @@
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]}</t>
   </si>
   <si>
@@ -1353,10 +1002,10 @@
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]}</t>
   </si>
   <si>
@@ -1364,10 +1013,10 @@
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]}</t>
   </si>
   <si>
@@ -1375,87 +1024,76 @@
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]}</t>
   </si>
   <si>
     <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]"}
-Command duration or timeout: 20.06 seconds
+Command duration or timeout: 20.08 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]}</t>
   </si>
   <si>
     <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]"}
+Command duration or timeout: 20.03 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]"}
 Command duration or timeout: 20.12 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]"}
-Command duration or timeout: 20.11 seconds
+Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]"}
+Command duration or timeout: 20.02 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
-Command duration or timeout: 20.14 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
   </si>
   <si>
     <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label"}
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
   </si>
   <si>
@@ -1463,33 +1101,318 @@
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
 *** Element info: {Using=xpath, value=.//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]}</t>
   </si>
   <si>
     <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Visit Offers')]"}
-Command duration or timeout: 20.08 seconds
+Command duration or timeout: 20.12 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
 *** Element info: {Using=xpath, value=//a[contains(text(),'Visit Offers')]}</t>
   </si>
   <si>
     <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/header/nav/div[2]/ul[1]/li[3]/a"}
-Command duration or timeout: 20.11 seconds
+Command duration or timeout: 20.14 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 078f7520-242a-4cfd-ba05-da769d66f44d
+Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
 *** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>video1</t>
+  </si>
+  <si>
+    <t>video2</t>
+  </si>
+  <si>
+    <t>image1</t>
+  </si>
+  <si>
+    <t>image2</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>title1</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>description1</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>addTags</t>
+  </si>
+  <si>
+    <t>addTags1</t>
+  </si>
+  <si>
+    <t>genvideotest1327@gmail.com</t>
+  </si>
+  <si>
+    <t>Videonew</t>
+  </si>
+  <si>
+    <t>description for the video</t>
+  </si>
+  <si>
+    <t>new description for the video</t>
+  </si>
+  <si>
+    <t>moshi</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>testing1</t>
+  </si>
+  <si>
+    <t>video_password</t>
+  </si>
+  <si>
+    <t>Click on Login</t>
+  </si>
+  <si>
+    <t>video_login</t>
+  </si>
+  <si>
+    <t>Click on the upload button</t>
+  </si>
+  <si>
+    <t>video_uploadClick</t>
+  </si>
+  <si>
+    <t>Click on “I am not uploading for a campaign”</t>
+  </si>
+  <si>
+    <t>video_chooseACampaign</t>
+  </si>
+  <si>
+    <t>Click on “Select File” in the video upload section and upload a video</t>
+  </si>
+  <si>
+    <t>video_uploadNewVideo</t>
+  </si>
+  <si>
+    <t>col|video1</t>
+  </si>
+  <si>
+    <t>Click on “Select File” in the image upload section and upload an image</t>
+  </si>
+  <si>
+    <t>video_uploadnewImage</t>
+  </si>
+  <si>
+    <t>col|image1</t>
+  </si>
+  <si>
+    <t>Make the title field blank</t>
+  </si>
+  <si>
+    <t>clearInputText</t>
+  </si>
+  <si>
+    <t>video_title</t>
+  </si>
+  <si>
+    <t>Enter title</t>
+  </si>
+  <si>
+    <t>col|title</t>
+  </si>
+  <si>
+    <t>Enter Description</t>
+  </si>
+  <si>
+    <t>video_description</t>
+  </si>
+  <si>
+    <t>col|description</t>
+  </si>
+  <si>
+    <t>Enter product name or SKU to filter</t>
+  </si>
+  <si>
+    <t>video_productListingOption</t>
+  </si>
+  <si>
+    <t>col|productName</t>
+  </si>
+  <si>
+    <t>Select an item from the list</t>
+  </si>
+  <si>
+    <t>video_selectMoshiOption</t>
+  </si>
+  <si>
+    <t>Click on a star</t>
+  </si>
+  <si>
+    <t>video_clickStar</t>
+  </si>
+  <si>
+    <t>Click on “Add tags” edit box and enter some data</t>
+  </si>
+  <si>
+    <t>video_addTagsEdit</t>
+  </si>
+  <si>
+    <t>col|addTags</t>
+  </si>
+  <si>
+    <t>click Enter</t>
+  </si>
+  <si>
+    <t>enter</t>
+  </si>
+  <si>
+    <t>Click on finish button</t>
+  </si>
+  <si>
+    <t>video_finish</t>
+  </si>
+  <si>
+    <t>Wait for spinner to hide</t>
+  </si>
+  <si>
+    <t>pause</t>
+  </si>
+  <si>
+    <t>Click on back to videos</t>
+  </si>
+  <si>
+    <t>video_backToVideos</t>
+  </si>
+  <si>
+    <t>Open up the Embed Code button</t>
+  </si>
+  <si>
+    <t>video_embedCodeOpen</t>
+  </si>
+  <si>
+    <t>Close the Embed Code button</t>
+  </si>
+  <si>
+    <t>video_embedCodeClose</t>
+  </si>
+  <si>
+    <t>Open up the Affiliate Link button</t>
+  </si>
+  <si>
+    <t>video_affiliateLinkButton</t>
+  </si>
+  <si>
+    <t>Close the Affiliate Link button</t>
+  </si>
+  <si>
+    <t>video_affiliateLinkButtonClose</t>
+  </si>
+  <si>
+    <t>col|video2</t>
+  </si>
+  <si>
+    <t>col|image2</t>
+  </si>
+  <si>
+    <t>col|title1</t>
+  </si>
+  <si>
+    <t>Make the description field blank</t>
+  </si>
+  <si>
+    <t>col|description1</t>
+  </si>
+  <si>
+    <t>Clear the Enter product name or SKU to filter</t>
+  </si>
+  <si>
+    <t>col|addTags1</t>
+  </si>
+  <si>
+    <t>Uncheck the "publish to youtube" button</t>
+  </si>
+  <si>
+    <t>video_uncheckPublishToYoutube</t>
+  </si>
+  <si>
+    <t>TS048</t>
+  </si>
+  <si>
+    <t>TS049</t>
+  </si>
+  <si>
+    <t>Click on the Videos button</t>
+  </si>
+  <si>
+    <t>video_VIDEOSClick</t>
+  </si>
+  <si>
+    <t>TS050</t>
+  </si>
+  <si>
+    <t>Click on the "Publish to Youtube" button for the first video</t>
+  </si>
+  <si>
+    <t>video_publishToYoutube</t>
+  </si>
+  <si>
+    <t>Verify the url</t>
+  </si>
+  <si>
+    <t>verifyURL</t>
+  </si>
+  <si>
+    <t>video_publishDesc</t>
+  </si>
+  <si>
+    <t>video_email</t>
+  </si>
+  <si>
+    <t>TS051</t>
+  </si>
+  <si>
+    <t>TS052</t>
+  </si>
+  <si>
+    <t>TS053</t>
+  </si>
+  <si>
+    <t>TS054</t>
+  </si>
+  <si>
+    <t>test.mp4</t>
+  </si>
+  <si>
+    <t>Test2.mp4</t>
+  </si>
+  <si>
+    <t>male_user_icon.png</t>
+  </si>
+  <si>
+    <t>image2.png</t>
+  </si>
+  <si>
+    <t>FAILException occured while verifying urlString index out of range: -1</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1420,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1554,8 +1477,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1673,8 +1619,44 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDD9C3"/>
+        <bgColor rgb="FFDDD9C3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8064A2"/>
+        <bgColor rgb="FF8064A2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6D9F1"/>
+        <bgColor rgb="FFC6D9F1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEECE1"/>
+        <bgColor rgb="FFEEECE1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1734,6 +1716,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1750,7 +1747,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1785,6 +1782,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2104,13 +2120,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" customWidth="true" style="2" width="23.85546875" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="2" width="37.42578125" collapsed="true"/>
@@ -2118,7 +2134,7 @@
     <col min="4" max="16384" style="2" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2129,16 +2145,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="15.75">
       <c r="A2" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15.75">
       <c r="A3" s="4" t="s">
         <v>236</v>
       </c>
@@ -2146,6 +2162,38 @@
       <c r="C3" s="4" t="s">
         <v>52</v>
       </c>
+    </row>
+    <row r="4" spans="1:26" s="27" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A4" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2159,33 +2207,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R90"/>
+  <dimension ref="A1:Z142"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
-    <col min="2" max="2" style="2" width="8.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="47.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="20.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="36.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="24.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="16.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="6.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="64.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="23.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="37.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="23.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="15.85546875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="255.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="8.62890625" collapsed="true"/>
+    <col min="9" max="16" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="8.5703125" collapsed="true"/>
     <col min="18" max="16384" style="2" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2238,7 +2281,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="3" t="s">
         <v>49</v>
       </c>
@@ -2287,7 +2330,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="3" t="s">
         <v>49</v>
       </c>
@@ -2336,7 +2379,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
@@ -2387,7 +2430,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="3" t="s">
         <v>49</v>
       </c>
@@ -2438,7 +2481,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="3" t="s">
         <v>49</v>
       </c>
@@ -2489,7 +2532,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="3" t="s">
         <v>49</v>
       </c>
@@ -2540,7 +2583,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="3" t="s">
         <v>49</v>
       </c>
@@ -2591,7 +2634,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
@@ -2636,7 +2679,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="3" t="s">
         <v>49</v>
       </c>
@@ -2685,7 +2728,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
@@ -2730,7 +2773,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="3" t="s">
         <v>49</v>
       </c>
@@ -2749,7 +2792,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="I12" t="s">
         <v>27</v>
@@ -2779,7 +2822,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="3" t="s">
         <v>49</v>
       </c>
@@ -2824,7 +2867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="3" t="s">
         <v>49</v>
       </c>
@@ -2843,7 +2886,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="I14" t="s">
         <v>27</v>
@@ -2873,7 +2916,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
@@ -2894,7 +2937,7 @@
       </c>
       <c r="G15" s="3"/>
       <c r="H15" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="I15" t="s">
         <v>27</v>
@@ -2924,7 +2967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2943,7 +2986,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="I16" t="s">
         <v>27</v>
@@ -2973,7 +3016,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
@@ -2992,7 +3035,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="I17" t="s">
         <v>27</v>
@@ -3022,7 +3065,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="3" t="s">
         <v>49</v>
       </c>
@@ -3041,7 +3084,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="I18" t="s">
         <v>27</v>
@@ -3071,7 +3114,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="3" t="s">
         <v>49</v>
       </c>
@@ -3090,7 +3133,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="I19" t="s">
         <v>27</v>
@@ -3120,7 +3163,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" s="3" t="s">
         <v>49</v>
       </c>
@@ -3141,7 +3184,7 @@
       </c>
       <c r="G20" s="3"/>
       <c r="H20" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="I20" t="s">
         <v>27</v>
@@ -3171,7 +3214,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" s="3" t="s">
         <v>49</v>
       </c>
@@ -3192,7 +3235,7 @@
       </c>
       <c r="G21" s="3"/>
       <c r="H21" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="I21" t="s">
         <v>27</v>
@@ -3222,7 +3265,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
@@ -3243,7 +3286,7 @@
       </c>
       <c r="G22" s="3"/>
       <c r="H22" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="I22" t="s">
         <v>27</v>
@@ -3273,7 +3316,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
@@ -3292,7 +3335,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="I23" t="s">
         <v>27</v>
@@ -3322,7 +3365,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="3" t="s">
         <v>49</v>
       </c>
@@ -3341,7 +3384,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="I24" t="s">
         <v>27</v>
@@ -3371,7 +3414,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
@@ -3392,7 +3435,7 @@
       </c>
       <c r="G25" s="3"/>
       <c r="H25" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="I25" t="s">
         <v>27</v>
@@ -3422,7 +3465,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" s="3" t="s">
         <v>49</v>
       </c>
@@ -3467,7 +3510,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27" s="3" t="s">
         <v>49</v>
       </c>
@@ -3486,7 +3529,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="I27" t="s">
         <v>27</v>
@@ -3516,7 +3559,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28" s="3" t="s">
         <v>49</v>
       </c>
@@ -3537,7 +3580,7 @@
       </c>
       <c r="G28" s="3"/>
       <c r="H28" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="I28" t="s">
         <v>27</v>
@@ -3567,7 +3610,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="A29" s="3" t="s">
         <v>49</v>
       </c>
@@ -3588,7 +3631,7 @@
       </c>
       <c r="G29" s="3"/>
       <c r="H29" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="I29" t="s">
         <v>27</v>
@@ -3618,7 +3661,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30" s="3" t="s">
         <v>49</v>
       </c>
@@ -3639,7 +3682,7 @@
       </c>
       <c r="G30" s="3"/>
       <c r="H30" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="I30" t="s">
         <v>27</v>
@@ -3669,7 +3712,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31" s="3" t="s">
         <v>49</v>
       </c>
@@ -3714,7 +3757,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="A32" s="3" t="s">
         <v>49</v>
       </c>
@@ -3733,7 +3776,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="I32" t="s">
         <v>27</v>
@@ -3763,7 +3806,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="A33" s="3" t="s">
         <v>49</v>
       </c>
@@ -3782,7 +3825,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="I33" t="s">
         <v>27</v>
@@ -3812,7 +3855,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="A34" s="3" t="s">
         <v>49</v>
       </c>
@@ -3831,7 +3874,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="I34" t="s">
         <v>27</v>
@@ -3861,7 +3904,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="A35" s="3" t="s">
         <v>49</v>
       </c>
@@ -3880,7 +3923,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="I35" t="s">
         <v>27</v>
@@ -3910,7 +3953,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36" s="3" t="s">
         <v>49</v>
       </c>
@@ -3929,7 +3972,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="I36" t="s">
         <v>27</v>
@@ -3959,7 +4002,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37" s="3" t="s">
         <v>49</v>
       </c>
@@ -3978,7 +4021,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="I37" t="s">
         <v>27</v>
@@ -4008,7 +4051,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38" s="3" t="s">
         <v>49</v>
       </c>
@@ -4027,7 +4070,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="I38" t="s">
         <v>27</v>
@@ -4057,7 +4100,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39" s="3" t="s">
         <v>49</v>
       </c>
@@ -4076,7 +4119,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="I39" t="s">
         <v>27</v>
@@ -4106,7 +4149,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="A40" s="3" t="s">
         <v>49</v>
       </c>
@@ -4125,7 +4168,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="I40" t="s">
         <v>27</v>
@@ -4155,7 +4198,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="A41" s="3" t="s">
         <v>49</v>
       </c>
@@ -4174,7 +4217,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="I41" t="s">
         <v>27</v>
@@ -4204,7 +4247,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17">
       <c r="A42" s="3" t="s">
         <v>49</v>
       </c>
@@ -4223,7 +4266,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="I42" t="s">
         <v>27</v>
@@ -4253,7 +4296,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="A43" s="3" t="s">
         <v>49</v>
       </c>
@@ -4272,7 +4315,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="I43" t="s">
         <v>27</v>
@@ -4302,7 +4345,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17">
       <c r="A44" s="3" t="s">
         <v>49</v>
       </c>
@@ -4321,7 +4364,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="I44" t="s">
         <v>27</v>
@@ -4351,7 +4394,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
       <c r="A45" s="3" t="s">
         <v>49</v>
       </c>
@@ -4370,7 +4413,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="I45" t="s">
         <v>27</v>
@@ -4400,7 +4443,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17">
       <c r="A46" s="3" t="s">
         <v>49</v>
       </c>
@@ -4419,7 +4462,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="I46" t="s">
         <v>27</v>
@@ -4449,7 +4492,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="A47" s="3" t="s">
         <v>49</v>
       </c>
@@ -4468,7 +4511,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="I47" t="s">
         <v>27</v>
@@ -4498,7 +4541,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17">
       <c r="A48" s="3" t="s">
         <v>49</v>
       </c>
@@ -4545,16 +4588,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17">
       <c r="A49" s="10"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="25"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="38"/>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="4" t="s">
         <v>236</v>
       </c>
@@ -4603,7 +4646,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17">
       <c r="A51" s="4" t="s">
         <v>236</v>
       </c>
@@ -4652,7 +4695,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17">
       <c r="A52" s="4" t="s">
         <v>236</v>
       </c>
@@ -4701,7 +4744,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17">
       <c r="A53" s="4" t="s">
         <v>236</v>
       </c>
@@ -4750,7 +4793,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17">
       <c r="A54" s="4" t="s">
         <v>236</v>
       </c>
@@ -4795,7 +4838,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17">
       <c r="A55" s="4" t="s">
         <v>236</v>
       </c>
@@ -4846,7 +4889,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17">
       <c r="A56" s="4" t="s">
         <v>236</v>
       </c>
@@ -4897,7 +4940,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17">
       <c r="A57" s="4" t="s">
         <v>236</v>
       </c>
@@ -4948,7 +4991,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17">
       <c r="A58" s="4" t="s">
         <v>236</v>
       </c>
@@ -4999,7 +5042,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17">
       <c r="A59" s="4" t="s">
         <v>236</v>
       </c>
@@ -5050,7 +5093,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17">
       <c r="A60" s="4" t="s">
         <v>236</v>
       </c>
@@ -5095,7 +5138,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17">
       <c r="A61" s="4" t="s">
         <v>236</v>
       </c>
@@ -5144,7 +5187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17">
       <c r="A62" s="4" t="s">
         <v>236</v>
       </c>
@@ -5189,7 +5232,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17">
       <c r="A63" s="4" t="s">
         <v>236</v>
       </c>
@@ -5238,7 +5281,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17">
       <c r="A64" s="4" t="s">
         <v>236</v>
       </c>
@@ -5283,7 +5326,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18">
       <c r="A65" s="4" t="s">
         <v>236</v>
       </c>
@@ -5333,7 +5376,7 @@
       </c>
       <c r="R65"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18">
       <c r="A66" s="4" t="s">
         <v>236</v>
       </c>
@@ -5379,7 +5422,7 @@
       </c>
       <c r="R66"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18">
       <c r="A67" s="4" t="s">
         <v>236</v>
       </c>
@@ -5427,7 +5470,7 @@
       </c>
       <c r="R67"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18">
       <c r="A68" s="4" t="s">
         <v>236</v>
       </c>
@@ -5477,7 +5520,7 @@
       </c>
       <c r="R68"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18">
       <c r="A69" s="4" t="s">
         <v>236</v>
       </c>
@@ -5527,7 +5570,7 @@
       </c>
       <c r="R69"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18">
       <c r="A70" s="4" t="s">
         <v>236</v>
       </c>
@@ -5579,7 +5622,7 @@
       </c>
       <c r="R70"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18">
       <c r="A71" s="4" t="s">
         <v>236</v>
       </c>
@@ -5631,7 +5674,7 @@
       </c>
       <c r="R71"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18">
       <c r="A72" s="4" t="s">
         <v>236</v>
       </c>
@@ -5683,7 +5726,7 @@
       </c>
       <c r="R72"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18">
       <c r="A73" s="4" t="s">
         <v>236</v>
       </c>
@@ -5735,7 +5778,7 @@
       </c>
       <c r="R73"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18">
       <c r="A74" s="4" t="s">
         <v>236</v>
       </c>
@@ -5787,7 +5830,7 @@
       </c>
       <c r="R74"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18">
       <c r="A75" s="4" t="s">
         <v>236</v>
       </c>
@@ -5833,7 +5876,7 @@
       </c>
       <c r="R75"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18">
       <c r="A76" s="4" t="s">
         <v>236</v>
       </c>
@@ -5883,7 +5926,7 @@
       </c>
       <c r="R76"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18">
       <c r="A77" s="4" t="s">
         <v>236</v>
       </c>
@@ -5929,7 +5972,7 @@
       </c>
       <c r="R77"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18">
       <c r="A78" s="4" t="s">
         <v>236</v>
       </c>
@@ -5978,7 +6021,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18">
       <c r="A79" s="4" t="s">
         <v>236</v>
       </c>
@@ -6023,7 +6066,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18">
       <c r="A80" s="4" t="s">
         <v>236</v>
       </c>
@@ -6073,7 +6116,7 @@
       </c>
       <c r="R80"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26">
       <c r="A81" s="4" t="s">
         <v>236</v>
       </c>
@@ -6119,7 +6162,7 @@
       </c>
       <c r="R81"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26">
       <c r="A82" s="4" t="s">
         <v>236</v>
       </c>
@@ -6167,7 +6210,7 @@
       </c>
       <c r="R82"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26">
       <c r="A83" s="4" t="s">
         <v>236</v>
       </c>
@@ -6215,7 +6258,7 @@
       </c>
       <c r="R83"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26">
       <c r="A84" s="4" t="s">
         <v>236</v>
       </c>
@@ -6263,7 +6306,7 @@
       </c>
       <c r="R84"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26">
       <c r="A85" s="4" t="s">
         <v>236</v>
       </c>
@@ -6311,7 +6354,7 @@
       </c>
       <c r="R85"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26">
       <c r="A86" s="4" t="s">
         <v>236</v>
       </c>
@@ -6359,7 +6402,7 @@
       </c>
       <c r="R86"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26">
       <c r="A87" s="4" t="s">
         <v>236</v>
       </c>
@@ -6407,14 +6450,14 @@
       </c>
       <c r="R87"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26">
       <c r="A88" s="10"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="25"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="38"/>
       <c r="I88"/>
       <c r="J88"/>
       <c r="K88"/>
@@ -6425,27 +6468,2173 @@
       <c r="P88"/>
       <c r="Q88"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I89"/>
-      <c r="J89"/>
-      <c r="K89"/>
-      <c r="L89"/>
-      <c r="M89"/>
-      <c r="N89"/>
-      <c r="O89"/>
-      <c r="P89"/>
-      <c r="Q89"/>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I90"/>
-      <c r="J90"/>
-      <c r="K90"/>
-      <c r="L90"/>
-      <c r="M90"/>
-      <c r="N90"/>
-      <c r="O90"/>
-      <c r="P90"/>
-      <c r="Q90"/>
+    <row r="89" spans="1:26" s="27" customFormat="1">
+      <c r="A89" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B89" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="24"/>
+      <c r="H89" t="s">
+        <v>30</v>
+      </c>
+      <c r="I89" s="26"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="26"/>
+      <c r="L89" s="26"/>
+      <c r="M89" s="26"/>
+      <c r="N89" s="26"/>
+      <c r="O89" s="26"/>
+      <c r="P89" s="26"/>
+      <c r="Q89" s="26"/>
+      <c r="R89" s="26"/>
+      <c r="S89" s="26"/>
+      <c r="T89" s="26"/>
+      <c r="U89" s="26"/>
+      <c r="V89" s="26"/>
+      <c r="W89" s="26"/>
+      <c r="X89" s="26"/>
+      <c r="Y89" s="26"/>
+      <c r="Z89" s="26"/>
+    </row>
+    <row r="90" spans="1:26" s="27" customFormat="1">
+      <c r="A90" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B90" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="34"/>
+      <c r="F90" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="24"/>
+      <c r="H90" t="s">
+        <v>30</v>
+      </c>
+      <c r="I90" s="26"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="26"/>
+      <c r="L90" s="26"/>
+      <c r="M90" s="26"/>
+      <c r="N90" s="26"/>
+      <c r="O90" s="26"/>
+      <c r="P90" s="26"/>
+      <c r="Q90" s="26"/>
+      <c r="R90" s="26"/>
+      <c r="S90" s="26"/>
+      <c r="T90" s="26"/>
+      <c r="U90" s="26"/>
+      <c r="V90" s="26"/>
+      <c r="W90" s="26"/>
+      <c r="X90" s="26"/>
+      <c r="Y90" s="26"/>
+      <c r="Z90" s="26"/>
+    </row>
+    <row r="91" spans="1:26" s="27" customFormat="1">
+      <c r="A91" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B91" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="F91" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G91" s="24"/>
+      <c r="H91" t="s">
+        <v>30</v>
+      </c>
+      <c r="I91" s="26"/>
+      <c r="J91" s="26"/>
+      <c r="K91" s="26"/>
+      <c r="L91" s="26"/>
+      <c r="M91" s="26"/>
+      <c r="N91" s="26"/>
+      <c r="O91" s="26"/>
+      <c r="P91" s="26"/>
+      <c r="Q91" s="26"/>
+      <c r="R91" s="26"/>
+      <c r="S91" s="26"/>
+      <c r="T91" s="26"/>
+      <c r="U91" s="26"/>
+      <c r="V91" s="26"/>
+      <c r="W91" s="26"/>
+      <c r="X91" s="26"/>
+      <c r="Y91" s="26"/>
+      <c r="Z91" s="26"/>
+    </row>
+    <row r="92" spans="1:26" s="27" customFormat="1">
+      <c r="A92" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B92" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="F92" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="G92" s="24"/>
+      <c r="H92" t="s">
+        <v>30</v>
+      </c>
+      <c r="I92" s="26"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="26"/>
+      <c r="M92" s="26"/>
+      <c r="N92" s="26"/>
+      <c r="O92" s="26"/>
+      <c r="P92" s="26"/>
+      <c r="Q92" s="26"/>
+      <c r="R92" s="26"/>
+      <c r="S92" s="26"/>
+      <c r="T92" s="26"/>
+      <c r="U92" s="26"/>
+      <c r="V92" s="26"/>
+      <c r="W92" s="26"/>
+      <c r="X92" s="26"/>
+      <c r="Y92" s="26"/>
+      <c r="Z92" s="26"/>
+    </row>
+    <row r="93" spans="1:26" s="27" customFormat="1">
+      <c r="A93" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B93" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="F93" s="34"/>
+      <c r="G93" s="24"/>
+      <c r="H93" t="s">
+        <v>30</v>
+      </c>
+      <c r="I93" s="26"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="26"/>
+      <c r="L93" s="26"/>
+      <c r="M93" s="26"/>
+      <c r="N93" s="26"/>
+      <c r="O93" s="26"/>
+      <c r="P93" s="26"/>
+      <c r="Q93" s="26"/>
+      <c r="R93" s="26"/>
+      <c r="S93" s="26"/>
+      <c r="T93" s="26"/>
+      <c r="U93" s="26"/>
+      <c r="V93" s="26"/>
+      <c r="W93" s="26"/>
+      <c r="X93" s="26"/>
+      <c r="Y93" s="26"/>
+      <c r="Z93" s="26"/>
+    </row>
+    <row r="94" spans="1:26" s="27" customFormat="1">
+      <c r="A94" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B94" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="34"/>
+      <c r="D94" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E94" s="34"/>
+      <c r="F94" s="34"/>
+      <c r="G94" s="24"/>
+      <c r="H94" t="s">
+        <v>30</v>
+      </c>
+      <c r="I94" s="26"/>
+      <c r="J94" s="26"/>
+      <c r="K94" s="26"/>
+      <c r="L94" s="26"/>
+      <c r="M94" s="26"/>
+      <c r="N94" s="26"/>
+      <c r="O94" s="26"/>
+      <c r="P94" s="26"/>
+      <c r="Q94" s="26"/>
+      <c r="R94" s="26"/>
+      <c r="S94" s="26"/>
+      <c r="T94" s="26"/>
+      <c r="U94" s="26"/>
+      <c r="V94" s="26"/>
+      <c r="W94" s="26"/>
+      <c r="X94" s="26"/>
+      <c r="Y94" s="26"/>
+      <c r="Z94" s="26"/>
+    </row>
+    <row r="95" spans="1:26" s="27" customFormat="1">
+      <c r="A95" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B95" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="F95" s="34"/>
+      <c r="G95" s="24"/>
+      <c r="H95" t="s">
+        <v>30</v>
+      </c>
+      <c r="I95" s="26"/>
+      <c r="J95" s="26"/>
+      <c r="K95" s="26"/>
+      <c r="L95" s="26"/>
+      <c r="M95" s="26"/>
+      <c r="N95" s="26"/>
+      <c r="O95" s="26"/>
+      <c r="P95" s="26"/>
+      <c r="Q95" s="26"/>
+      <c r="R95" s="26"/>
+      <c r="S95" s="26"/>
+      <c r="T95" s="26"/>
+      <c r="U95" s="26"/>
+      <c r="V95" s="26"/>
+      <c r="W95" s="26"/>
+      <c r="X95" s="26"/>
+      <c r="Y95" s="26"/>
+      <c r="Z95" s="26"/>
+    </row>
+    <row r="96" spans="1:26" s="27" customFormat="1">
+      <c r="A96" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B96" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="F96" s="34"/>
+      <c r="G96" s="24"/>
+      <c r="H96" t="s">
+        <v>30</v>
+      </c>
+      <c r="I96" s="26"/>
+      <c r="J96" s="26"/>
+      <c r="K96" s="26"/>
+      <c r="L96" s="26"/>
+      <c r="M96" s="26"/>
+      <c r="N96" s="26"/>
+      <c r="O96" s="26"/>
+      <c r="P96" s="26"/>
+      <c r="Q96" s="26"/>
+      <c r="R96" s="26"/>
+      <c r="S96" s="26"/>
+      <c r="T96" s="26"/>
+      <c r="U96" s="26"/>
+      <c r="V96" s="26"/>
+      <c r="W96" s="26"/>
+      <c r="X96" s="26"/>
+      <c r="Y96" s="26"/>
+      <c r="Z96" s="26"/>
+    </row>
+    <row r="97" spans="1:26" s="27" customFormat="1">
+      <c r="A97" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B97" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="E97" s="34"/>
+      <c r="F97" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="G97" s="24"/>
+      <c r="H97" t="s">
+        <v>30</v>
+      </c>
+      <c r="I97" s="26"/>
+      <c r="J97" s="26"/>
+      <c r="K97" s="26"/>
+      <c r="L97" s="26"/>
+      <c r="M97" s="26"/>
+      <c r="N97" s="26"/>
+      <c r="O97" s="26"/>
+      <c r="P97" s="26"/>
+      <c r="Q97" s="26"/>
+      <c r="R97" s="26"/>
+      <c r="S97" s="26"/>
+      <c r="T97" s="26"/>
+      <c r="U97" s="26"/>
+      <c r="V97" s="26"/>
+      <c r="W97" s="26"/>
+      <c r="X97" s="26"/>
+      <c r="Y97" s="26"/>
+      <c r="Z97" s="26"/>
+    </row>
+    <row r="98" spans="1:26" s="27" customFormat="1">
+      <c r="A98" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B98" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="D98" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="E98" s="34"/>
+      <c r="F98" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="G98" s="24"/>
+      <c r="H98" t="s">
+        <v>30</v>
+      </c>
+      <c r="I98" s="26"/>
+      <c r="J98" s="26"/>
+      <c r="K98" s="26"/>
+      <c r="L98" s="26"/>
+      <c r="M98" s="26"/>
+      <c r="N98" s="26"/>
+      <c r="O98" s="26"/>
+      <c r="P98" s="26"/>
+      <c r="Q98" s="26"/>
+      <c r="R98" s="26"/>
+      <c r="S98" s="26"/>
+      <c r="T98" s="26"/>
+      <c r="U98" s="26"/>
+      <c r="V98" s="26"/>
+      <c r="W98" s="26"/>
+      <c r="X98" s="26"/>
+      <c r="Y98" s="26"/>
+      <c r="Z98" s="26"/>
+    </row>
+    <row r="99" spans="1:26" s="27" customFormat="1">
+      <c r="A99" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B99" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C99" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="D99" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="E99" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="F99" s="34"/>
+      <c r="G99" s="24"/>
+      <c r="H99" t="s">
+        <v>30</v>
+      </c>
+      <c r="I99" s="26"/>
+      <c r="J99" s="26"/>
+      <c r="K99" s="26"/>
+      <c r="L99" s="26"/>
+      <c r="M99" s="26"/>
+      <c r="N99" s="26"/>
+      <c r="O99" s="26"/>
+      <c r="P99" s="26"/>
+      <c r="Q99" s="26"/>
+      <c r="R99" s="26"/>
+      <c r="S99" s="26"/>
+      <c r="T99" s="26"/>
+      <c r="U99" s="26"/>
+      <c r="V99" s="26"/>
+      <c r="W99" s="26"/>
+      <c r="X99" s="26"/>
+      <c r="Y99" s="26"/>
+      <c r="Z99" s="26"/>
+    </row>
+    <row r="100" spans="1:26" s="27" customFormat="1">
+      <c r="A100" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B100" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C100" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="D100" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="F100" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="G100" s="24"/>
+      <c r="H100" t="s">
+        <v>30</v>
+      </c>
+      <c r="I100" s="26"/>
+      <c r="J100" s="26"/>
+      <c r="K100" s="26"/>
+      <c r="L100" s="26"/>
+      <c r="M100" s="26"/>
+      <c r="N100" s="26"/>
+      <c r="O100" s="26"/>
+      <c r="P100" s="26"/>
+      <c r="Q100" s="26"/>
+      <c r="R100" s="26"/>
+      <c r="S100" s="26"/>
+      <c r="T100" s="26"/>
+      <c r="U100" s="26"/>
+      <c r="V100" s="26"/>
+      <c r="W100" s="26"/>
+      <c r="X100" s="26"/>
+      <c r="Y100" s="26"/>
+      <c r="Z100" s="26"/>
+    </row>
+    <row r="101" spans="1:26" s="27" customFormat="1">
+      <c r="A101" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B101" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C101" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="D101" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="F101" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="G101" s="24"/>
+      <c r="H101" t="s">
+        <v>30</v>
+      </c>
+      <c r="I101" s="26"/>
+      <c r="J101" s="26"/>
+      <c r="K101" s="26"/>
+      <c r="L101" s="26"/>
+      <c r="M101" s="26"/>
+      <c r="N101" s="26"/>
+      <c r="O101" s="26"/>
+      <c r="P101" s="26"/>
+      <c r="Q101" s="26"/>
+      <c r="R101" s="26"/>
+      <c r="S101" s="26"/>
+      <c r="T101" s="26"/>
+      <c r="U101" s="26"/>
+      <c r="V101" s="26"/>
+      <c r="W101" s="26"/>
+      <c r="X101" s="26"/>
+      <c r="Y101" s="26"/>
+      <c r="Z101" s="26"/>
+    </row>
+    <row r="102" spans="1:26" s="27" customFormat="1">
+      <c r="A102" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B102" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C102" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="D102" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="F102" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="G102" s="24"/>
+      <c r="H102" t="s">
+        <v>30</v>
+      </c>
+      <c r="I102" s="26"/>
+      <c r="J102" s="26"/>
+      <c r="K102" s="26"/>
+      <c r="L102" s="26"/>
+      <c r="M102" s="26"/>
+      <c r="N102" s="26"/>
+      <c r="O102" s="26"/>
+      <c r="P102" s="26"/>
+      <c r="Q102" s="26"/>
+      <c r="R102" s="26"/>
+      <c r="S102" s="26"/>
+      <c r="T102" s="26"/>
+      <c r="U102" s="26"/>
+      <c r="V102" s="26"/>
+      <c r="W102" s="26"/>
+      <c r="X102" s="26"/>
+      <c r="Y102" s="26"/>
+      <c r="Z102" s="26"/>
+    </row>
+    <row r="103" spans="1:26" s="27" customFormat="1">
+      <c r="A103" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B103" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C103" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="D103" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E103" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="F103" s="34"/>
+      <c r="G103" s="24"/>
+      <c r="H103" t="s">
+        <v>30</v>
+      </c>
+      <c r="I103" s="26"/>
+      <c r="J103" s="26"/>
+      <c r="K103" s="26"/>
+      <c r="L103" s="26"/>
+      <c r="M103" s="26"/>
+      <c r="N103" s="26"/>
+      <c r="O103" s="26"/>
+      <c r="P103" s="26"/>
+      <c r="Q103" s="26"/>
+      <c r="R103" s="26"/>
+      <c r="S103" s="26"/>
+      <c r="T103" s="26"/>
+      <c r="U103" s="26"/>
+      <c r="V103" s="26"/>
+      <c r="W103" s="26"/>
+      <c r="X103" s="26"/>
+      <c r="Y103" s="26"/>
+      <c r="Z103" s="26"/>
+    </row>
+    <row r="104" spans="1:26" s="27" customFormat="1">
+      <c r="A104" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B104" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C104" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="D104" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E104" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="F104" s="34"/>
+      <c r="G104" s="24"/>
+      <c r="H104" t="s">
+        <v>30</v>
+      </c>
+      <c r="I104" s="26"/>
+      <c r="J104" s="26"/>
+      <c r="K104" s="26"/>
+      <c r="L104" s="26"/>
+      <c r="M104" s="26"/>
+      <c r="N104" s="26"/>
+      <c r="O104" s="26"/>
+      <c r="P104" s="26"/>
+      <c r="Q104" s="26"/>
+      <c r="R104" s="26"/>
+      <c r="S104" s="26"/>
+      <c r="T104" s="26"/>
+      <c r="U104" s="26"/>
+      <c r="V104" s="26"/>
+      <c r="W104" s="26"/>
+      <c r="X104" s="26"/>
+      <c r="Y104" s="26"/>
+      <c r="Z104" s="26"/>
+    </row>
+    <row r="105" spans="1:26" s="27" customFormat="1">
+      <c r="A105" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B105" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C105" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="D105" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="F105" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="G105" s="24"/>
+      <c r="H105" t="s">
+        <v>30</v>
+      </c>
+      <c r="I105" s="26"/>
+      <c r="J105" s="26"/>
+      <c r="K105" s="26"/>
+      <c r="L105" s="26"/>
+      <c r="M105" s="26"/>
+      <c r="N105" s="26"/>
+      <c r="O105" s="26"/>
+      <c r="P105" s="26"/>
+      <c r="Q105" s="26"/>
+      <c r="R105" s="26"/>
+      <c r="S105" s="26"/>
+      <c r="T105" s="26"/>
+      <c r="U105" s="26"/>
+      <c r="V105" s="26"/>
+      <c r="W105" s="26"/>
+      <c r="X105" s="26"/>
+      <c r="Y105" s="26"/>
+      <c r="Z105" s="26"/>
+    </row>
+    <row r="106" spans="1:26" s="27" customFormat="1">
+      <c r="A106" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B106" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C106" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="D106" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="E106" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="F106" s="34"/>
+      <c r="G106" s="24"/>
+      <c r="H106" t="s">
+        <v>30</v>
+      </c>
+      <c r="I106" s="26"/>
+      <c r="J106" s="26"/>
+      <c r="K106" s="26"/>
+      <c r="L106" s="26"/>
+      <c r="M106" s="26"/>
+      <c r="N106" s="26"/>
+      <c r="O106" s="26"/>
+      <c r="P106" s="26"/>
+      <c r="Q106" s="26"/>
+      <c r="R106" s="26"/>
+      <c r="S106" s="26"/>
+      <c r="T106" s="26"/>
+      <c r="U106" s="26"/>
+      <c r="V106" s="26"/>
+      <c r="W106" s="26"/>
+      <c r="X106" s="26"/>
+      <c r="Y106" s="26"/>
+      <c r="Z106" s="26"/>
+    </row>
+    <row r="107" spans="1:26" s="27" customFormat="1">
+      <c r="A107" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B107" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="D107" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E107" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="F107" s="34"/>
+      <c r="G107" s="24"/>
+      <c r="H107" t="s">
+        <v>30</v>
+      </c>
+      <c r="I107" s="26"/>
+      <c r="J107" s="26"/>
+      <c r="K107" s="26"/>
+      <c r="L107" s="26"/>
+      <c r="M107" s="26"/>
+      <c r="N107" s="26"/>
+      <c r="O107" s="26"/>
+      <c r="P107" s="26"/>
+      <c r="Q107" s="26"/>
+      <c r="R107" s="26"/>
+      <c r="S107" s="26"/>
+      <c r="T107" s="26"/>
+      <c r="U107" s="26"/>
+      <c r="V107" s="26"/>
+      <c r="W107" s="26"/>
+      <c r="X107" s="26"/>
+      <c r="Y107" s="26"/>
+      <c r="Z107" s="26"/>
+    </row>
+    <row r="108" spans="1:26" s="27" customFormat="1">
+      <c r="A108" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B108" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C108" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="D108" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="E108" s="35">
+        <v>20</v>
+      </c>
+      <c r="F108" s="34"/>
+      <c r="G108" s="24"/>
+      <c r="H108" t="s">
+        <v>30</v>
+      </c>
+      <c r="I108" s="26"/>
+      <c r="J108" s="26"/>
+      <c r="K108" s="26"/>
+      <c r="L108" s="26"/>
+      <c r="M108" s="26"/>
+      <c r="N108" s="26"/>
+      <c r="O108" s="26"/>
+      <c r="P108" s="26"/>
+      <c r="Q108" s="26"/>
+      <c r="R108" s="26"/>
+      <c r="S108" s="26"/>
+      <c r="T108" s="26"/>
+      <c r="U108" s="26"/>
+      <c r="V108" s="26"/>
+      <c r="W108" s="26"/>
+      <c r="X108" s="26"/>
+      <c r="Y108" s="26"/>
+      <c r="Z108" s="26"/>
+    </row>
+    <row r="109" spans="1:26" s="27" customFormat="1">
+      <c r="A109" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B109" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C109" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="D109" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E109" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="F109" s="34"/>
+      <c r="G109" s="24"/>
+      <c r="H109" t="s">
+        <v>30</v>
+      </c>
+      <c r="I109" s="26"/>
+      <c r="J109" s="26"/>
+      <c r="K109" s="26"/>
+      <c r="L109" s="26"/>
+      <c r="M109" s="26"/>
+      <c r="N109" s="26"/>
+      <c r="O109" s="26"/>
+      <c r="P109" s="26"/>
+      <c r="Q109" s="26"/>
+      <c r="R109" s="26"/>
+      <c r="S109" s="26"/>
+      <c r="T109" s="26"/>
+      <c r="U109" s="26"/>
+      <c r="V109" s="26"/>
+      <c r="W109" s="26"/>
+      <c r="X109" s="26"/>
+      <c r="Y109" s="26"/>
+      <c r="Z109" s="26"/>
+    </row>
+    <row r="110" spans="1:26" s="27" customFormat="1">
+      <c r="A110" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B110" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C110" s="34"/>
+      <c r="D110" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E110" s="34"/>
+      <c r="F110" s="34"/>
+      <c r="G110" s="24"/>
+      <c r="H110" t="s">
+        <v>30</v>
+      </c>
+      <c r="I110" s="26"/>
+      <c r="J110" s="26"/>
+      <c r="K110" s="26"/>
+      <c r="L110" s="26"/>
+      <c r="M110" s="26"/>
+      <c r="N110" s="26"/>
+      <c r="O110" s="26"/>
+      <c r="P110" s="26"/>
+      <c r="Q110" s="26"/>
+      <c r="R110" s="26"/>
+      <c r="S110" s="26"/>
+      <c r="T110" s="26"/>
+      <c r="U110" s="26"/>
+      <c r="V110" s="26"/>
+      <c r="W110" s="26"/>
+      <c r="X110" s="26"/>
+      <c r="Y110" s="26"/>
+      <c r="Z110" s="26"/>
+    </row>
+    <row r="111" spans="1:26" s="27" customFormat="1">
+      <c r="A111" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B111" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C111" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="D111" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E111" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="F111" s="34"/>
+      <c r="G111" s="24"/>
+      <c r="H111" t="s">
+        <v>30</v>
+      </c>
+      <c r="I111" s="26"/>
+      <c r="J111" s="26"/>
+      <c r="K111" s="26"/>
+      <c r="L111" s="26"/>
+      <c r="M111" s="26"/>
+      <c r="N111" s="26"/>
+      <c r="O111" s="26"/>
+      <c r="P111" s="26"/>
+      <c r="Q111" s="26"/>
+      <c r="R111" s="26"/>
+      <c r="S111" s="26"/>
+      <c r="T111" s="26"/>
+      <c r="U111" s="26"/>
+      <c r="V111" s="26"/>
+      <c r="W111" s="26"/>
+      <c r="X111" s="26"/>
+      <c r="Y111" s="26"/>
+      <c r="Z111" s="26"/>
+    </row>
+    <row r="112" spans="1:26" s="27" customFormat="1">
+      <c r="A112" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B112" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C112" s="34"/>
+      <c r="D112" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E112" s="34"/>
+      <c r="F112" s="34"/>
+      <c r="G112" s="24"/>
+      <c r="H112" t="s">
+        <v>30</v>
+      </c>
+      <c r="I112" s="26"/>
+      <c r="J112" s="26"/>
+      <c r="K112" s="26"/>
+      <c r="L112" s="26"/>
+      <c r="M112" s="26"/>
+      <c r="N112" s="26"/>
+      <c r="O112" s="26"/>
+      <c r="P112" s="26"/>
+      <c r="Q112" s="26"/>
+      <c r="R112" s="26"/>
+      <c r="S112" s="26"/>
+      <c r="T112" s="26"/>
+      <c r="U112" s="26"/>
+      <c r="V112" s="26"/>
+      <c r="W112" s="26"/>
+      <c r="X112" s="26"/>
+      <c r="Y112" s="26"/>
+      <c r="Z112" s="26"/>
+    </row>
+    <row r="113" spans="1:26" s="27" customFormat="1">
+      <c r="A113" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B113" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C113" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="D113" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E113" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="F113" s="34"/>
+      <c r="G113" s="24"/>
+      <c r="H113" t="s">
+        <v>30</v>
+      </c>
+      <c r="I113" s="26"/>
+      <c r="J113" s="26"/>
+      <c r="K113" s="26"/>
+      <c r="L113" s="26"/>
+      <c r="M113" s="26"/>
+      <c r="N113" s="26"/>
+      <c r="O113" s="26"/>
+      <c r="P113" s="26"/>
+      <c r="Q113" s="26"/>
+      <c r="R113" s="26"/>
+      <c r="S113" s="26"/>
+      <c r="T113" s="26"/>
+      <c r="U113" s="26"/>
+      <c r="V113" s="26"/>
+      <c r="W113" s="26"/>
+      <c r="X113" s="26"/>
+      <c r="Y113" s="26"/>
+      <c r="Z113" s="26"/>
+    </row>
+    <row r="114" spans="1:26" s="27" customFormat="1">
+      <c r="A114" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B114" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C114" s="34"/>
+      <c r="D114" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E114" s="34"/>
+      <c r="F114" s="34"/>
+      <c r="G114" s="24"/>
+      <c r="H114" t="s">
+        <v>30</v>
+      </c>
+      <c r="I114" s="26"/>
+      <c r="J114" s="26"/>
+      <c r="K114" s="26"/>
+      <c r="L114" s="26"/>
+      <c r="M114" s="26"/>
+      <c r="N114" s="26"/>
+      <c r="O114" s="26"/>
+      <c r="P114" s="26"/>
+      <c r="Q114" s="26"/>
+      <c r="R114" s="26"/>
+      <c r="S114" s="26"/>
+      <c r="T114" s="26"/>
+      <c r="U114" s="26"/>
+      <c r="V114" s="26"/>
+      <c r="W114" s="26"/>
+      <c r="X114" s="26"/>
+      <c r="Y114" s="26"/>
+      <c r="Z114" s="26"/>
+    </row>
+    <row r="115" spans="1:26" s="27" customFormat="1">
+      <c r="A115" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B115" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C115" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="D115" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E115" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="F115" s="34"/>
+      <c r="G115" s="24"/>
+      <c r="H115" t="s">
+        <v>30</v>
+      </c>
+      <c r="I115" s="26"/>
+      <c r="J115" s="26"/>
+      <c r="K115" s="26"/>
+      <c r="L115" s="26"/>
+      <c r="M115" s="26"/>
+      <c r="N115" s="26"/>
+      <c r="O115" s="26"/>
+      <c r="P115" s="26"/>
+      <c r="Q115" s="26"/>
+      <c r="R115" s="26"/>
+      <c r="S115" s="26"/>
+      <c r="T115" s="26"/>
+      <c r="U115" s="26"/>
+      <c r="V115" s="26"/>
+      <c r="W115" s="26"/>
+      <c r="X115" s="26"/>
+      <c r="Y115" s="26"/>
+      <c r="Z115" s="26"/>
+    </row>
+    <row r="116" spans="1:26" s="27" customFormat="1">
+      <c r="A116" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B116" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C116" s="35"/>
+      <c r="D116" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E116" s="35"/>
+      <c r="F116" s="34"/>
+      <c r="G116" s="24"/>
+      <c r="H116" t="s">
+        <v>30</v>
+      </c>
+      <c r="I116" s="26"/>
+      <c r="J116" s="26"/>
+      <c r="K116" s="26"/>
+      <c r="L116" s="26"/>
+      <c r="M116" s="26"/>
+      <c r="N116" s="26"/>
+      <c r="O116" s="26"/>
+      <c r="P116" s="26"/>
+      <c r="Q116" s="26"/>
+      <c r="R116" s="26"/>
+      <c r="S116" s="26"/>
+      <c r="T116" s="26"/>
+      <c r="U116" s="26"/>
+      <c r="V116" s="26"/>
+      <c r="W116" s="26"/>
+      <c r="X116" s="26"/>
+      <c r="Y116" s="26"/>
+      <c r="Z116" s="26"/>
+    </row>
+    <row r="117" spans="1:26" s="27" customFormat="1">
+      <c r="A117" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B117" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C117" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="D117" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E117" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="F117" s="34"/>
+      <c r="G117" s="24"/>
+      <c r="H117" t="s">
+        <v>30</v>
+      </c>
+      <c r="I117" s="26"/>
+      <c r="J117" s="26"/>
+      <c r="K117" s="26"/>
+      <c r="L117" s="26"/>
+      <c r="M117" s="26"/>
+      <c r="N117" s="26"/>
+      <c r="O117" s="26"/>
+      <c r="P117" s="26"/>
+      <c r="Q117" s="26"/>
+      <c r="R117" s="26"/>
+      <c r="S117" s="26"/>
+      <c r="T117" s="26"/>
+      <c r="U117" s="26"/>
+      <c r="V117" s="26"/>
+      <c r="W117" s="26"/>
+      <c r="X117" s="26"/>
+      <c r="Y117" s="26"/>
+      <c r="Z117" s="26"/>
+    </row>
+    <row r="118" spans="1:26" s="27" customFormat="1">
+      <c r="A118" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B118" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C118" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="D118" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="E118" s="35">
+        <v>20</v>
+      </c>
+      <c r="F118" s="34"/>
+      <c r="G118" s="24"/>
+      <c r="H118" t="s">
+        <v>30</v>
+      </c>
+      <c r="I118" s="26"/>
+      <c r="J118" s="26"/>
+      <c r="K118" s="26"/>
+      <c r="L118" s="26"/>
+      <c r="M118" s="26"/>
+      <c r="N118" s="26"/>
+      <c r="O118" s="26"/>
+      <c r="P118" s="26"/>
+      <c r="Q118" s="26"/>
+      <c r="R118" s="26"/>
+      <c r="S118" s="26"/>
+      <c r="T118" s="26"/>
+      <c r="U118" s="26"/>
+      <c r="V118" s="26"/>
+      <c r="W118" s="26"/>
+      <c r="X118" s="26"/>
+      <c r="Y118" s="26"/>
+      <c r="Z118" s="26"/>
+    </row>
+    <row r="119" spans="1:26" s="27" customFormat="1">
+      <c r="A119" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B119" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C119" s="35"/>
+      <c r="D119" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E119" s="35"/>
+      <c r="F119" s="34"/>
+      <c r="G119" s="24"/>
+      <c r="H119" t="s">
+        <v>30</v>
+      </c>
+      <c r="I119" s="26"/>
+      <c r="J119" s="26"/>
+      <c r="K119" s="26"/>
+      <c r="L119" s="26"/>
+      <c r="M119" s="26"/>
+      <c r="N119" s="26"/>
+      <c r="O119" s="26"/>
+      <c r="P119" s="26"/>
+      <c r="Q119" s="26"/>
+      <c r="R119" s="26"/>
+      <c r="S119" s="26"/>
+      <c r="T119" s="26"/>
+      <c r="U119" s="26"/>
+      <c r="V119" s="26"/>
+      <c r="W119" s="26"/>
+      <c r="X119" s="26"/>
+      <c r="Y119" s="26"/>
+      <c r="Z119" s="26"/>
+    </row>
+    <row r="120" spans="1:26" s="27" customFormat="1">
+      <c r="A120" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B120" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C120" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="D120" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E120" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="F120" s="34"/>
+      <c r="G120" s="24"/>
+      <c r="H120" t="s">
+        <v>30</v>
+      </c>
+      <c r="I120" s="26"/>
+      <c r="J120" s="26"/>
+      <c r="K120" s="26"/>
+      <c r="L120" s="26"/>
+      <c r="M120" s="26"/>
+      <c r="N120" s="26"/>
+      <c r="O120" s="26"/>
+      <c r="P120" s="26"/>
+      <c r="Q120" s="26"/>
+      <c r="R120" s="26"/>
+      <c r="S120" s="26"/>
+      <c r="T120" s="26"/>
+      <c r="U120" s="26"/>
+      <c r="V120" s="26"/>
+      <c r="W120" s="26"/>
+      <c r="X120" s="26"/>
+      <c r="Y120" s="26"/>
+      <c r="Z120" s="26"/>
+    </row>
+    <row r="121" spans="1:26" s="27" customFormat="1">
+      <c r="A121" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B121" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C121" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="D121" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E121" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="F121" s="34"/>
+      <c r="G121" s="24"/>
+      <c r="H121" t="s">
+        <v>30</v>
+      </c>
+      <c r="I121" s="26"/>
+      <c r="J121" s="26"/>
+      <c r="K121" s="26"/>
+      <c r="L121" s="26"/>
+      <c r="M121" s="26"/>
+      <c r="N121" s="26"/>
+      <c r="O121" s="26"/>
+      <c r="P121" s="26"/>
+      <c r="Q121" s="26"/>
+      <c r="R121" s="26"/>
+      <c r="S121" s="26"/>
+      <c r="T121" s="26"/>
+      <c r="U121" s="26"/>
+      <c r="V121" s="26"/>
+      <c r="W121" s="26"/>
+      <c r="X121" s="26"/>
+      <c r="Y121" s="26"/>
+      <c r="Z121" s="26"/>
+    </row>
+    <row r="122" spans="1:26" s="27" customFormat="1">
+      <c r="A122" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B122" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C122" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="D122" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="E122" s="34"/>
+      <c r="F122" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="G122" s="24"/>
+      <c r="H122" t="s">
+        <v>30</v>
+      </c>
+      <c r="I122" s="26"/>
+      <c r="J122" s="26"/>
+      <c r="K122" s="26"/>
+      <c r="L122" s="26"/>
+      <c r="M122" s="26"/>
+      <c r="N122" s="26"/>
+      <c r="O122" s="26"/>
+      <c r="P122" s="26"/>
+      <c r="Q122" s="26"/>
+      <c r="R122" s="26"/>
+      <c r="S122" s="26"/>
+      <c r="T122" s="26"/>
+      <c r="U122" s="26"/>
+      <c r="V122" s="26"/>
+      <c r="W122" s="26"/>
+      <c r="X122" s="26"/>
+      <c r="Y122" s="26"/>
+      <c r="Z122" s="26"/>
+    </row>
+    <row r="123" spans="1:26" s="27" customFormat="1">
+      <c r="A123" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B123" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C123" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="D123" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="E123" s="34"/>
+      <c r="F123" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="G123" s="24"/>
+      <c r="H123" t="s">
+        <v>30</v>
+      </c>
+      <c r="I123" s="26"/>
+      <c r="J123" s="26"/>
+      <c r="K123" s="26"/>
+      <c r="L123" s="26"/>
+      <c r="M123" s="26"/>
+      <c r="N123" s="26"/>
+      <c r="O123" s="26"/>
+      <c r="P123" s="26"/>
+      <c r="Q123" s="26"/>
+      <c r="R123" s="26"/>
+      <c r="S123" s="26"/>
+      <c r="T123" s="26"/>
+      <c r="U123" s="26"/>
+      <c r="V123" s="26"/>
+      <c r="W123" s="26"/>
+      <c r="X123" s="26"/>
+      <c r="Y123" s="26"/>
+      <c r="Z123" s="26"/>
+    </row>
+    <row r="124" spans="1:26" s="27" customFormat="1">
+      <c r="A124" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B124" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C124" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="D124" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="E124" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="F124" s="34"/>
+      <c r="G124" s="24"/>
+      <c r="H124" t="s">
+        <v>30</v>
+      </c>
+      <c r="I124" s="26"/>
+      <c r="J124" s="26"/>
+      <c r="K124" s="26"/>
+      <c r="L124" s="26"/>
+      <c r="M124" s="26"/>
+      <c r="N124" s="26"/>
+      <c r="O124" s="26"/>
+      <c r="P124" s="26"/>
+      <c r="Q124" s="26"/>
+      <c r="R124" s="26"/>
+      <c r="S124" s="26"/>
+      <c r="T124" s="26"/>
+      <c r="U124" s="26"/>
+      <c r="V124" s="26"/>
+      <c r="W124" s="26"/>
+      <c r="X124" s="26"/>
+      <c r="Y124" s="26"/>
+      <c r="Z124" s="26"/>
+    </row>
+    <row r="125" spans="1:26" s="27" customFormat="1">
+      <c r="A125" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B125" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C125" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="D125" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="F125" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="G125" s="24"/>
+      <c r="H125" t="s">
+        <v>30</v>
+      </c>
+      <c r="I125" s="26"/>
+      <c r="J125" s="26"/>
+      <c r="K125" s="26"/>
+      <c r="L125" s="26"/>
+      <c r="M125" s="26"/>
+      <c r="N125" s="26"/>
+      <c r="O125" s="26"/>
+      <c r="P125" s="26"/>
+      <c r="Q125" s="26"/>
+      <c r="R125" s="26"/>
+      <c r="S125" s="26"/>
+      <c r="T125" s="26"/>
+      <c r="U125" s="26"/>
+      <c r="V125" s="26"/>
+      <c r="W125" s="26"/>
+      <c r="X125" s="26"/>
+      <c r="Y125" s="26"/>
+      <c r="Z125" s="26"/>
+    </row>
+    <row r="126" spans="1:26" s="27" customFormat="1">
+      <c r="A126" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B126" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C126" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="D126" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="E126" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="F126" s="34"/>
+      <c r="G126" s="24"/>
+      <c r="H126" t="s">
+        <v>30</v>
+      </c>
+      <c r="I126" s="26"/>
+      <c r="J126" s="26"/>
+      <c r="K126" s="26"/>
+      <c r="L126" s="26"/>
+      <c r="M126" s="26"/>
+      <c r="N126" s="26"/>
+      <c r="O126" s="26"/>
+      <c r="P126" s="26"/>
+      <c r="Q126" s="26"/>
+      <c r="R126" s="26"/>
+      <c r="S126" s="26"/>
+      <c r="T126" s="26"/>
+      <c r="U126" s="26"/>
+      <c r="V126" s="26"/>
+      <c r="W126" s="26"/>
+      <c r="X126" s="26"/>
+      <c r="Y126" s="26"/>
+      <c r="Z126" s="26"/>
+    </row>
+    <row r="127" spans="1:26" s="27" customFormat="1">
+      <c r="A127" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B127" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C127" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="D127" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="F127" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="G127" s="24"/>
+      <c r="H127" t="s">
+        <v>30</v>
+      </c>
+      <c r="I127" s="26"/>
+      <c r="J127" s="26"/>
+      <c r="K127" s="26"/>
+      <c r="L127" s="26"/>
+      <c r="M127" s="26"/>
+      <c r="N127" s="26"/>
+      <c r="O127" s="26"/>
+      <c r="P127" s="26"/>
+      <c r="Q127" s="26"/>
+      <c r="R127" s="26"/>
+      <c r="S127" s="26"/>
+      <c r="T127" s="26"/>
+      <c r="U127" s="26"/>
+      <c r="V127" s="26"/>
+      <c r="W127" s="26"/>
+      <c r="X127" s="26"/>
+      <c r="Y127" s="26"/>
+      <c r="Z127" s="26"/>
+    </row>
+    <row r="128" spans="1:26" s="27" customFormat="1">
+      <c r="A128" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B128" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C128" s="35" t="s">
+        <v>354</v>
+      </c>
+      <c r="D128" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="E128" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="F128" s="34"/>
+      <c r="G128" s="24"/>
+      <c r="H128" t="s">
+        <v>30</v>
+      </c>
+      <c r="I128" s="26"/>
+      <c r="J128" s="26"/>
+      <c r="K128" s="26"/>
+      <c r="L128" s="26"/>
+      <c r="M128" s="26"/>
+      <c r="N128" s="26"/>
+      <c r="O128" s="26"/>
+      <c r="P128" s="26"/>
+      <c r="Q128" s="26"/>
+      <c r="R128" s="26"/>
+      <c r="S128" s="26"/>
+      <c r="T128" s="26"/>
+      <c r="U128" s="26"/>
+      <c r="V128" s="26"/>
+      <c r="W128" s="26"/>
+      <c r="X128" s="26"/>
+      <c r="Y128" s="26"/>
+      <c r="Z128" s="26"/>
+    </row>
+    <row r="129" spans="1:26" s="27" customFormat="1">
+      <c r="A129" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B129" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="C129" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="D129" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="F129" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="G129" s="24"/>
+      <c r="H129" t="s">
+        <v>30</v>
+      </c>
+      <c r="I129" s="26"/>
+      <c r="J129" s="26"/>
+      <c r="K129" s="26"/>
+      <c r="L129" s="26"/>
+      <c r="M129" s="26"/>
+      <c r="N129" s="26"/>
+      <c r="O129" s="26"/>
+      <c r="P129" s="26"/>
+      <c r="Q129" s="26"/>
+      <c r="R129" s="26"/>
+      <c r="S129" s="26"/>
+      <c r="T129" s="26"/>
+      <c r="U129" s="26"/>
+      <c r="V129" s="26"/>
+      <c r="W129" s="26"/>
+      <c r="X129" s="26"/>
+      <c r="Y129" s="26"/>
+      <c r="Z129" s="26"/>
+    </row>
+    <row r="130" spans="1:26" s="27" customFormat="1">
+      <c r="A130" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B130" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C130" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="D130" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E130" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="F130" s="34"/>
+      <c r="G130" s="24"/>
+      <c r="H130" t="s">
+        <v>30</v>
+      </c>
+      <c r="I130" s="26"/>
+      <c r="J130" s="26"/>
+      <c r="K130" s="26"/>
+      <c r="L130" s="26"/>
+      <c r="M130" s="26"/>
+      <c r="N130" s="26"/>
+      <c r="O130" s="26"/>
+      <c r="P130" s="26"/>
+      <c r="Q130" s="26"/>
+      <c r="R130" s="26"/>
+      <c r="S130" s="26"/>
+      <c r="T130" s="26"/>
+      <c r="U130" s="26"/>
+      <c r="V130" s="26"/>
+      <c r="W130" s="26"/>
+      <c r="X130" s="26"/>
+      <c r="Y130" s="26"/>
+      <c r="Z130" s="26"/>
+    </row>
+    <row r="131" spans="1:26" s="27" customFormat="1">
+      <c r="A131" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B131" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C131" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="D131" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E131" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="F131" s="34"/>
+      <c r="G131" s="24"/>
+      <c r="H131" t="s">
+        <v>30</v>
+      </c>
+      <c r="I131" s="26"/>
+      <c r="J131" s="26"/>
+      <c r="K131" s="26"/>
+      <c r="L131" s="26"/>
+      <c r="M131" s="26"/>
+      <c r="N131" s="26"/>
+      <c r="O131" s="26"/>
+      <c r="P131" s="26"/>
+      <c r="Q131" s="26"/>
+      <c r="R131" s="26"/>
+      <c r="S131" s="26"/>
+      <c r="T131" s="26"/>
+      <c r="U131" s="26"/>
+      <c r="V131" s="26"/>
+      <c r="W131" s="26"/>
+      <c r="X131" s="26"/>
+      <c r="Y131" s="26"/>
+      <c r="Z131" s="26"/>
+    </row>
+    <row r="132" spans="1:26" s="27" customFormat="1">
+      <c r="A132" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B132" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C132" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="D132" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="F132" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="G132" s="24"/>
+      <c r="H132" t="s">
+        <v>30</v>
+      </c>
+      <c r="I132" s="26"/>
+      <c r="J132" s="26"/>
+      <c r="K132" s="26"/>
+      <c r="L132" s="26"/>
+      <c r="M132" s="26"/>
+      <c r="N132" s="26"/>
+      <c r="O132" s="26"/>
+      <c r="P132" s="26"/>
+      <c r="Q132" s="26"/>
+      <c r="R132" s="26"/>
+      <c r="S132" s="26"/>
+      <c r="T132" s="26"/>
+      <c r="U132" s="26"/>
+      <c r="V132" s="26"/>
+      <c r="W132" s="26"/>
+      <c r="X132" s="26"/>
+      <c r="Y132" s="26"/>
+      <c r="Z132" s="26"/>
+    </row>
+    <row r="133" spans="1:26" s="27" customFormat="1">
+      <c r="A133" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B133" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C133" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="D133" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="E133" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="F133" s="34"/>
+      <c r="G133" s="24"/>
+      <c r="H133" t="s">
+        <v>30</v>
+      </c>
+      <c r="I133" s="26"/>
+      <c r="J133" s="26"/>
+      <c r="K133" s="26"/>
+      <c r="L133" s="26"/>
+      <c r="M133" s="26"/>
+      <c r="N133" s="26"/>
+      <c r="O133" s="26"/>
+      <c r="P133" s="26"/>
+      <c r="Q133" s="26"/>
+      <c r="R133" s="26"/>
+      <c r="S133" s="26"/>
+      <c r="T133" s="26"/>
+      <c r="U133" s="26"/>
+      <c r="V133" s="26"/>
+      <c r="W133" s="26"/>
+      <c r="X133" s="26"/>
+      <c r="Y133" s="26"/>
+      <c r="Z133" s="26"/>
+    </row>
+    <row r="134" spans="1:26" s="27" customFormat="1">
+      <c r="A134" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B134" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C134" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="D134" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E134" s="35" t="s">
+        <v>357</v>
+      </c>
+      <c r="F134" s="34"/>
+      <c r="G134" s="24"/>
+      <c r="H134" t="s">
+        <v>30</v>
+      </c>
+      <c r="I134" s="26"/>
+      <c r="J134" s="26"/>
+      <c r="K134" s="26"/>
+      <c r="L134" s="26"/>
+      <c r="M134" s="26"/>
+      <c r="N134" s="26"/>
+      <c r="O134" s="26"/>
+      <c r="P134" s="26"/>
+      <c r="Q134" s="26"/>
+      <c r="R134" s="26"/>
+      <c r="S134" s="26"/>
+      <c r="T134" s="26"/>
+      <c r="U134" s="26"/>
+      <c r="V134" s="26"/>
+      <c r="W134" s="26"/>
+      <c r="X134" s="26"/>
+      <c r="Y134" s="26"/>
+      <c r="Z134" s="26"/>
+    </row>
+    <row r="135" spans="1:26" s="27" customFormat="1">
+      <c r="A135" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B135" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C135" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="D135" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E135" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="F135" s="34"/>
+      <c r="G135" s="24"/>
+      <c r="H135" t="s">
+        <v>30</v>
+      </c>
+      <c r="I135" s="26"/>
+      <c r="J135" s="26"/>
+      <c r="K135" s="26"/>
+      <c r="L135" s="26"/>
+      <c r="M135" s="26"/>
+      <c r="N135" s="26"/>
+      <c r="O135" s="26"/>
+      <c r="P135" s="26"/>
+      <c r="Q135" s="26"/>
+      <c r="R135" s="26"/>
+      <c r="S135" s="26"/>
+      <c r="T135" s="26"/>
+      <c r="U135" s="26"/>
+      <c r="V135" s="26"/>
+      <c r="W135" s="26"/>
+      <c r="X135" s="26"/>
+      <c r="Y135" s="26"/>
+      <c r="Z135" s="26"/>
+    </row>
+    <row r="136" spans="1:26" s="27" customFormat="1">
+      <c r="A136" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B136" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="C136" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="D136" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="E136" s="35">
+        <v>20</v>
+      </c>
+      <c r="F136" s="34"/>
+      <c r="G136" s="24"/>
+      <c r="H136" t="s">
+        <v>30</v>
+      </c>
+      <c r="I136" s="26"/>
+      <c r="J136" s="26"/>
+      <c r="K136" s="26"/>
+      <c r="L136" s="26"/>
+      <c r="M136" s="26"/>
+      <c r="N136" s="26"/>
+      <c r="O136" s="26"/>
+      <c r="P136" s="26"/>
+      <c r="Q136" s="26"/>
+      <c r="R136" s="26"/>
+      <c r="S136" s="26"/>
+      <c r="T136" s="26"/>
+      <c r="U136" s="26"/>
+      <c r="V136" s="26"/>
+      <c r="W136" s="26"/>
+      <c r="X136" s="26"/>
+      <c r="Y136" s="26"/>
+      <c r="Z136" s="26"/>
+    </row>
+    <row r="137" spans="1:26" s="27" customFormat="1">
+      <c r="A137" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B137" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="C137" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="D137" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E137" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="F137" s="34"/>
+      <c r="G137" s="24"/>
+      <c r="H137" t="s">
+        <v>30</v>
+      </c>
+      <c r="I137" s="26"/>
+      <c r="J137" s="26"/>
+      <c r="K137" s="26"/>
+      <c r="L137" s="26"/>
+      <c r="M137" s="26"/>
+      <c r="N137" s="26"/>
+      <c r="O137" s="26"/>
+      <c r="P137" s="26"/>
+      <c r="Q137" s="26"/>
+      <c r="R137" s="26"/>
+      <c r="S137" s="26"/>
+      <c r="T137" s="26"/>
+      <c r="U137" s="26"/>
+      <c r="V137" s="26"/>
+      <c r="W137" s="26"/>
+      <c r="X137" s="26"/>
+      <c r="Y137" s="26"/>
+      <c r="Z137" s="26"/>
+    </row>
+    <row r="138" spans="1:26" s="27" customFormat="1">
+      <c r="A138" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B138" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="C138" s="34"/>
+      <c r="D138" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E138" s="34"/>
+      <c r="F138" s="34"/>
+      <c r="G138" s="24"/>
+      <c r="H138" t="s">
+        <v>30</v>
+      </c>
+      <c r="I138" s="26"/>
+      <c r="J138" s="26"/>
+      <c r="K138" s="26"/>
+      <c r="L138" s="26"/>
+      <c r="M138" s="26"/>
+      <c r="N138" s="26"/>
+      <c r="O138" s="26"/>
+      <c r="P138" s="26"/>
+      <c r="Q138" s="26"/>
+      <c r="R138" s="26"/>
+      <c r="S138" s="26"/>
+      <c r="T138" s="26"/>
+      <c r="U138" s="26"/>
+      <c r="V138" s="26"/>
+      <c r="W138" s="26"/>
+      <c r="X138" s="26"/>
+      <c r="Y138" s="26"/>
+      <c r="Z138" s="26"/>
+    </row>
+    <row r="139" spans="1:26" s="27" customFormat="1">
+      <c r="A139" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B139" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="C139" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="D139" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E139" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="F139" s="34"/>
+      <c r="G139" s="24"/>
+      <c r="H139" t="s">
+        <v>30</v>
+      </c>
+      <c r="I139" s="26"/>
+      <c r="J139" s="26"/>
+      <c r="K139" s="26"/>
+      <c r="L139" s="26"/>
+      <c r="M139" s="26"/>
+      <c r="N139" s="26"/>
+      <c r="O139" s="26"/>
+      <c r="P139" s="26"/>
+      <c r="Q139" s="26"/>
+      <c r="R139" s="26"/>
+      <c r="S139" s="26"/>
+      <c r="T139" s="26"/>
+      <c r="U139" s="26"/>
+      <c r="V139" s="26"/>
+      <c r="W139" s="26"/>
+      <c r="X139" s="26"/>
+      <c r="Y139" s="26"/>
+      <c r="Z139" s="26"/>
+    </row>
+    <row r="140" spans="1:26" s="27" customFormat="1">
+      <c r="A140" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B140" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="C140" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="D140" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E140" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="F140" s="35"/>
+      <c r="G140" s="24"/>
+      <c r="H140" t="s">
+        <v>30</v>
+      </c>
+      <c r="I140" s="26"/>
+      <c r="J140" s="26"/>
+      <c r="K140" s="26"/>
+      <c r="L140" s="26"/>
+      <c r="M140" s="26"/>
+      <c r="N140" s="26"/>
+      <c r="O140" s="26"/>
+      <c r="P140" s="26"/>
+      <c r="Q140" s="26"/>
+      <c r="R140" s="26"/>
+      <c r="S140" s="26"/>
+      <c r="T140" s="26"/>
+      <c r="U140" s="26"/>
+      <c r="V140" s="26"/>
+      <c r="W140" s="26"/>
+      <c r="X140" s="26"/>
+      <c r="Y140" s="26"/>
+      <c r="Z140" s="26"/>
+    </row>
+    <row r="141" spans="1:26" s="27" customFormat="1">
+      <c r="A141" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B141" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="C141" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="D141" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="E141" s="35" t="s">
+        <v>367</v>
+      </c>
+      <c r="F141" s="35"/>
+      <c r="G141" s="24"/>
+      <c r="H141" t="s">
+        <v>30</v>
+      </c>
+      <c r="I141" s="26"/>
+      <c r="J141" s="26"/>
+      <c r="K141" s="26"/>
+      <c r="L141" s="26"/>
+      <c r="M141" s="26"/>
+      <c r="N141" s="26"/>
+      <c r="O141" s="26"/>
+      <c r="P141" s="26"/>
+      <c r="Q141" s="26"/>
+      <c r="R141" s="26"/>
+      <c r="S141" s="26"/>
+      <c r="T141" s="26"/>
+      <c r="U141" s="26"/>
+      <c r="V141" s="26"/>
+      <c r="W141" s="26"/>
+      <c r="X141" s="26"/>
+      <c r="Y141" s="26"/>
+      <c r="Z141" s="26"/>
+    </row>
+    <row r="142" spans="1:26" s="27" customFormat="1">
+      <c r="A142" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B142" s="34" t="s">
+        <v>372</v>
+      </c>
+      <c r="C142" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E142" s="34"/>
+      <c r="F142" s="34"/>
+      <c r="G142" s="24"/>
+      <c r="H142" t="s">
+        <v>30</v>
+      </c>
+      <c r="I142" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="J142" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K142" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L142" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="M142" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="N142" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="O142" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="P142" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q142" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="R142" s="26"/>
+      <c r="S142" s="26"/>
+      <c r="T142" s="26"/>
+      <c r="U142" s="26"/>
+      <c r="V142" s="26"/>
+      <c r="W142" s="26"/>
+      <c r="X142" s="26"/>
+      <c r="Y142" s="26"/>
+      <c r="Z142" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6466,11 +8655,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" customWidth="true" style="7" width="28.28515625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="7" width="25.140625" collapsed="true"/>
@@ -6483,7 +8672,7 @@
     <col min="19" max="16384" style="7" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="6" t="s">
         <v>47</v>
       </c>
@@ -6539,15 +8728,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="23" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>58</v>
@@ -6588,10 +8777,10 @@
         <v>12</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="23" t="s">
         <v>55</v>
       </c>
@@ -6643,7 +8832,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="23" t="s">
         <v>56</v>
       </c>
@@ -6695,7 +8884,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="23" t="s">
         <v>57</v>
       </c>
@@ -6747,7 +8936,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="23" t="s">
         <v>58</v>
       </c>
@@ -6799,7 +8988,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="23" t="s">
         <v>58</v>
       </c>
@@ -6851,7 +9040,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="23" t="s">
         <v>58</v>
       </c>
@@ -6903,7 +9092,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="23" t="s">
         <v>58</v>
       </c>
@@ -6955,7 +9144,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="23" t="s">
         <v>58</v>
       </c>
@@ -7007,7 +9196,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="23" t="s">
         <v>58</v>
       </c>
@@ -7077,7 +9266,7 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="33.7109375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
@@ -7085,7 +9274,7 @@
     <col min="4" max="4" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="7" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>47</v>
       </c>
@@ -7141,7 +9330,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="7" customFormat="1">
       <c r="A2" s="23" t="s">
         <v>247</v>
       </c>
@@ -7193,7 +9382,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="7" customFormat="1">
       <c r="A3" s="23" t="s">
         <v>55</v>
       </c>
@@ -7245,7 +9434,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="7" customFormat="1">
       <c r="A4" s="23" t="s">
         <v>56</v>
       </c>
@@ -7297,7 +9486,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="7" customFormat="1">
       <c r="A5" s="23" t="s">
         <v>57</v>
       </c>
@@ -7349,7 +9538,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="7" customFormat="1">
       <c r="A6" s="23" t="s">
         <v>58</v>
       </c>
@@ -7401,7 +9590,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="7" customFormat="1">
       <c r="A7" s="23" t="s">
         <v>58</v>
       </c>
@@ -7453,7 +9642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="7" customFormat="1">
       <c r="A8" s="23" t="s">
         <v>58</v>
       </c>
@@ -7505,7 +9694,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="7" customFormat="1">
       <c r="A9" s="23" t="s">
         <v>58</v>
       </c>
@@ -7557,7 +9746,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="7" customFormat="1">
       <c r="A10" s="23" t="s">
         <v>58</v>
       </c>
@@ -7609,7 +9798,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="7" customFormat="1">
       <c r="A11" s="23" t="s">
         <v>58</v>
       </c>
@@ -7664,4 +9853,165 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="62.4765625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A1" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+    </row>
+    <row r="2" spans="1:33" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A2" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
+++ b/src/test/java/com/genvideo/xls/Creator_Platform.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700" tabRatio="826" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700" tabRatio="826"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1999" uniqueCount="377">
   <si>
     <t>TCID</t>
   </si>
@@ -772,31 +772,313 @@
     <t>genvideotest1078@gmail.com</t>
   </si>
   <si>
-    <t>genvideotest1356@gmail.com</t>
-  </si>
-  <si>
-    <t>genvideotest1357@gmail.com</t>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>video1</t>
+  </si>
+  <si>
+    <t>video2</t>
+  </si>
+  <si>
+    <t>image1</t>
+  </si>
+  <si>
+    <t>image2</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>title1</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>description1</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>addTags</t>
+  </si>
+  <si>
+    <t>addTags1</t>
+  </si>
+  <si>
+    <t>genvideotest1327@gmail.com</t>
+  </si>
+  <si>
+    <t>Videonew</t>
+  </si>
+  <si>
+    <t>description for the video</t>
+  </si>
+  <si>
+    <t>new description for the video</t>
+  </si>
+  <si>
+    <t>moshi</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>testing1</t>
+  </si>
+  <si>
+    <t>video_password</t>
+  </si>
+  <si>
+    <t>Click on Login</t>
+  </si>
+  <si>
+    <t>video_login</t>
+  </si>
+  <si>
+    <t>Click on the upload button</t>
+  </si>
+  <si>
+    <t>video_uploadClick</t>
+  </si>
+  <si>
+    <t>Click on “I am not uploading for a campaign”</t>
+  </si>
+  <si>
+    <t>video_chooseACampaign</t>
+  </si>
+  <si>
+    <t>Click on “Select File” in the video upload section and upload a video</t>
+  </si>
+  <si>
+    <t>video_uploadNewVideo</t>
+  </si>
+  <si>
+    <t>col|video1</t>
+  </si>
+  <si>
+    <t>Click on “Select File” in the image upload section and upload an image</t>
+  </si>
+  <si>
+    <t>video_uploadnewImage</t>
+  </si>
+  <si>
+    <t>col|image1</t>
+  </si>
+  <si>
+    <t>Make the title field blank</t>
+  </si>
+  <si>
+    <t>clearInputText</t>
+  </si>
+  <si>
+    <t>video_title</t>
+  </si>
+  <si>
+    <t>Enter title</t>
+  </si>
+  <si>
+    <t>col|title</t>
+  </si>
+  <si>
+    <t>Enter Description</t>
+  </si>
+  <si>
+    <t>video_description</t>
+  </si>
+  <si>
+    <t>col|description</t>
+  </si>
+  <si>
+    <t>Enter product name or SKU to filter</t>
+  </si>
+  <si>
+    <t>video_productListingOption</t>
+  </si>
+  <si>
+    <t>col|productName</t>
+  </si>
+  <si>
+    <t>Select an item from the list</t>
+  </si>
+  <si>
+    <t>video_selectMoshiOption</t>
+  </si>
+  <si>
+    <t>Click on a star</t>
+  </si>
+  <si>
+    <t>video_clickStar</t>
+  </si>
+  <si>
+    <t>Click on “Add tags” edit box and enter some data</t>
+  </si>
+  <si>
+    <t>video_addTagsEdit</t>
+  </si>
+  <si>
+    <t>col|addTags</t>
+  </si>
+  <si>
+    <t>click Enter</t>
+  </si>
+  <si>
+    <t>enter</t>
+  </si>
+  <si>
+    <t>Click on finish button</t>
+  </si>
+  <si>
+    <t>video_finish</t>
+  </si>
+  <si>
+    <t>Wait for spinner to hide</t>
+  </si>
+  <si>
+    <t>pause</t>
+  </si>
+  <si>
+    <t>Click on back to videos</t>
+  </si>
+  <si>
+    <t>video_backToVideos</t>
+  </si>
+  <si>
+    <t>Open up the Embed Code button</t>
+  </si>
+  <si>
+    <t>video_embedCodeOpen</t>
+  </si>
+  <si>
+    <t>Close the Embed Code button</t>
+  </si>
+  <si>
+    <t>video_embedCodeClose</t>
+  </si>
+  <si>
+    <t>Open up the Affiliate Link button</t>
+  </si>
+  <si>
+    <t>video_affiliateLinkButton</t>
+  </si>
+  <si>
+    <t>Close the Affiliate Link button</t>
+  </si>
+  <si>
+    <t>video_affiliateLinkButtonClose</t>
+  </si>
+  <si>
+    <t>col|video2</t>
+  </si>
+  <si>
+    <t>col|image2</t>
+  </si>
+  <si>
+    <t>col|title1</t>
+  </si>
+  <si>
+    <t>Make the description field blank</t>
+  </si>
+  <si>
+    <t>col|description1</t>
+  </si>
+  <si>
+    <t>Clear the Enter product name or SKU to filter</t>
+  </si>
+  <si>
+    <t>col|addTags1</t>
+  </si>
+  <si>
+    <t>Uncheck the "publish to youtube" button</t>
+  </si>
+  <si>
+    <t>video_uncheckPublishToYoutube</t>
+  </si>
+  <si>
+    <t>TS048</t>
+  </si>
+  <si>
+    <t>TS049</t>
+  </si>
+  <si>
+    <t>Click on the Videos button</t>
+  </si>
+  <si>
+    <t>video_VIDEOSClick</t>
+  </si>
+  <si>
+    <t>TS050</t>
+  </si>
+  <si>
+    <t>Click on the "Publish to Youtube" button for the first video</t>
+  </si>
+  <si>
+    <t>video_publishToYoutube</t>
+  </si>
+  <si>
+    <t>Verify the url</t>
+  </si>
+  <si>
+    <t>verifyURL</t>
+  </si>
+  <si>
+    <t>video_publishDesc</t>
+  </si>
+  <si>
+    <t>video_email</t>
+  </si>
+  <si>
+    <t>TS051</t>
+  </si>
+  <si>
+    <t>TS052</t>
+  </si>
+  <si>
+    <t>TS053</t>
+  </si>
+  <si>
+    <t>TS054</t>
+  </si>
+  <si>
+    <t>test.mp4</t>
+  </si>
+  <si>
+    <t>Test2.mp4</t>
+  </si>
+  <si>
+    <t>male_user_icon.png</t>
+  </si>
+  <si>
+    <t>image2.png</t>
+  </si>
+  <si>
+    <t>genvideotest1358@gmail.com</t>
+  </si>
+  <si>
+    <t>genvideotest1359@gmail.com</t>
   </si>
   <si>
     <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"(//button[@class='btn btn-lg btn-warning2'])[2]"}
-Command duration or timeout: 24.78 seconds
+Command duration or timeout: 21.09 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
+Session ID: 3c772b67-a224-4d2a-942e-d2066666f8eb
 *** Element info: {Using=xpath, value=(//button[@class='btn btn-lg btn-warning2'])[2]}</t>
   </si>
   <si>
     <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":".btn.btn-default.field-25.female"}
-Command duration or timeout: 20.12 seconds
+Command duration or timeout: 20.13 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
+Session ID: 3c772b67-a224-4d2a-942e-d2066666f8eb
 *** Element info: {Using=css selector, value=.btn.btn-default.field-25.female}</t>
   </si>
   <si>
@@ -804,142 +1086,142 @@
 Command duration or timeout: 20.12 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
+Session ID: 3c772b67-a224-4d2a-942e-d2066666f8eb
 *** Element info: {Using=css selector, value=#exampleInput}</t>
   </si>
   <si>
     <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 3c772b67-a224-4d2a-942e-d2066666f8eb
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 3c772b67-a224-4d2a-942e-d2066666f8eb
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button"}
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/button}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a"}
-Command duration or timeout: 20.02 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[1]/div/ul/li[2]/a}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button"}
+Session ID: 3c772b67-a224-4d2a-942e-d2066666f8eb
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a"}
 Command duration or timeout: 20.12 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/button}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a"}
+Session ID: 3c772b67-a224-4d2a-942e-d2066666f8eb
+*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address"}
+Command duration or timeout: 20.10 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 3c772b67-a224-4d2a-942e-d2066666f8eb
+*** Element info: {Using=css selector, value=#address}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address2"}
+Command duration or timeout: 20.07 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 3c772b67-a224-4d2a-942e-d2066666f8eb
+*** Element info: {Using=css selector, value=#address2}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#city"}
+Command duration or timeout: 20.03 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 3c772b67-a224-4d2a-942e-d2066666f8eb
+*** Element info: {Using=css selector, value=#city}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"US\"]"}
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
-*** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[3]/div/div[2]/ng-form/div[2]/div[2]/div/ul/li[2]/a}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address"}
+Session ID: 3c772b67-a224-4d2a-942e-d2066666f8eb
+*** Element info: {Using=css selector, value=option[value="US"]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"NY\"]"}
+Command duration or timeout: 20.03 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 3c772b67-a224-4d2a-942e-d2066666f8eb
+*** Element info: {Using=css selector, value=option[value="NY"]}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#zip"}
+Command duration or timeout: 20.05 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 3c772b67-a224-4d2a-942e-d2066666f8eb
+*** Element info: {Using=css selector, value=#zip}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]"}
+Command duration or timeout: 20.04 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 3c772b67-a224-4d2a-942e-d2066666f8eb
+*** Element info: {Using=xpath, value=.//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#youtube_rate"}
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
-*** Element info: {Using=css selector, value=#address}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#address2"}
-Command duration or timeout: 20.14 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
-*** Element info: {Using=css selector, value=#address2}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#city"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
-*** Element info: {Using=css selector, value=#city}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"US\"]"}
-Command duration or timeout: 20.03 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
-*** Element info: {Using=css selector, value=option[value="US"]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":"option[value=\"NY\"]"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
-*** Element info: {Using=css selector, value=option[value="NY"]}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#zip"}
-Command duration or timeout: 20.11 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
-*** Element info: {Using=css selector, value=#zip}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]"}
-Command duration or timeout: 20.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
-*** Element info: {Using=xpath, value=.//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#youtube_rate"}
-Command duration or timeout: 20.03 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
+Session ID: 3c772b67-a224-4d2a-942e-d2066666f8eb
 *** Element info: {Using=css selector, value=#youtube_rate}</t>
   </si>
   <si>
@@ -947,10 +1229,10 @@
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
+Session ID: 3c772b67-a224-4d2a-942e-d2066666f8eb
 *** Element info: {Using=css selector, value=#video_only_rate}</t>
   </si>
   <si>
@@ -958,10 +1240,10 @@
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
+Session ID: 3c772b67-a224-4d2a-942e-d2066666f8eb
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/input}</t>
   </si>
   <si>
@@ -969,10 +1251,10 @@
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
+Session ID: 3c772b67-a224-4d2a-942e-d2066666f8eb
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[4]/div/tags-search/div/div/ul/li[3]}</t>
   </si>
   <si>
@@ -980,10 +1262,10 @@
 Command duration or timeout: 20.12 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
+Session ID: 3c772b67-a224-4d2a-942e-d2066666f8eb
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[1]}</t>
   </si>
   <si>
@@ -991,10 +1273,10 @@
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
+Session ID: 3c772b67-a224-4d2a-942e-d2066666f8eb
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[2]}</t>
   </si>
   <si>
@@ -1002,21 +1284,21 @@
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
+Session ID: 3c772b67-a224-4d2a-942e-d2066666f8eb
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[3]}</t>
   </si>
   <si>
     <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]"}
-Command duration or timeout: 20.11 seconds
+Command duration or timeout: 20.01 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
+Session ID: 3c772b67-a224-4d2a-942e-d2066666f8eb
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[4]}</t>
   </si>
   <si>
@@ -1024,21 +1306,21 @@
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
+Session ID: 3c772b67-a224-4d2a-942e-d2066666f8eb
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[5]}</t>
   </si>
   <si>
     <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]"}
-Command duration or timeout: 20.08 seconds
+Command duration or timeout: 20.06 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
+Session ID: 3c772b67-a224-4d2a-942e-d2066666f8eb
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[6]}</t>
   </si>
   <si>
@@ -1046,32 +1328,32 @@
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
+Session ID: 3c772b67-a224-4d2a-942e-d2066666f8eb
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[7]}</t>
   </si>
   <si>
     <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]"}
-Command duration or timeout: 20.03 seconds
+Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
+Session ID: 3c772b67-a224-4d2a-942e-d2066666f8eb
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[8]}</t>
   </si>
   <si>
     <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]"}
-Command duration or timeout: 20.12 seconds
+Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
+Session ID: 3c772b67-a224-4d2a-942e-d2066666f8eb
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[9]}</t>
   </si>
   <si>
@@ -1079,10 +1361,10 @@
 Command duration or timeout: 20.02 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
+Session ID: 3c772b67-a224-4d2a-942e-d2066666f8eb
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[5]/div/div/label[10]}</t>
   </si>
   <si>
@@ -1090,336 +1372,50 @@
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
+Session ID: 3c772b67-a224-4d2a-942e-d2066666f8eb
 *** Element info: {Using=xpath, value=html/body/div[2]/div/div/div/div/div/div[2]/div[4]/div/div[2]/ng-form/div[6]/div[1]/div/label}</t>
   </si>
   <si>
     <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]"}
+Command duration or timeout: 20.03 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 3c772b67-a224-4d2a-942e-d2066666f8eb
+*** Element info: {Using=xpath, value=.//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Visit Offers')]"}
 Command duration or timeout: 20.11 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
-*** Element info: {Using=xpath, value=.//*[@id='wrap']/div/div/div/div/div/div[3]/div/div/button[2]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Visit Offers')]"}
-Command duration or timeout: 20.12 seconds
+Session ID: 3c772b67-a224-4d2a-942e-d2066666f8eb
+*** Element info: {Using=xpath, value=//a[contains(text(),'Visit Offers')]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/header/nav/div[2]/ul[1]/li[3]/a"}
+Command duration or timeout: 20.13 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
-*** Element info: {Using=xpath, value=//a[contains(text(),'Visit Offers')]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/header/nav/div[2]/ul[1]/li[3]/a"}
-Command duration or timeout: 20.14 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: a7c4de89-fde7-42ea-8c1e-64388d921631
+Session ID: 3c772b67-a224-4d2a-942e-d2066666f8eb
 *** Element info: {Using=xpath, value=html/body/header/nav/div[2]/ul[1]/li[3]/a}</t>
-  </si>
-  <si>
-    <t>Video</t>
-  </si>
-  <si>
-    <t>video1</t>
-  </si>
-  <si>
-    <t>video2</t>
-  </si>
-  <si>
-    <t>image1</t>
-  </si>
-  <si>
-    <t>image2</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>title1</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>description1</t>
-  </si>
-  <si>
-    <t>productName</t>
-  </si>
-  <si>
-    <t>addTags</t>
-  </si>
-  <si>
-    <t>addTags1</t>
-  </si>
-  <si>
-    <t>genvideotest1327@gmail.com</t>
-  </si>
-  <si>
-    <t>Videonew</t>
-  </si>
-  <si>
-    <t>description for the video</t>
-  </si>
-  <si>
-    <t>new description for the video</t>
-  </si>
-  <si>
-    <t>moshi</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>testing1</t>
-  </si>
-  <si>
-    <t>video_password</t>
-  </si>
-  <si>
-    <t>Click on Login</t>
-  </si>
-  <si>
-    <t>video_login</t>
-  </si>
-  <si>
-    <t>Click on the upload button</t>
-  </si>
-  <si>
-    <t>video_uploadClick</t>
-  </si>
-  <si>
-    <t>Click on “I am not uploading for a campaign”</t>
-  </si>
-  <si>
-    <t>video_chooseACampaign</t>
-  </si>
-  <si>
-    <t>Click on “Select File” in the video upload section and upload a video</t>
-  </si>
-  <si>
-    <t>video_uploadNewVideo</t>
-  </si>
-  <si>
-    <t>col|video1</t>
-  </si>
-  <si>
-    <t>Click on “Select File” in the image upload section and upload an image</t>
-  </si>
-  <si>
-    <t>video_uploadnewImage</t>
-  </si>
-  <si>
-    <t>col|image1</t>
-  </si>
-  <si>
-    <t>Make the title field blank</t>
-  </si>
-  <si>
-    <t>clearInputText</t>
-  </si>
-  <si>
-    <t>video_title</t>
-  </si>
-  <si>
-    <t>Enter title</t>
-  </si>
-  <si>
-    <t>col|title</t>
-  </si>
-  <si>
-    <t>Enter Description</t>
-  </si>
-  <si>
-    <t>video_description</t>
-  </si>
-  <si>
-    <t>col|description</t>
-  </si>
-  <si>
-    <t>Enter product name or SKU to filter</t>
-  </si>
-  <si>
-    <t>video_productListingOption</t>
-  </si>
-  <si>
-    <t>col|productName</t>
-  </si>
-  <si>
-    <t>Select an item from the list</t>
-  </si>
-  <si>
-    <t>video_selectMoshiOption</t>
-  </si>
-  <si>
-    <t>Click on a star</t>
-  </si>
-  <si>
-    <t>video_clickStar</t>
-  </si>
-  <si>
-    <t>Click on “Add tags” edit box and enter some data</t>
-  </si>
-  <si>
-    <t>video_addTagsEdit</t>
-  </si>
-  <si>
-    <t>col|addTags</t>
-  </si>
-  <si>
-    <t>click Enter</t>
-  </si>
-  <si>
-    <t>enter</t>
-  </si>
-  <si>
-    <t>Click on finish button</t>
-  </si>
-  <si>
-    <t>video_finish</t>
-  </si>
-  <si>
-    <t>Wait for spinner to hide</t>
-  </si>
-  <si>
-    <t>pause</t>
-  </si>
-  <si>
-    <t>Click on back to videos</t>
-  </si>
-  <si>
-    <t>video_backToVideos</t>
-  </si>
-  <si>
-    <t>Open up the Embed Code button</t>
-  </si>
-  <si>
-    <t>video_embedCodeOpen</t>
-  </si>
-  <si>
-    <t>Close the Embed Code button</t>
-  </si>
-  <si>
-    <t>video_embedCodeClose</t>
-  </si>
-  <si>
-    <t>Open up the Affiliate Link button</t>
-  </si>
-  <si>
-    <t>video_affiliateLinkButton</t>
-  </si>
-  <si>
-    <t>Close the Affiliate Link button</t>
-  </si>
-  <si>
-    <t>video_affiliateLinkButtonClose</t>
-  </si>
-  <si>
-    <t>col|video2</t>
-  </si>
-  <si>
-    <t>col|image2</t>
-  </si>
-  <si>
-    <t>col|title1</t>
-  </si>
-  <si>
-    <t>Make the description field blank</t>
-  </si>
-  <si>
-    <t>col|description1</t>
-  </si>
-  <si>
-    <t>Clear the Enter product name or SKU to filter</t>
-  </si>
-  <si>
-    <t>col|addTags1</t>
-  </si>
-  <si>
-    <t>Uncheck the "publish to youtube" button</t>
-  </si>
-  <si>
-    <t>video_uncheckPublishToYoutube</t>
-  </si>
-  <si>
-    <t>TS048</t>
-  </si>
-  <si>
-    <t>TS049</t>
-  </si>
-  <si>
-    <t>Click on the Videos button</t>
-  </si>
-  <si>
-    <t>video_VIDEOSClick</t>
-  </si>
-  <si>
-    <t>TS050</t>
-  </si>
-  <si>
-    <t>Click on the "Publish to Youtube" button for the first video</t>
-  </si>
-  <si>
-    <t>video_publishToYoutube</t>
-  </si>
-  <si>
-    <t>Verify the url</t>
-  </si>
-  <si>
-    <t>verifyURL</t>
-  </si>
-  <si>
-    <t>video_publishDesc</t>
-  </si>
-  <si>
-    <t>video_email</t>
-  </si>
-  <si>
-    <t>TS051</t>
-  </si>
-  <si>
-    <t>TS052</t>
-  </si>
-  <si>
-    <t>TS053</t>
-  </si>
-  <si>
-    <t>TS054</t>
-  </si>
-  <si>
-    <t>test.mp4</t>
-  </si>
-  <si>
-    <t>Test2.mp4</t>
-  </si>
-  <si>
-    <t>male_user_icon.png</t>
-  </si>
-  <si>
-    <t>image2.png</t>
-  </si>
-  <si>
-    <t>FAILException occured while verifying urlString index out of range: -1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="13">
     <font>
       <sz val="11"/>
@@ -2122,16 +2118,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="23.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="37.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="8.85546875" collapsed="true"/>
+    <col min="1" max="1" width="23.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.85546875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -2151,7 +2147,7 @@
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="4" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75">
@@ -2165,7 +2161,7 @@
     </row>
     <row r="4" spans="1:26" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="A4" s="24" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="24" t="s">
@@ -2209,23 +2205,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="16.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="6.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="64.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="23.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="37.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="23.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="15.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="255.0" collapsed="true"/>
-    <col min="9" max="16" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="8.5703125" collapsed="true"/>
-    <col min="18" max="16384" style="2" width="8.85546875" collapsed="true"/>
+    <col min="1" max="1" width="16.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="6" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="64.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="37.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="255" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16" width="7.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="16384" width="8.85546875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -2792,7 +2788,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" t="s">
-        <v>251</v>
+        <v>345</v>
       </c>
       <c r="I12" t="s">
         <v>27</v>
@@ -2886,7 +2882,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" t="s">
-        <v>252</v>
+        <v>346</v>
       </c>
       <c r="I14" t="s">
         <v>27</v>
@@ -2937,7 +2933,7 @@
       </c>
       <c r="G15" s="3"/>
       <c r="H15" t="s">
-        <v>253</v>
+        <v>347</v>
       </c>
       <c r="I15" t="s">
         <v>27</v>
@@ -2986,7 +2982,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" t="s">
-        <v>254</v>
+        <v>348</v>
       </c>
       <c r="I16" t="s">
         <v>27</v>
@@ -3035,7 +3031,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" t="s">
-        <v>255</v>
+        <v>349</v>
       </c>
       <c r="I17" t="s">
         <v>27</v>
@@ -3084,7 +3080,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" t="s">
-        <v>256</v>
+        <v>350</v>
       </c>
       <c r="I18" t="s">
         <v>27</v>
@@ -3133,7 +3129,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" t="s">
-        <v>257</v>
+        <v>351</v>
       </c>
       <c r="I19" t="s">
         <v>27</v>
@@ -3184,7 +3180,7 @@
       </c>
       <c r="G20" s="3"/>
       <c r="H20" t="s">
-        <v>258</v>
+        <v>352</v>
       </c>
       <c r="I20" t="s">
         <v>27</v>
@@ -3235,7 +3231,7 @@
       </c>
       <c r="G21" s="3"/>
       <c r="H21" t="s">
-        <v>259</v>
+        <v>353</v>
       </c>
       <c r="I21" t="s">
         <v>27</v>
@@ -3286,7 +3282,7 @@
       </c>
       <c r="G22" s="3"/>
       <c r="H22" t="s">
-        <v>260</v>
+        <v>354</v>
       </c>
       <c r="I22" t="s">
         <v>27</v>
@@ -3335,7 +3331,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" t="s">
-        <v>261</v>
+        <v>355</v>
       </c>
       <c r="I23" t="s">
         <v>27</v>
@@ -3384,7 +3380,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" t="s">
-        <v>262</v>
+        <v>356</v>
       </c>
       <c r="I24" t="s">
         <v>27</v>
@@ -3435,7 +3431,7 @@
       </c>
       <c r="G25" s="3"/>
       <c r="H25" t="s">
-        <v>263</v>
+        <v>357</v>
       </c>
       <c r="I25" t="s">
         <v>27</v>
@@ -3529,7 +3525,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" t="s">
-        <v>264</v>
+        <v>358</v>
       </c>
       <c r="I27" t="s">
         <v>27</v>
@@ -3580,7 +3576,7 @@
       </c>
       <c r="G28" s="3"/>
       <c r="H28" t="s">
-        <v>265</v>
+        <v>359</v>
       </c>
       <c r="I28" t="s">
         <v>27</v>
@@ -3631,7 +3627,7 @@
       </c>
       <c r="G29" s="3"/>
       <c r="H29" t="s">
-        <v>266</v>
+        <v>360</v>
       </c>
       <c r="I29" t="s">
         <v>27</v>
@@ -3682,7 +3678,7 @@
       </c>
       <c r="G30" s="3"/>
       <c r="H30" t="s">
-        <v>267</v>
+        <v>361</v>
       </c>
       <c r="I30" t="s">
         <v>27</v>
@@ -3776,7 +3772,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" t="s">
-        <v>268</v>
+        <v>362</v>
       </c>
       <c r="I32" t="s">
         <v>27</v>
@@ -3825,7 +3821,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" t="s">
-        <v>269</v>
+        <v>363</v>
       </c>
       <c r="I33" t="s">
         <v>27</v>
@@ -3874,7 +3870,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" t="s">
-        <v>270</v>
+        <v>364</v>
       </c>
       <c r="I34" t="s">
         <v>27</v>
@@ -3923,7 +3919,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" t="s">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="I35" t="s">
         <v>27</v>
@@ -3972,7 +3968,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" t="s">
-        <v>272</v>
+        <v>366</v>
       </c>
       <c r="I36" t="s">
         <v>27</v>
@@ -4021,7 +4017,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" t="s">
-        <v>273</v>
+        <v>367</v>
       </c>
       <c r="I37" t="s">
         <v>27</v>
@@ -4070,7 +4066,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" t="s">
-        <v>274</v>
+        <v>368</v>
       </c>
       <c r="I38" t="s">
         <v>27</v>
@@ -4119,7 +4115,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" t="s">
-        <v>275</v>
+        <v>369</v>
       </c>
       <c r="I39" t="s">
         <v>27</v>
@@ -4168,7 +4164,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" t="s">
-        <v>276</v>
+        <v>370</v>
       </c>
       <c r="I40" t="s">
         <v>27</v>
@@ -4217,7 +4213,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" t="s">
-        <v>277</v>
+        <v>371</v>
       </c>
       <c r="I41" t="s">
         <v>27</v>
@@ -4266,7 +4262,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" t="s">
-        <v>278</v>
+        <v>372</v>
       </c>
       <c r="I42" t="s">
         <v>27</v>
@@ -4315,7 +4311,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" t="s">
-        <v>279</v>
+        <v>373</v>
       </c>
       <c r="I43" t="s">
         <v>27</v>
@@ -4364,7 +4360,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" t="s">
-        <v>279</v>
+        <v>373</v>
       </c>
       <c r="I44" t="s">
         <v>27</v>
@@ -4413,7 +4409,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" t="s">
-        <v>280</v>
+        <v>374</v>
       </c>
       <c r="I45" t="s">
         <v>27</v>
@@ -4462,7 +4458,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" t="s">
-        <v>281</v>
+        <v>375</v>
       </c>
       <c r="I46" t="s">
         <v>27</v>
@@ -4511,7 +4507,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" t="s">
-        <v>282</v>
+        <v>376</v>
       </c>
       <c r="I47" t="s">
         <v>27</v>
@@ -6470,7 +6466,7 @@
     </row>
     <row r="89" spans="1:26" s="27" customFormat="1">
       <c r="A89" s="24" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B89" s="34" t="s">
         <v>13</v>
@@ -6510,7 +6506,7 @@
     </row>
     <row r="90" spans="1:26" s="27" customFormat="1">
       <c r="A90" s="24" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B90" s="34" t="s">
         <v>14</v>
@@ -6550,7 +6546,7 @@
     </row>
     <row r="91" spans="1:26" s="27" customFormat="1">
       <c r="A91" s="24" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B91" s="34" t="s">
         <v>15</v>
@@ -6562,7 +6558,7 @@
         <v>11</v>
       </c>
       <c r="E91" s="34" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="F91" s="34" t="s">
         <v>45</v>
@@ -6592,7 +6588,7 @@
     </row>
     <row r="92" spans="1:26" s="27" customFormat="1">
       <c r="A92" s="24" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B92" s="34" t="s">
         <v>16</v>
@@ -6604,7 +6600,7 @@
         <v>11</v>
       </c>
       <c r="E92" s="34" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="F92" s="34" t="s">
         <v>46</v>
@@ -6634,19 +6630,19 @@
     </row>
     <row r="93" spans="1:26" s="27" customFormat="1">
       <c r="A93" s="24" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B93" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C93" s="34" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="D93" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E93" s="34" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="F93" s="34"/>
       <c r="G93" s="24"/>
@@ -6674,7 +6670,7 @@
     </row>
     <row r="94" spans="1:26" s="27" customFormat="1">
       <c r="A94" s="24" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B94" s="34" t="s">
         <v>18</v>
@@ -6710,19 +6706,19 @@
     </row>
     <row r="95" spans="1:26" s="27" customFormat="1">
       <c r="A95" s="24" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B95" s="34" t="s">
         <v>19</v>
       </c>
       <c r="C95" s="34" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="D95" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E95" s="34" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="F95" s="34"/>
       <c r="G95" s="24"/>
@@ -6750,19 +6746,19 @@
     </row>
     <row r="96" spans="1:26" s="27" customFormat="1">
       <c r="A96" s="24" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B96" s="34" t="s">
         <v>20</v>
       </c>
       <c r="C96" s="34" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="D96" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E96" s="34" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="F96" s="34"/>
       <c r="G96" s="24"/>
@@ -6790,20 +6786,20 @@
     </row>
     <row r="97" spans="1:26" s="27" customFormat="1">
       <c r="A97" s="24" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B97" s="34" t="s">
         <v>24</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="E97" s="34"/>
       <c r="F97" s="35" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="G97" s="24"/>
       <c r="H97" t="s">
@@ -6830,20 +6826,20 @@
     </row>
     <row r="98" spans="1:26" s="27" customFormat="1">
       <c r="A98" s="24" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B98" s="34" t="s">
         <v>21</v>
       </c>
       <c r="C98" s="34" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="D98" s="24" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="E98" s="34"/>
       <c r="F98" s="35" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
       <c r="G98" s="24"/>
       <c r="H98" t="s">
@@ -6870,19 +6866,19 @@
     </row>
     <row r="99" spans="1:26" s="27" customFormat="1">
       <c r="A99" s="36" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B99" s="34" t="s">
         <v>59</v>
       </c>
       <c r="C99" s="35" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="D99" s="36" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="E99" s="34" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="F99" s="34"/>
       <c r="G99" s="24"/>
@@ -6910,22 +6906,22 @@
     </row>
     <row r="100" spans="1:26" s="27" customFormat="1">
       <c r="A100" s="24" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B100" s="34" t="s">
         <v>60</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="D100" s="24" t="s">
         <v>11</v>
       </c>
       <c r="E100" s="34" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="F100" s="34" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="G100" s="24"/>
       <c r="H100" t="s">
@@ -6952,22 +6948,22 @@
     </row>
     <row r="101" spans="1:26" s="27" customFormat="1">
       <c r="A101" s="24" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B101" s="34" t="s">
         <v>61</v>
       </c>
       <c r="C101" s="34" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="D101" s="24" t="s">
         <v>11</v>
       </c>
       <c r="E101" s="34" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="F101" s="34" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="G101" s="24"/>
       <c r="H101" t="s">
@@ -6994,22 +6990,22 @@
     </row>
     <row r="102" spans="1:26" s="27" customFormat="1">
       <c r="A102" s="24" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B102" s="34" t="s">
         <v>62</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="D102" s="24" t="s">
         <v>11</v>
       </c>
       <c r="E102" s="34" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="F102" s="34" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="G102" s="24"/>
       <c r="H102" t="s">
@@ -7036,19 +7032,19 @@
     </row>
     <row r="103" spans="1:26" s="27" customFormat="1">
       <c r="A103" s="24" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B103" s="34" t="s">
         <v>63</v>
       </c>
       <c r="C103" s="34" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="D103" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E103" s="35" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="F103" s="34"/>
       <c r="G103" s="24"/>
@@ -7076,19 +7072,19 @@
     </row>
     <row r="104" spans="1:26" s="27" customFormat="1">
       <c r="A104" s="24" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B104" s="34" t="s">
         <v>64</v>
       </c>
       <c r="C104" s="34" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="D104" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E104" s="34" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="F104" s="34"/>
       <c r="G104" s="24"/>
@@ -7116,22 +7112,22 @@
     </row>
     <row r="105" spans="1:26" s="27" customFormat="1">
       <c r="A105" s="24" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B105" s="34" t="s">
         <v>70</v>
       </c>
       <c r="C105" s="34" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="D105" s="24" t="s">
         <v>11</v>
       </c>
       <c r="E105" s="34" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="F105" s="35" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="G105" s="24"/>
       <c r="H105" t="s">
@@ -7158,19 +7154,19 @@
     </row>
     <row r="106" spans="1:26" s="27" customFormat="1">
       <c r="A106" s="24" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B106" s="34" t="s">
         <v>71</v>
       </c>
       <c r="C106" s="34" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="E106" s="34" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="F106" s="34"/>
       <c r="G106" s="24"/>
@@ -7198,19 +7194,19 @@
     </row>
     <row r="107" spans="1:26" s="27" customFormat="1">
       <c r="A107" s="24" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B107" s="34" t="s">
         <v>91</v>
       </c>
       <c r="C107" s="34" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="D107" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E107" s="34" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="F107" s="34"/>
       <c r="G107" s="24"/>
@@ -7238,16 +7234,16 @@
     </row>
     <row r="108" spans="1:26" s="27" customFormat="1">
       <c r="A108" s="36" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B108" s="34" t="s">
         <v>51</v>
       </c>
       <c r="C108" s="35" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="D108" s="36" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="E108" s="35">
         <v>20</v>
@@ -7278,19 +7274,19 @@
     </row>
     <row r="109" spans="1:26" s="27" customFormat="1">
       <c r="A109" s="24" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B109" s="34" t="s">
         <v>92</v>
       </c>
       <c r="C109" s="34" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="D109" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E109" s="35" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="F109" s="34"/>
       <c r="G109" s="24"/>
@@ -7318,7 +7314,7 @@
     </row>
     <row r="110" spans="1:26" s="27" customFormat="1">
       <c r="A110" s="24" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B110" s="34" t="s">
         <v>93</v>
@@ -7354,19 +7350,19 @@
     </row>
     <row r="111" spans="1:26" s="27" customFormat="1">
       <c r="A111" s="24" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B111" s="34" t="s">
         <v>94</v>
       </c>
       <c r="C111" s="34" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="D111" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E111" s="34" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="F111" s="34"/>
       <c r="G111" s="24"/>
@@ -7394,7 +7390,7 @@
     </row>
     <row r="112" spans="1:26" s="27" customFormat="1">
       <c r="A112" s="36" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B112" s="34" t="s">
         <v>95</v>
@@ -7430,19 +7426,19 @@
     </row>
     <row r="113" spans="1:26" s="27" customFormat="1">
       <c r="A113" s="24" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B113" s="34" t="s">
         <v>96</v>
       </c>
       <c r="C113" s="34" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="D113" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E113" s="34" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="F113" s="34"/>
       <c r="G113" s="24"/>
@@ -7470,7 +7466,7 @@
     </row>
     <row r="114" spans="1:26" s="27" customFormat="1">
       <c r="A114" s="36" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B114" s="34" t="s">
         <v>97</v>
@@ -7506,19 +7502,19 @@
     </row>
     <row r="115" spans="1:26" s="27" customFormat="1">
       <c r="A115" s="24" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B115" s="34" t="s">
         <v>100</v>
       </c>
       <c r="C115" s="35" t="s">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="D115" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E115" s="35" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="F115" s="34"/>
       <c r="G115" s="24"/>
@@ -7546,7 +7542,7 @@
     </row>
     <row r="116" spans="1:26" s="27" customFormat="1">
       <c r="A116" s="36" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B116" s="34" t="s">
         <v>101</v>
@@ -7582,19 +7578,19 @@
     </row>
     <row r="117" spans="1:26" s="27" customFormat="1">
       <c r="A117" s="36" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B117" s="34" t="s">
         <v>102</v>
       </c>
       <c r="C117" s="35" t="s">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="D117" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E117" s="35" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="F117" s="34"/>
       <c r="G117" s="24"/>
@@ -7622,16 +7618,16 @@
     </row>
     <row r="118" spans="1:26" s="27" customFormat="1">
       <c r="A118" s="36" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B118" s="34" t="s">
         <v>103</v>
       </c>
       <c r="C118" s="35" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="D118" s="36" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="E118" s="35">
         <v>20</v>
@@ -7662,7 +7658,7 @@
     </row>
     <row r="119" spans="1:26" s="27" customFormat="1">
       <c r="A119" s="36" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B119" s="34" t="s">
         <v>104</v>
@@ -7698,19 +7694,19 @@
     </row>
     <row r="120" spans="1:26" s="27" customFormat="1">
       <c r="A120" s="36" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B120" s="34" t="s">
         <v>105</v>
       </c>
       <c r="C120" s="34" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="D120" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E120" s="34" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="F120" s="34"/>
       <c r="G120" s="24"/>
@@ -7738,19 +7734,19 @@
     </row>
     <row r="121" spans="1:26" s="27" customFormat="1">
       <c r="A121" s="36" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B121" s="34" t="s">
         <v>106</v>
       </c>
       <c r="C121" s="34" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="D121" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E121" s="34" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="F121" s="34"/>
       <c r="G121" s="24"/>
@@ -7778,20 +7774,20 @@
     </row>
     <row r="122" spans="1:26" s="27" customFormat="1">
       <c r="A122" s="36" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B122" s="34" t="s">
         <v>107</v>
       </c>
       <c r="C122" s="34" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="E122" s="34"/>
       <c r="F122" s="35" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="G122" s="24"/>
       <c r="H122" t="s">
@@ -7818,20 +7814,20 @@
     </row>
     <row r="123" spans="1:26" s="27" customFormat="1">
       <c r="A123" s="36" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B123" s="34" t="s">
         <v>108</v>
       </c>
       <c r="C123" s="34" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="D123" s="24" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="E123" s="34"/>
       <c r="F123" s="35" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="G123" s="24"/>
       <c r="H123" t="s">
@@ -7858,19 +7854,19 @@
     </row>
     <row r="124" spans="1:26" s="27" customFormat="1">
       <c r="A124" s="36" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B124" s="34" t="s">
         <v>109</v>
       </c>
       <c r="C124" s="35" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="D124" s="36" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="E124" s="34" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="F124" s="34"/>
       <c r="G124" s="24"/>
@@ -7898,22 +7894,22 @@
     </row>
     <row r="125" spans="1:26" s="27" customFormat="1">
       <c r="A125" s="36" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B125" s="34" t="s">
         <v>110</v>
       </c>
       <c r="C125" s="34" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="D125" s="24" t="s">
         <v>11</v>
       </c>
       <c r="E125" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="F125" s="35" t="s">
         <v>317</v>
-      </c>
-      <c r="F125" s="35" t="s">
-        <v>351</v>
       </c>
       <c r="G125" s="24"/>
       <c r="H125" t="s">
@@ -7940,19 +7936,19 @@
     </row>
     <row r="126" spans="1:26" s="27" customFormat="1">
       <c r="A126" s="36" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B126" s="34" t="s">
         <v>111</v>
       </c>
       <c r="C126" s="35" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="D126" s="36" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="E126" s="34" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="F126" s="34"/>
       <c r="G126" s="24"/>
@@ -7980,22 +7976,22 @@
     </row>
     <row r="127" spans="1:26" s="27" customFormat="1">
       <c r="A127" s="36" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B127" s="34" t="s">
         <v>151</v>
       </c>
       <c r="C127" s="34" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="D127" s="24" t="s">
         <v>11</v>
       </c>
       <c r="E127" s="34" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="F127" s="35" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="G127" s="24"/>
       <c r="H127" t="s">
@@ -8022,19 +8018,19 @@
     </row>
     <row r="128" spans="1:26" s="27" customFormat="1">
       <c r="A128" s="36" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B128" s="34" t="s">
         <v>152</v>
       </c>
       <c r="C128" s="35" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="D128" s="36" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="E128" s="34" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="F128" s="34"/>
       <c r="G128" s="24"/>
@@ -8062,22 +8058,22 @@
     </row>
     <row r="129" spans="1:26" s="27" customFormat="1">
       <c r="A129" s="36" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B129" s="34" t="s">
         <v>153</v>
       </c>
       <c r="C129" s="34" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="D129" s="24" t="s">
         <v>11</v>
       </c>
       <c r="E129" s="34" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="F129" s="34" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="G129" s="24"/>
       <c r="H129" t="s">
@@ -8104,19 +8100,19 @@
     </row>
     <row r="130" spans="1:26" s="27" customFormat="1">
       <c r="A130" s="36" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B130" s="34" t="s">
         <v>154</v>
       </c>
       <c r="C130" s="34" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="D130" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E130" s="35" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="F130" s="34"/>
       <c r="G130" s="24"/>
@@ -8144,19 +8140,19 @@
     </row>
     <row r="131" spans="1:26" s="27" customFormat="1">
       <c r="A131" s="36" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B131" s="34" t="s">
         <v>155</v>
       </c>
       <c r="C131" s="34" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="D131" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E131" s="34" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="F131" s="34"/>
       <c r="G131" s="24"/>
@@ -8184,22 +8180,22 @@
     </row>
     <row r="132" spans="1:26" s="27" customFormat="1">
       <c r="A132" s="36" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B132" s="34" t="s">
         <v>156</v>
       </c>
       <c r="C132" s="34" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="D132" s="24" t="s">
         <v>11</v>
       </c>
       <c r="E132" s="34" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="F132" s="35" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="G132" s="24"/>
       <c r="H132" t="s">
@@ -8226,19 +8222,19 @@
     </row>
     <row r="133" spans="1:26" s="27" customFormat="1">
       <c r="A133" s="36" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B133" s="34" t="s">
         <v>157</v>
       </c>
       <c r="C133" s="34" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="D133" s="24" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="E133" s="34" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="F133" s="34"/>
       <c r="G133" s="24"/>
@@ -8266,19 +8262,19 @@
     </row>
     <row r="134" spans="1:26" s="27" customFormat="1">
       <c r="A134" s="36" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B134" s="34" t="s">
         <v>158</v>
       </c>
       <c r="C134" s="35" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="D134" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E134" s="35" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="F134" s="34"/>
       <c r="G134" s="24"/>
@@ -8306,19 +8302,19 @@
     </row>
     <row r="135" spans="1:26" s="27" customFormat="1">
       <c r="A135" s="36" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B135" s="34" t="s">
         <v>159</v>
       </c>
       <c r="C135" s="34" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="D135" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E135" s="34" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="F135" s="34"/>
       <c r="G135" s="24"/>
@@ -8346,16 +8342,16 @@
     </row>
     <row r="136" spans="1:26" s="27" customFormat="1">
       <c r="A136" s="36" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B136" s="34" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="C136" s="35" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="D136" s="36" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="E136" s="35">
         <v>20</v>
@@ -8386,19 +8382,19 @@
     </row>
     <row r="137" spans="1:26" s="27" customFormat="1">
       <c r="A137" s="36" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B137" s="34" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="C137" s="34" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="D137" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E137" s="35" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="F137" s="34"/>
       <c r="G137" s="24"/>
@@ -8426,10 +8422,10 @@
     </row>
     <row r="138" spans="1:26" s="27" customFormat="1">
       <c r="A138" s="36" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B138" s="34" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="C138" s="34"/>
       <c r="D138" s="24" t="s">
@@ -8462,19 +8458,19 @@
     </row>
     <row r="139" spans="1:26" s="27" customFormat="1">
       <c r="A139" s="36" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B139" s="34" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="C139" s="34" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="D139" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E139" s="34" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="F139" s="34"/>
       <c r="G139" s="24"/>
@@ -8502,19 +8498,19 @@
     </row>
     <row r="140" spans="1:26" s="27" customFormat="1">
       <c r="A140" s="36" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B140" s="34" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="C140" s="34" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="D140" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E140" s="35" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="F140" s="35"/>
       <c r="G140" s="24"/>
@@ -8542,19 +8538,19 @@
     </row>
     <row r="141" spans="1:26" s="27" customFormat="1">
       <c r="A141" s="36" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B141" s="34" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="C141" s="35" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="D141" s="36" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="E141" s="35" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="F141" s="35"/>
       <c r="G141" s="24"/>
@@ -8582,10 +8578,10 @@
     </row>
     <row r="142" spans="1:26" s="27" customFormat="1">
       <c r="A142" s="36" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B142" s="34" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="C142" s="34" t="s">
         <v>28</v>
@@ -8661,15 +8657,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="7" width="28.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="7" width="25.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="7" width="33.28515625" collapsed="true"/>
-    <col min="4" max="14" customWidth="true" style="7" width="25.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="7" width="15.42578125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="7" width="17.0" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="7" width="9.42578125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="7" width="255.0" collapsed="true"/>
-    <col min="19" max="16384" style="7" width="8.85546875" collapsed="true"/>
+    <col min="1" max="1" width="28.28515625" style="7" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.28515625" style="7" customWidth="1" collapsed="1"/>
+    <col min="4" max="14" width="25.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17" style="7" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="255" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="16384" width="8.85546875" style="7" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -8730,13 +8726,13 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="23" t="s">
-        <v>249</v>
+        <v>343</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>250</v>
+        <v>344</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>58</v>
@@ -8777,7 +8773,7 @@
         <v>12</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>251</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -9268,10 +9264,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="1" max="1" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="7" customFormat="1">
@@ -9865,20 +9861,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="31.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="62.4765625" collapsed="true"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="27" customFormat="1" ht="12.75" customHeight="1">
@@ -9889,37 +9885,37 @@
         <v>48</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="N1" s="28" t="s">
         <v>2</v>
@@ -9948,43 +9944,43 @@
     </row>
     <row r="2" spans="1:33" s="27" customFormat="1" ht="12.75" customHeight="1">
       <c r="A2" s="30" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>12</v>
